--- a/Dati aggiuntivi/fest.xlsx
+++ b/Dati aggiuntivi/fest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Desktop\Uni Bicocca\GitHub\Data-Science-Lab\Dati aggiuntivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E6DEE3-9593-4BAF-83C5-217537413A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BB4289-BC56-465C-A0A7-21C6827C5A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB71E74E-2008-4B40-AB21-608AC5ED567E}"/>
+    <workbookView xWindow="1812" yWindow="2448" windowWidth="17280" windowHeight="9960" xr2:uid="{FB71E74E-2008-4B40-AB21-608AC5ED567E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>mag1</t>
+  </si>
+  <si>
+    <t>dec26</t>
   </si>
 </sst>
 </file>
@@ -447,15 +450,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F627B3D8-8A6E-409C-97A0-6F3BA026AF8A}">
   <dimension ref="A1:T1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -469,36 +472,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -545,6 +551,9 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -590,6 +599,9 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -635,6 +647,9 @@
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -680,6 +695,9 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -724,6 +742,9 @@
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -768,6 +789,9 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -812,6 +836,9 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -856,6 +883,9 @@
       <c r="N9">
         <v>0</v>
       </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -900,6 +930,9 @@
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -944,6 +977,9 @@
       <c r="N11">
         <v>0</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -988,6 +1024,9 @@
       <c r="N12">
         <v>0</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1032,6 +1071,9 @@
       <c r="N13">
         <v>0</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1076,6 +1118,9 @@
       <c r="N14">
         <v>0</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1120,6 +1165,9 @@
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1164,8 +1212,11 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43361</v>
       </c>
@@ -1208,8 +1259,11 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43362</v>
       </c>
@@ -1252,8 +1306,11 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43363</v>
       </c>
@@ -1296,8 +1353,11 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43364</v>
       </c>
@@ -1340,8 +1400,11 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43365</v>
       </c>
@@ -1384,8 +1447,11 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43366</v>
       </c>
@@ -1428,8 +1494,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43367</v>
       </c>
@@ -1472,8 +1541,11 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43368</v>
       </c>
@@ -1516,8 +1588,11 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43369</v>
       </c>
@@ -1560,8 +1635,11 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43370</v>
       </c>
@@ -1604,8 +1682,11 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43371</v>
       </c>
@@ -1648,8 +1729,11 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43372</v>
       </c>
@@ -1692,8 +1776,11 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43373</v>
       </c>
@@ -1736,8 +1823,11 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43374</v>
       </c>
@@ -1780,8 +1870,11 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43375</v>
       </c>
@@ -1824,8 +1917,11 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43376</v>
       </c>
@@ -1868,8 +1964,11 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43377</v>
       </c>
@@ -1912,8 +2011,11 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43378</v>
       </c>
@@ -1956,8 +2058,11 @@
       <c r="N34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43379</v>
       </c>
@@ -2000,8 +2105,11 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43380</v>
       </c>
@@ -2044,8 +2152,11 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43381</v>
       </c>
@@ -2088,8 +2199,11 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43382</v>
       </c>
@@ -2132,8 +2246,11 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43383</v>
       </c>
@@ -2176,8 +2293,11 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43384</v>
       </c>
@@ -2220,8 +2340,11 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43385</v>
       </c>
@@ -2264,8 +2387,11 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43386</v>
       </c>
@@ -2308,8 +2434,11 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43387</v>
       </c>
@@ -2352,8 +2481,11 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43388</v>
       </c>
@@ -2396,8 +2528,11 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43389</v>
       </c>
@@ -2440,8 +2575,11 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43390</v>
       </c>
@@ -2484,8 +2622,11 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43391</v>
       </c>
@@ -2528,8 +2669,11 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43392</v>
       </c>
@@ -2572,8 +2716,11 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43393</v>
       </c>
@@ -2616,8 +2763,11 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43394</v>
       </c>
@@ -2660,8 +2810,11 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43395</v>
       </c>
@@ -2704,8 +2857,11 @@
       <c r="N51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43396</v>
       </c>
@@ -2748,8 +2904,11 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43397</v>
       </c>
@@ -2792,8 +2951,11 @@
       <c r="N53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43398</v>
       </c>
@@ -2836,8 +2998,11 @@
       <c r="N54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43399</v>
       </c>
@@ -2880,8 +3045,11 @@
       <c r="N55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43400</v>
       </c>
@@ -2924,8 +3092,11 @@
       <c r="N56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43401</v>
       </c>
@@ -2968,8 +3139,11 @@
       <c r="N57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43402</v>
       </c>
@@ -3012,8 +3186,11 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43403</v>
       </c>
@@ -3056,8 +3233,11 @@
       <c r="N59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43404</v>
       </c>
@@ -3086,11 +3266,11 @@
         <v>0</v>
       </c>
       <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>1</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
       <c r="L60">
         <v>0</v>
       </c>
@@ -3100,8 +3280,11 @@
       <c r="N60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43405</v>
       </c>
@@ -3133,19 +3316,22 @@
         <v>0</v>
       </c>
       <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>1</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43406</v>
       </c>
@@ -3188,8 +3374,11 @@
       <c r="N62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43407</v>
       </c>
@@ -3232,8 +3421,11 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43408</v>
       </c>
@@ -3276,8 +3468,11 @@
       <c r="N64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43409</v>
       </c>
@@ -3320,8 +3515,11 @@
       <c r="N65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43410</v>
       </c>
@@ -3364,8 +3562,11 @@
       <c r="N66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43411</v>
       </c>
@@ -3408,8 +3609,11 @@
       <c r="N67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43412</v>
       </c>
@@ -3452,8 +3656,11 @@
       <c r="N68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43413</v>
       </c>
@@ -3496,8 +3703,11 @@
       <c r="N69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43414</v>
       </c>
@@ -3540,8 +3750,11 @@
       <c r="N70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43415</v>
       </c>
@@ -3584,8 +3797,11 @@
       <c r="N71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43416</v>
       </c>
@@ -3628,8 +3844,11 @@
       <c r="N72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43417</v>
       </c>
@@ -3672,8 +3891,11 @@
       <c r="N73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43418</v>
       </c>
@@ -3716,8 +3938,11 @@
       <c r="N74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43419</v>
       </c>
@@ -3760,8 +3985,11 @@
       <c r="N75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43420</v>
       </c>
@@ -3804,8 +4032,11 @@
       <c r="N76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43421</v>
       </c>
@@ -3848,8 +4079,11 @@
       <c r="N77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43422</v>
       </c>
@@ -3892,8 +4126,11 @@
       <c r="N78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43423</v>
       </c>
@@ -3936,8 +4173,11 @@
       <c r="N79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43424</v>
       </c>
@@ -3980,8 +4220,11 @@
       <c r="N80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43425</v>
       </c>
@@ -4024,8 +4267,11 @@
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43426</v>
       </c>
@@ -4068,8 +4314,11 @@
       <c r="N82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43427</v>
       </c>
@@ -4112,8 +4361,11 @@
       <c r="N83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43428</v>
       </c>
@@ -4156,8 +4408,11 @@
       <c r="N84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43429</v>
       </c>
@@ -4200,8 +4455,11 @@
       <c r="N85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43430</v>
       </c>
@@ -4244,8 +4502,11 @@
       <c r="N86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43431</v>
       </c>
@@ -4288,8 +4549,11 @@
       <c r="N87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43432</v>
       </c>
@@ -4332,8 +4596,11 @@
       <c r="N88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43433</v>
       </c>
@@ -4376,8 +4643,11 @@
       <c r="N89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43434</v>
       </c>
@@ -4420,8 +4690,11 @@
       <c r="N90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43435</v>
       </c>
@@ -4464,8 +4737,11 @@
       <c r="N91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43436</v>
       </c>
@@ -4508,8 +4784,11 @@
       <c r="N92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43437</v>
       </c>
@@ -4552,8 +4831,11 @@
       <c r="N93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43438</v>
       </c>
@@ -4596,8 +4878,11 @@
       <c r="N94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43439</v>
       </c>
@@ -4640,8 +4925,11 @@
       <c r="N95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43440</v>
       </c>
@@ -4684,8 +4972,11 @@
       <c r="N96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43441</v>
       </c>
@@ -4728,8 +5019,11 @@
       <c r="N97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43442</v>
       </c>
@@ -4772,8 +5066,11 @@
       <c r="N98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43443</v>
       </c>
@@ -4816,8 +5113,11 @@
       <c r="N99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43444</v>
       </c>
@@ -4860,8 +5160,11 @@
       <c r="N100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43445</v>
       </c>
@@ -4904,8 +5207,11 @@
       <c r="N101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43446</v>
       </c>
@@ -4948,8 +5254,11 @@
       <c r="N102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43447</v>
       </c>
@@ -4992,8 +5301,11 @@
       <c r="N103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43448</v>
       </c>
@@ -5036,8 +5348,11 @@
       <c r="N104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43449</v>
       </c>
@@ -5080,8 +5395,11 @@
       <c r="N105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43450</v>
       </c>
@@ -5124,8 +5442,11 @@
       <c r="N106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43451</v>
       </c>
@@ -5168,8 +5489,11 @@
       <c r="N107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43452</v>
       </c>
@@ -5212,8 +5536,11 @@
       <c r="N108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43453</v>
       </c>
@@ -5256,8 +5583,11 @@
       <c r="N109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43454</v>
       </c>
@@ -5300,8 +5630,11 @@
       <c r="N110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43455</v>
       </c>
@@ -5344,8 +5677,11 @@
       <c r="N111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43456</v>
       </c>
@@ -5388,8 +5724,11 @@
       <c r="N112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43457</v>
       </c>
@@ -5432,8 +5771,11 @@
       <c r="N113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43458</v>
       </c>
@@ -5476,8 +5818,11 @@
       <c r="N114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43459</v>
       </c>
@@ -5520,8 +5865,11 @@
       <c r="N115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43460</v>
       </c>
@@ -5532,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5564,8 +5912,11 @@
       <c r="N116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43461</v>
       </c>
@@ -5608,8 +5959,11 @@
       <c r="N117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43462</v>
       </c>
@@ -5652,8 +6006,11 @@
       <c r="N118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43463</v>
       </c>
@@ -5696,8 +6053,11 @@
       <c r="N119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43464</v>
       </c>
@@ -5740,8 +6100,11 @@
       <c r="N120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43465</v>
       </c>
@@ -5761,11 +6124,11 @@
         <v>0</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>1</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
       <c r="I121">
         <v>0</v>
       </c>
@@ -5784,8 +6147,11 @@
       <c r="N121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43466</v>
       </c>
@@ -5796,11 +6162,11 @@
         <v>0</v>
       </c>
       <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
         <v>1</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
       <c r="F122">
         <v>0</v>
       </c>
@@ -5828,8 +6194,11 @@
       <c r="N122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43467</v>
       </c>
@@ -5872,8 +6241,11 @@
       <c r="N123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43468</v>
       </c>
@@ -5916,8 +6288,11 @@
       <c r="N124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43469</v>
       </c>
@@ -5960,8 +6335,11 @@
       <c r="N125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43470</v>
       </c>
@@ -6004,8 +6382,11 @@
       <c r="N126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43471</v>
       </c>
@@ -6019,11 +6400,11 @@
         <v>0</v>
       </c>
       <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
         <v>1</v>
       </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
       <c r="G127">
         <v>0</v>
       </c>
@@ -6048,8 +6429,11 @@
       <c r="N127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43472</v>
       </c>
@@ -6092,8 +6476,11 @@
       <c r="N128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43473</v>
       </c>
@@ -6136,8 +6523,11 @@
       <c r="N129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43474</v>
       </c>
@@ -6180,8 +6570,11 @@
       <c r="N130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43475</v>
       </c>
@@ -6224,8 +6617,11 @@
       <c r="N131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43476</v>
       </c>
@@ -6268,8 +6664,11 @@
       <c r="N132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43477</v>
       </c>
@@ -6312,8 +6711,11 @@
       <c r="N133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43478</v>
       </c>
@@ -6356,8 +6758,11 @@
       <c r="N134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43479</v>
       </c>
@@ -6400,8 +6805,11 @@
       <c r="N135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43480</v>
       </c>
@@ -6444,8 +6852,11 @@
       <c r="N136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43481</v>
       </c>
@@ -6488,8 +6899,11 @@
       <c r="N137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43482</v>
       </c>
@@ -6532,8 +6946,11 @@
       <c r="N138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43483</v>
       </c>
@@ -6576,8 +6993,11 @@
       <c r="N139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43484</v>
       </c>
@@ -6620,8 +7040,11 @@
       <c r="N140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43485</v>
       </c>
@@ -6664,8 +7087,11 @@
       <c r="N141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43486</v>
       </c>
@@ -6708,8 +7134,11 @@
       <c r="N142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43487</v>
       </c>
@@ -6752,8 +7181,11 @@
       <c r="N143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43488</v>
       </c>
@@ -6796,8 +7228,11 @@
       <c r="N144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43489</v>
       </c>
@@ -6840,8 +7275,11 @@
       <c r="N145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43490</v>
       </c>
@@ -6884,8 +7322,11 @@
       <c r="N146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43491</v>
       </c>
@@ -6928,8 +7369,11 @@
       <c r="N147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43492</v>
       </c>
@@ -6972,8 +7416,11 @@
       <c r="N148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43493</v>
       </c>
@@ -7016,8 +7463,11 @@
       <c r="N149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43494</v>
       </c>
@@ -7060,8 +7510,11 @@
       <c r="N150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43495</v>
       </c>
@@ -7104,8 +7557,11 @@
       <c r="N151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
@@ -7148,8 +7604,11 @@
       <c r="N152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43497</v>
       </c>
@@ -7192,8 +7651,11 @@
       <c r="N153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43498</v>
       </c>
@@ -7236,8 +7698,11 @@
       <c r="N154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43499</v>
       </c>
@@ -7280,8 +7745,11 @@
       <c r="N155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43500</v>
       </c>
@@ -7324,8 +7792,11 @@
       <c r="N156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43501</v>
       </c>
@@ -7368,8 +7839,11 @@
       <c r="N157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43502</v>
       </c>
@@ -7412,8 +7886,11 @@
       <c r="N158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43503</v>
       </c>
@@ -7456,8 +7933,11 @@
       <c r="N159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43504</v>
       </c>
@@ -7500,8 +7980,11 @@
       <c r="N160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43505</v>
       </c>
@@ -7544,8 +8027,11 @@
       <c r="N161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43506</v>
       </c>
@@ -7588,8 +8074,11 @@
       <c r="N162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43507</v>
       </c>
@@ -7632,8 +8121,11 @@
       <c r="N163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43508</v>
       </c>
@@ -7676,8 +8168,11 @@
       <c r="N164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43509</v>
       </c>
@@ -7720,8 +8215,11 @@
       <c r="N165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43510</v>
       </c>
@@ -7764,8 +8262,11 @@
       <c r="N166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43511</v>
       </c>
@@ -7808,8 +8309,11 @@
       <c r="N167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43512</v>
       </c>
@@ -7852,8 +8356,11 @@
       <c r="N168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43513</v>
       </c>
@@ -7896,8 +8403,11 @@
       <c r="N169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43514</v>
       </c>
@@ -7940,8 +8450,11 @@
       <c r="N170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43515</v>
       </c>
@@ -7984,8 +8497,11 @@
       <c r="N171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43516</v>
       </c>
@@ -8028,8 +8544,11 @@
       <c r="N172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43517</v>
       </c>
@@ -8072,8 +8591,11 @@
       <c r="N173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43518</v>
       </c>
@@ -8116,8 +8638,11 @@
       <c r="N174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43519</v>
       </c>
@@ -8160,8 +8685,11 @@
       <c r="N175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43520</v>
       </c>
@@ -8204,8 +8732,11 @@
       <c r="N176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43521</v>
       </c>
@@ -8248,8 +8779,11 @@
       <c r="N177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43522</v>
       </c>
@@ -8292,8 +8826,11 @@
       <c r="N178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43523</v>
       </c>
@@ -8336,8 +8873,11 @@
       <c r="N179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43524</v>
       </c>
@@ -8380,8 +8920,11 @@
       <c r="N180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43525</v>
       </c>
@@ -8424,8 +8967,11 @@
       <c r="N181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43526</v>
       </c>
@@ -8468,8 +9014,11 @@
       <c r="N182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43527</v>
       </c>
@@ -8512,8 +9061,11 @@
       <c r="N183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43528</v>
       </c>
@@ -8556,8 +9108,11 @@
       <c r="N184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43529</v>
       </c>
@@ -8600,8 +9155,11 @@
       <c r="N185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43530</v>
       </c>
@@ -8644,8 +9202,11 @@
       <c r="N186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43531</v>
       </c>
@@ -8688,8 +9249,11 @@
       <c r="N187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43532</v>
       </c>
@@ -8732,8 +9296,11 @@
       <c r="N188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43533</v>
       </c>
@@ -8776,8 +9343,11 @@
       <c r="N189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43534</v>
       </c>
@@ -8820,8 +9390,11 @@
       <c r="N190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43535</v>
       </c>
@@ -8864,8 +9437,11 @@
       <c r="N191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43536</v>
       </c>
@@ -8908,8 +9484,11 @@
       <c r="N192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43537</v>
       </c>
@@ -8952,8 +9531,11 @@
       <c r="N193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43538</v>
       </c>
@@ -8996,8 +9578,11 @@
       <c r="N194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43539</v>
       </c>
@@ -9040,8 +9625,11 @@
       <c r="N195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43540</v>
       </c>
@@ -9084,8 +9672,11 @@
       <c r="N196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43541</v>
       </c>
@@ -9128,8 +9719,11 @@
       <c r="N197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43542</v>
       </c>
@@ -9172,8 +9766,11 @@
       <c r="N198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43543</v>
       </c>
@@ -9216,8 +9813,11 @@
       <c r="N199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43544</v>
       </c>
@@ -9260,8 +9860,11 @@
       <c r="N200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>43545</v>
       </c>
@@ -9304,8 +9907,11 @@
       <c r="N201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>43546</v>
       </c>
@@ -9348,8 +9954,11 @@
       <c r="N202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43547</v>
       </c>
@@ -9392,8 +10001,11 @@
       <c r="N203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43548</v>
       </c>
@@ -9436,8 +10048,11 @@
       <c r="N204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43549</v>
       </c>
@@ -9480,8 +10095,11 @@
       <c r="N205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43550</v>
       </c>
@@ -9524,8 +10142,11 @@
       <c r="N206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43551</v>
       </c>
@@ -9568,8 +10189,11 @@
       <c r="N207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43552</v>
       </c>
@@ -9612,8 +10236,11 @@
       <c r="N208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43553</v>
       </c>
@@ -9656,8 +10283,11 @@
       <c r="N209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43554</v>
       </c>
@@ -9700,8 +10330,11 @@
       <c r="N210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43555</v>
       </c>
@@ -9744,8 +10377,11 @@
       <c r="N211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43556</v>
       </c>
@@ -9788,8 +10424,11 @@
       <c r="N212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43557</v>
       </c>
@@ -9832,8 +10471,11 @@
       <c r="N213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43558</v>
       </c>
@@ -9876,8 +10518,11 @@
       <c r="N214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43559</v>
       </c>
@@ -9920,8 +10565,11 @@
       <c r="N215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43560</v>
       </c>
@@ -9964,8 +10612,11 @@
       <c r="N216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43561</v>
       </c>
@@ -10008,8 +10659,11 @@
       <c r="N217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43562</v>
       </c>
@@ -10052,8 +10706,11 @@
       <c r="N218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43563</v>
       </c>
@@ -10096,8 +10753,11 @@
       <c r="N219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43564</v>
       </c>
@@ -10140,8 +10800,11 @@
       <c r="N220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43565</v>
       </c>
@@ -10184,8 +10847,11 @@
       <c r="N221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>43566</v>
       </c>
@@ -10228,8 +10894,11 @@
       <c r="N222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>43567</v>
       </c>
@@ -10272,8 +10941,11 @@
       <c r="N223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>43568</v>
       </c>
@@ -10316,8 +10988,11 @@
       <c r="N224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>43569</v>
       </c>
@@ -10360,8 +11035,11 @@
       <c r="N225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>43570</v>
       </c>
@@ -10404,8 +11082,11 @@
       <c r="N226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>43571</v>
       </c>
@@ -10448,8 +11129,11 @@
       <c r="N227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>43572</v>
       </c>
@@ -10492,8 +11176,11 @@
       <c r="N228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>43573</v>
       </c>
@@ -10536,8 +11223,11 @@
       <c r="N229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>43574</v>
       </c>
@@ -10580,8 +11270,11 @@
       <c r="N230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>43575</v>
       </c>
@@ -10624,8 +11317,11 @@
       <c r="N231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>43576</v>
       </c>
@@ -10648,11 +11344,11 @@
         <v>0</v>
       </c>
       <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
         <v>1</v>
       </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
       <c r="J232">
         <v>0</v>
       </c>
@@ -10668,8 +11364,11 @@
       <c r="N232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>43577</v>
       </c>
@@ -10695,11 +11394,11 @@
         <v>0</v>
       </c>
       <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>0</v>
-      </c>
       <c r="K233">
         <v>0</v>
       </c>
@@ -10712,8 +11411,11 @@
       <c r="N233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>43578</v>
       </c>
@@ -10754,10 +11456,13 @@
         <v>0</v>
       </c>
       <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>43579</v>
       </c>
@@ -10798,10 +11503,13 @@
         <v>0</v>
       </c>
       <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>43580</v>
       </c>
@@ -10836,16 +11544,19 @@
         <v>0</v>
       </c>
       <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
         <v>1</v>
       </c>
-      <c r="M236">
-        <v>0</v>
-      </c>
       <c r="N236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>43581</v>
       </c>
@@ -10888,8 +11599,11 @@
       <c r="N237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>43582</v>
       </c>
@@ -10932,8 +11646,11 @@
       <c r="N238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>43583</v>
       </c>
@@ -10976,8 +11693,11 @@
       <c r="N239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>43584</v>
       </c>
@@ -11020,8 +11740,11 @@
       <c r="N240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>43585</v>
       </c>
@@ -11064,8 +11787,11 @@
       <c r="N241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>43586</v>
       </c>
@@ -11103,13 +11829,16 @@
         <v>0</v>
       </c>
       <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
         <v>1</v>
       </c>
-      <c r="N242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>43587</v>
       </c>
@@ -11152,8 +11881,11 @@
       <c r="N243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>43588</v>
       </c>
@@ -11196,8 +11928,11 @@
       <c r="N244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>43589</v>
       </c>
@@ -11240,8 +11975,11 @@
       <c r="N245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>43590</v>
       </c>
@@ -11284,8 +12022,11 @@
       <c r="N246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>43591</v>
       </c>
@@ -11328,8 +12069,11 @@
       <c r="N247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>43592</v>
       </c>
@@ -11372,8 +12116,11 @@
       <c r="N248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>43593</v>
       </c>
@@ -11416,8 +12163,11 @@
       <c r="N249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>43594</v>
       </c>
@@ -11460,8 +12210,11 @@
       <c r="N250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>43595</v>
       </c>
@@ -11504,8 +12257,11 @@
       <c r="N251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>43596</v>
       </c>
@@ -11548,8 +12304,11 @@
       <c r="N252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>43597</v>
       </c>
@@ -11592,8 +12351,11 @@
       <c r="N253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>43598</v>
       </c>
@@ -11636,8 +12398,11 @@
       <c r="N254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>43599</v>
       </c>
@@ -11680,8 +12445,11 @@
       <c r="N255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>43600</v>
       </c>
@@ -11724,8 +12492,11 @@
       <c r="N256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>43601</v>
       </c>
@@ -11768,8 +12539,11 @@
       <c r="N257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>43602</v>
       </c>
@@ -11812,8 +12586,11 @@
       <c r="N258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>43603</v>
       </c>
@@ -11856,8 +12633,11 @@
       <c r="N259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>43604</v>
       </c>
@@ -11900,8 +12680,11 @@
       <c r="N260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>43605</v>
       </c>
@@ -11944,8 +12727,11 @@
       <c r="N261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>43606</v>
       </c>
@@ -11988,8 +12774,11 @@
       <c r="N262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>43607</v>
       </c>
@@ -12032,8 +12821,11 @@
       <c r="N263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>43608</v>
       </c>
@@ -12076,8 +12868,11 @@
       <c r="N264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>43609</v>
       </c>
@@ -12120,8 +12915,11 @@
       <c r="N265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>43610</v>
       </c>
@@ -12164,8 +12962,11 @@
       <c r="N266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>43611</v>
       </c>
@@ -12208,8 +13009,11 @@
       <c r="N267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>43612</v>
       </c>
@@ -12252,8 +13056,11 @@
       <c r="N268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>43613</v>
       </c>
@@ -12296,8 +13103,11 @@
       <c r="N269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>43614</v>
       </c>
@@ -12340,8 +13150,11 @@
       <c r="N270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>43615</v>
       </c>
@@ -12384,8 +13197,11 @@
       <c r="N271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>43616</v>
       </c>
@@ -12428,8 +13244,11 @@
       <c r="N272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>43617</v>
       </c>
@@ -12472,8 +13291,11 @@
       <c r="N273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>43618</v>
       </c>
@@ -12516,8 +13338,11 @@
       <c r="N274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>43619</v>
       </c>
@@ -12560,8 +13385,11 @@
       <c r="N275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>43620</v>
       </c>
@@ -12604,8 +13432,11 @@
       <c r="N276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>43621</v>
       </c>
@@ -12648,8 +13479,11 @@
       <c r="N277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>43622</v>
       </c>
@@ -12692,8 +13526,11 @@
       <c r="N278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>43623</v>
       </c>
@@ -12736,8 +13573,11 @@
       <c r="N279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>43624</v>
       </c>
@@ -12780,8 +13620,11 @@
       <c r="N280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>43625</v>
       </c>
@@ -12824,8 +13667,11 @@
       <c r="N281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>43626</v>
       </c>
@@ -12868,8 +13714,11 @@
       <c r="N282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>43627</v>
       </c>
@@ -12912,8 +13761,11 @@
       <c r="N283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>43628</v>
       </c>
@@ -12956,8 +13808,11 @@
       <c r="N284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>43629</v>
       </c>
@@ -13000,8 +13855,11 @@
       <c r="N285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>43630</v>
       </c>
@@ -13044,8 +13902,11 @@
       <c r="N286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>43631</v>
       </c>
@@ -13088,8 +13949,11 @@
       <c r="N287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>43632</v>
       </c>
@@ -13132,8 +13996,11 @@
       <c r="N288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>43633</v>
       </c>
@@ -13176,8 +14043,11 @@
       <c r="N289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>43634</v>
       </c>
@@ -13220,8 +14090,11 @@
       <c r="N290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>43635</v>
       </c>
@@ -13264,8 +14137,11 @@
       <c r="N291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>43636</v>
       </c>
@@ -13308,8 +14184,11 @@
       <c r="N292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>43637</v>
       </c>
@@ -13352,8 +14231,11 @@
       <c r="N293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>43638</v>
       </c>
@@ -13396,8 +14278,11 @@
       <c r="N294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>43639</v>
       </c>
@@ -13440,8 +14325,11 @@
       <c r="N295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>43640</v>
       </c>
@@ -13484,8 +14372,11 @@
       <c r="N296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>43641</v>
       </c>
@@ -13528,8 +14419,11 @@
       <c r="N297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>43642</v>
       </c>
@@ -13572,8 +14466,11 @@
       <c r="N298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>43643</v>
       </c>
@@ -13616,8 +14513,11 @@
       <c r="N299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>43644</v>
       </c>
@@ -13660,8 +14560,11 @@
       <c r="N300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>43645</v>
       </c>
@@ -13704,8 +14607,11 @@
       <c r="N301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>43646</v>
       </c>
@@ -13748,8 +14654,11 @@
       <c r="N302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>43647</v>
       </c>
@@ -13792,8 +14701,11 @@
       <c r="N303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>43648</v>
       </c>
@@ -13836,8 +14748,11 @@
       <c r="N304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>43649</v>
       </c>
@@ -13880,8 +14795,11 @@
       <c r="N305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>43650</v>
       </c>
@@ -13924,8 +14842,11 @@
       <c r="N306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>43651</v>
       </c>
@@ -13968,8 +14889,11 @@
       <c r="N307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>43652</v>
       </c>
@@ -14012,8 +14936,11 @@
       <c r="N308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>43653</v>
       </c>
@@ -14056,8 +14983,11 @@
       <c r="N309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>43654</v>
       </c>
@@ -14100,8 +15030,11 @@
       <c r="N310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>43655</v>
       </c>
@@ -14144,8 +15077,11 @@
       <c r="N311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>43656</v>
       </c>
@@ -14188,8 +15124,11 @@
       <c r="N312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>43657</v>
       </c>
@@ -14232,8 +15171,11 @@
       <c r="N313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>43658</v>
       </c>
@@ -14276,8 +15218,11 @@
       <c r="N314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>43659</v>
       </c>
@@ -14320,8 +15265,11 @@
       <c r="N315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>43660</v>
       </c>
@@ -14364,8 +15312,11 @@
       <c r="N316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>43661</v>
       </c>
@@ -14408,8 +15359,11 @@
       <c r="N317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>43662</v>
       </c>
@@ -14452,8 +15406,11 @@
       <c r="N318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>43663</v>
       </c>
@@ -14496,8 +15453,11 @@
       <c r="N319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>43664</v>
       </c>
@@ -14540,8 +15500,11 @@
       <c r="N320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>43665</v>
       </c>
@@ -14584,8 +15547,11 @@
       <c r="N321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>43666</v>
       </c>
@@ -14628,8 +15594,11 @@
       <c r="N322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>43667</v>
       </c>
@@ -14672,8 +15641,11 @@
       <c r="N323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>43668</v>
       </c>
@@ -14716,8 +15688,11 @@
       <c r="N324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>43669</v>
       </c>
@@ -14760,8 +15735,11 @@
       <c r="N325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>43670</v>
       </c>
@@ -14804,8 +15782,11 @@
       <c r="N326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>43671</v>
       </c>
@@ -14848,8 +15829,11 @@
       <c r="N327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>43672</v>
       </c>
@@ -14892,8 +15876,11 @@
       <c r="N328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>43673</v>
       </c>
@@ -14936,8 +15923,11 @@
       <c r="N329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>43674</v>
       </c>
@@ -14980,8 +15970,11 @@
       <c r="N330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>43675</v>
       </c>
@@ -15024,8 +16017,11 @@
       <c r="N331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>43676</v>
       </c>
@@ -15068,8 +16064,11 @@
       <c r="N332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>43677</v>
       </c>
@@ -15112,8 +16111,11 @@
       <c r="N333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>43678</v>
       </c>
@@ -15156,8 +16158,11 @@
       <c r="N334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>43679</v>
       </c>
@@ -15200,8 +16205,11 @@
       <c r="N335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>43680</v>
       </c>
@@ -15244,8 +16252,11 @@
       <c r="N336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>43681</v>
       </c>
@@ -15288,8 +16299,11 @@
       <c r="N337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>43682</v>
       </c>
@@ -15332,8 +16346,11 @@
       <c r="N338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>43683</v>
       </c>
@@ -15376,8 +16393,11 @@
       <c r="N339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>43684</v>
       </c>
@@ -15420,8 +16440,11 @@
       <c r="N340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>43685</v>
       </c>
@@ -15464,8 +16487,11 @@
       <c r="N341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>43686</v>
       </c>
@@ -15508,8 +16534,11 @@
       <c r="N342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>43687</v>
       </c>
@@ -15552,8 +16581,11 @@
       <c r="N343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>43688</v>
       </c>
@@ -15596,8 +16628,11 @@
       <c r="N344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>43689</v>
       </c>
@@ -15640,8 +16675,11 @@
       <c r="N345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>43690</v>
       </c>
@@ -15684,8 +16722,11 @@
       <c r="N346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>43691</v>
       </c>
@@ -15728,8 +16769,11 @@
       <c r="N347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>43692</v>
       </c>
@@ -15746,11 +16790,11 @@
         <v>0</v>
       </c>
       <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
         <v>1</v>
       </c>
-      <c r="G348">
-        <v>0</v>
-      </c>
       <c r="H348">
         <v>0</v>
       </c>
@@ -15772,8 +16816,11 @@
       <c r="N348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>43693</v>
       </c>
@@ -15816,8 +16863,11 @@
       <c r="N349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>43694</v>
       </c>
@@ -15860,8 +16910,11 @@
       <c r="N350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>43695</v>
       </c>
@@ -15904,8 +16957,11 @@
       <c r="N351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>43696</v>
       </c>
@@ -15948,8 +17004,11 @@
       <c r="N352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>43697</v>
       </c>
@@ -15992,8 +17051,11 @@
       <c r="N353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>43698</v>
       </c>
@@ -16036,8 +17098,11 @@
       <c r="N354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>43699</v>
       </c>
@@ -16080,8 +17145,11 @@
       <c r="N355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>43700</v>
       </c>
@@ -16124,8 +17192,11 @@
       <c r="N356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>43701</v>
       </c>
@@ -16168,8 +17239,11 @@
       <c r="N357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>43702</v>
       </c>
@@ -16212,8 +17286,11 @@
       <c r="N358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>43703</v>
       </c>
@@ -16256,8 +17333,11 @@
       <c r="N359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>43704</v>
       </c>
@@ -16300,8 +17380,11 @@
       <c r="N360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>43705</v>
       </c>
@@ -16344,8 +17427,11 @@
       <c r="N361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>43706</v>
       </c>
@@ -16388,8 +17474,11 @@
       <c r="N362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>43707</v>
       </c>
@@ -16432,8 +17521,11 @@
       <c r="N363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>43708</v>
       </c>
@@ -16476,8 +17568,11 @@
       <c r="N364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>43709</v>
       </c>
@@ -16520,8 +17615,11 @@
       <c r="N365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>43710</v>
       </c>
@@ -16564,8 +17662,11 @@
       <c r="N366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>43711</v>
       </c>
@@ -16608,8 +17709,11 @@
       <c r="N367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>43712</v>
       </c>
@@ -16652,8 +17756,11 @@
       <c r="N368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>43713</v>
       </c>
@@ -16696,8 +17803,11 @@
       <c r="N369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>43714</v>
       </c>
@@ -16740,8 +17850,11 @@
       <c r="N370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>43715</v>
       </c>
@@ -16784,8 +17897,11 @@
       <c r="N371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>43716</v>
       </c>
@@ -16828,8 +17944,11 @@
       <c r="N372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>43717</v>
       </c>
@@ -16872,8 +17991,11 @@
       <c r="N373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>43718</v>
       </c>
@@ -16916,8 +18038,11 @@
       <c r="N374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>43719</v>
       </c>
@@ -16960,8 +18085,11 @@
       <c r="N375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>43720</v>
       </c>
@@ -17004,8 +18132,11 @@
       <c r="N376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>43721</v>
       </c>
@@ -17048,8 +18179,11 @@
       <c r="N377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>43722</v>
       </c>
@@ -17092,8 +18226,11 @@
       <c r="N378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>43723</v>
       </c>
@@ -17136,8 +18273,11 @@
       <c r="N379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>43724</v>
       </c>
@@ -17180,8 +18320,11 @@
       <c r="N380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>43725</v>
       </c>
@@ -17224,8 +18367,11 @@
       <c r="N381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>43726</v>
       </c>
@@ -17268,8 +18414,11 @@
       <c r="N382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>43727</v>
       </c>
@@ -17312,8 +18461,11 @@
       <c r="N383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>43728</v>
       </c>
@@ -17356,8 +18508,11 @@
       <c r="N384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>43729</v>
       </c>
@@ -17400,8 +18555,11 @@
       <c r="N385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>43730</v>
       </c>
@@ -17444,8 +18602,11 @@
       <c r="N386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>43731</v>
       </c>
@@ -17488,8 +18649,11 @@
       <c r="N387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>43732</v>
       </c>
@@ -17532,8 +18696,11 @@
       <c r="N388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>43733</v>
       </c>
@@ -17576,8 +18743,11 @@
       <c r="N389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>43734</v>
       </c>
@@ -17620,8 +18790,11 @@
       <c r="N390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>43735</v>
       </c>
@@ -17664,8 +18837,11 @@
       <c r="N391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>43736</v>
       </c>
@@ -17708,8 +18884,11 @@
       <c r="N392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>43737</v>
       </c>
@@ -17752,8 +18931,11 @@
       <c r="N393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>43738</v>
       </c>
@@ -17796,8 +18978,11 @@
       <c r="N394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>43739</v>
       </c>
@@ -17840,8 +19025,11 @@
       <c r="N395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>43740</v>
       </c>
@@ -17884,8 +19072,11 @@
       <c r="N396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>43741</v>
       </c>
@@ -17928,8 +19119,11 @@
       <c r="N397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>43742</v>
       </c>
@@ -17972,8 +19166,11 @@
       <c r="N398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>43743</v>
       </c>
@@ -18016,8 +19213,11 @@
       <c r="N399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>43744</v>
       </c>
@@ -18060,8 +19260,11 @@
       <c r="N400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>43745</v>
       </c>
@@ -18104,8 +19307,11 @@
       <c r="N401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>43746</v>
       </c>
@@ -18148,8 +19354,11 @@
       <c r="N402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>43747</v>
       </c>
@@ -18192,8 +19401,11 @@
       <c r="N403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>43748</v>
       </c>
@@ -18236,8 +19448,11 @@
       <c r="N404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>43749</v>
       </c>
@@ -18280,8 +19495,11 @@
       <c r="N405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>43750</v>
       </c>
@@ -18324,8 +19542,11 @@
       <c r="N406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>43751</v>
       </c>
@@ -18368,8 +19589,11 @@
       <c r="N407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>43752</v>
       </c>
@@ -18412,8 +19636,11 @@
       <c r="N408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>43753</v>
       </c>
@@ -18456,8 +19683,11 @@
       <c r="N409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>43754</v>
       </c>
@@ -18500,8 +19730,11 @@
       <c r="N410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>43755</v>
       </c>
@@ -18544,8 +19777,11 @@
       <c r="N411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>43756</v>
       </c>
@@ -18588,8 +19824,11 @@
       <c r="N412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>43757</v>
       </c>
@@ -18632,8 +19871,11 @@
       <c r="N413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>43758</v>
       </c>
@@ -18676,8 +19918,11 @@
       <c r="N414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>43759</v>
       </c>
@@ -18720,8 +19965,11 @@
       <c r="N415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>43760</v>
       </c>
@@ -18764,8 +20012,11 @@
       <c r="N416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>43761</v>
       </c>
@@ -18808,8 +20059,11 @@
       <c r="N417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>43762</v>
       </c>
@@ -18852,8 +20106,11 @@
       <c r="N418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>43763</v>
       </c>
@@ -18896,8 +20153,11 @@
       <c r="N419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>43764</v>
       </c>
@@ -18940,8 +20200,11 @@
       <c r="N420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>43765</v>
       </c>
@@ -18984,8 +20247,11 @@
       <c r="N421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>43766</v>
       </c>
@@ -19028,8 +20294,11 @@
       <c r="N422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>43767</v>
       </c>
@@ -19072,8 +20341,11 @@
       <c r="N423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>43768</v>
       </c>
@@ -19116,8 +20388,11 @@
       <c r="N424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>43769</v>
       </c>
@@ -19146,11 +20421,11 @@
         <v>0</v>
       </c>
       <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
         <v>1</v>
       </c>
-      <c r="K425">
-        <v>0</v>
-      </c>
       <c r="L425">
         <v>0</v>
       </c>
@@ -19160,8 +20435,11 @@
       <c r="N425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>43770</v>
       </c>
@@ -19193,19 +20471,22 @@
         <v>0</v>
       </c>
       <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
         <v>1</v>
       </c>
-      <c r="L426">
-        <v>0</v>
-      </c>
       <c r="M426">
         <v>0</v>
       </c>
       <c r="N426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>43771</v>
       </c>
@@ -19246,10 +20527,13 @@
         <v>0</v>
       </c>
       <c r="N427">
+        <v>0</v>
+      </c>
+      <c r="O427">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>43772</v>
       </c>
@@ -19292,8 +20576,11 @@
       <c r="N428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>43773</v>
       </c>
@@ -19336,8 +20623,11 @@
       <c r="N429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>43774</v>
       </c>
@@ -19380,8 +20670,11 @@
       <c r="N430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>43775</v>
       </c>
@@ -19424,8 +20717,11 @@
       <c r="N431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>43776</v>
       </c>
@@ -19468,8 +20764,11 @@
       <c r="N432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>43777</v>
       </c>
@@ -19512,8 +20811,11 @@
       <c r="N433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>43778</v>
       </c>
@@ -19556,8 +20858,11 @@
       <c r="N434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>43779</v>
       </c>
@@ -19600,8 +20905,11 @@
       <c r="N435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>43780</v>
       </c>
@@ -19644,8 +20952,11 @@
       <c r="N436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>43781</v>
       </c>
@@ -19688,8 +20999,11 @@
       <c r="N437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>43782</v>
       </c>
@@ -19732,8 +21046,11 @@
       <c r="N438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>43783</v>
       </c>
@@ -19776,8 +21093,11 @@
       <c r="N439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>43784</v>
       </c>
@@ -19820,8 +21140,11 @@
       <c r="N440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>43785</v>
       </c>
@@ -19864,8 +21187,11 @@
       <c r="N441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>43786</v>
       </c>
@@ -19908,8 +21234,11 @@
       <c r="N442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>43787</v>
       </c>
@@ -19952,8 +21281,11 @@
       <c r="N443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>43788</v>
       </c>
@@ -19996,8 +21328,11 @@
       <c r="N444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>43789</v>
       </c>
@@ -20040,8 +21375,11 @@
       <c r="N445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>43790</v>
       </c>
@@ -20084,8 +21422,11 @@
       <c r="N446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>43791</v>
       </c>
@@ -20128,8 +21469,11 @@
       <c r="N447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>43792</v>
       </c>
@@ -20172,8 +21516,11 @@
       <c r="N448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>43793</v>
       </c>
@@ -20216,8 +21563,11 @@
       <c r="N449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>43794</v>
       </c>
@@ -20260,8 +21610,11 @@
       <c r="N450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>43795</v>
       </c>
@@ -20304,8 +21657,11 @@
       <c r="N451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>43796</v>
       </c>
@@ -20348,8 +21704,11 @@
       <c r="N452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>43797</v>
       </c>
@@ -20392,8 +21751,11 @@
       <c r="N453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>43798</v>
       </c>
@@ -20436,8 +21798,11 @@
       <c r="N454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>43799</v>
       </c>
@@ -20480,8 +21845,11 @@
       <c r="N455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>43800</v>
       </c>
@@ -20524,8 +21892,11 @@
       <c r="N456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>43801</v>
       </c>
@@ -20568,8 +21939,11 @@
       <c r="N457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>43802</v>
       </c>
@@ -20612,8 +21986,11 @@
       <c r="N458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>43803</v>
       </c>
@@ -20656,8 +22033,11 @@
       <c r="N459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>43804</v>
       </c>
@@ -20700,8 +22080,11 @@
       <c r="N460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>43805</v>
       </c>
@@ -20744,8 +22127,11 @@
       <c r="N461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>43806</v>
       </c>
@@ -20788,8 +22174,11 @@
       <c r="N462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>43807</v>
       </c>
@@ -20832,8 +22221,11 @@
       <c r="N463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>43808</v>
       </c>
@@ -20876,8 +22268,11 @@
       <c r="N464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>43809</v>
       </c>
@@ -20920,8 +22315,11 @@
       <c r="N465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>43810</v>
       </c>
@@ -20964,8 +22362,11 @@
       <c r="N466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>43811</v>
       </c>
@@ -21008,8 +22409,11 @@
       <c r="N467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>43812</v>
       </c>
@@ -21052,8 +22456,11 @@
       <c r="N468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>43813</v>
       </c>
@@ -21096,8 +22503,11 @@
       <c r="N469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>43814</v>
       </c>
@@ -21140,8 +22550,11 @@
       <c r="N470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>43815</v>
       </c>
@@ -21184,8 +22597,11 @@
       <c r="N471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>43816</v>
       </c>
@@ -21228,8 +22644,11 @@
       <c r="N472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>43817</v>
       </c>
@@ -21272,8 +22691,11 @@
       <c r="N473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>43818</v>
       </c>
@@ -21316,8 +22738,11 @@
       <c r="N474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>43819</v>
       </c>
@@ -21360,8 +22785,11 @@
       <c r="N475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>43820</v>
       </c>
@@ -21404,8 +22832,11 @@
       <c r="N476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>43821</v>
       </c>
@@ -21448,8 +22879,11 @@
       <c r="N477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>43822</v>
       </c>
@@ -21492,13 +22926,16 @@
       <c r="N478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>43823</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -21536,8 +22973,11 @@
       <c r="N479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>43824</v>
       </c>
@@ -21545,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="C480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -21580,8 +23020,11 @@
       <c r="N480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>43825</v>
       </c>
@@ -21592,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -21624,8 +23067,11 @@
       <c r="N481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>43826</v>
       </c>
@@ -21668,8 +23114,11 @@
       <c r="N482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>43827</v>
       </c>
@@ -21712,8 +23161,11 @@
       <c r="N483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>43828</v>
       </c>
@@ -21756,8 +23208,11 @@
       <c r="N484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>43829</v>
       </c>
@@ -21800,8 +23255,11 @@
       <c r="N485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>43830</v>
       </c>
@@ -21824,7 +23282,7 @@
         <v>0</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486">
         <v>0</v>
@@ -21844,8 +23302,11 @@
       <c r="N486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>43831</v>
       </c>
@@ -21859,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="E487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -21888,8 +23349,11 @@
       <c r="N487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>43832</v>
       </c>
@@ -21932,8 +23396,11 @@
       <c r="N488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>43833</v>
       </c>
@@ -21976,8 +23443,11 @@
       <c r="N489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>43834</v>
       </c>
@@ -22020,8 +23490,11 @@
       <c r="N490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>43835</v>
       </c>
@@ -22064,8 +23537,11 @@
       <c r="N491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>43836</v>
       </c>
@@ -22082,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="F492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G492">
         <v>0</v>
@@ -22108,8 +23584,11 @@
       <c r="N492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>43837</v>
       </c>
@@ -22152,8 +23631,11 @@
       <c r="N493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>43838</v>
       </c>
@@ -22196,8 +23678,11 @@
       <c r="N494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>43839</v>
       </c>
@@ -22240,8 +23725,11 @@
       <c r="N495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>43840</v>
       </c>
@@ -22284,8 +23772,11 @@
       <c r="N496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>43841</v>
       </c>
@@ -22328,8 +23819,11 @@
       <c r="N497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>43842</v>
       </c>
@@ -22372,8 +23866,11 @@
       <c r="N498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>43843</v>
       </c>
@@ -22416,8 +23913,11 @@
       <c r="N499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>43844</v>
       </c>
@@ -22460,8 +23960,11 @@
       <c r="N500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>43845</v>
       </c>
@@ -22504,8 +24007,11 @@
       <c r="N501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>43846</v>
       </c>
@@ -22548,8 +24054,11 @@
       <c r="N502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>43847</v>
       </c>
@@ -22592,8 +24101,11 @@
       <c r="N503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>43848</v>
       </c>
@@ -22636,8 +24148,11 @@
       <c r="N504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>43849</v>
       </c>
@@ -22680,8 +24195,11 @@
       <c r="N505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>43850</v>
       </c>
@@ -22724,8 +24242,11 @@
       <c r="N506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>43851</v>
       </c>
@@ -22768,8 +24289,11 @@
       <c r="N507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>43852</v>
       </c>
@@ -22812,8 +24336,11 @@
       <c r="N508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>43853</v>
       </c>
@@ -22856,8 +24383,11 @@
       <c r="N509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>43854</v>
       </c>
@@ -22900,8 +24430,11 @@
       <c r="N510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>43855</v>
       </c>
@@ -22944,8 +24477,11 @@
       <c r="N511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>43856</v>
       </c>
@@ -22988,8 +24524,11 @@
       <c r="N512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>43857</v>
       </c>
@@ -23032,8 +24571,11 @@
       <c r="N513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>43858</v>
       </c>
@@ -23076,8 +24618,11 @@
       <c r="N514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>43859</v>
       </c>
@@ -23120,8 +24665,11 @@
       <c r="N515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>43860</v>
       </c>
@@ -23164,8 +24712,11 @@
       <c r="N516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>43861</v>
       </c>
@@ -23208,8 +24759,11 @@
       <c r="N517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>43862</v>
       </c>
@@ -23252,8 +24806,11 @@
       <c r="N518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>43863</v>
       </c>
@@ -23296,8 +24853,11 @@
       <c r="N519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>43864</v>
       </c>
@@ -23340,8 +24900,11 @@
       <c r="N520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>43865</v>
       </c>
@@ -23384,8 +24947,11 @@
       <c r="N521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>43866</v>
       </c>
@@ -23428,8 +24994,11 @@
       <c r="N522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>43867</v>
       </c>
@@ -23472,8 +25041,11 @@
       <c r="N523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>43868</v>
       </c>
@@ -23516,8 +25088,11 @@
       <c r="N524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>43869</v>
       </c>
@@ -23560,8 +25135,11 @@
       <c r="N525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>43870</v>
       </c>
@@ -23604,8 +25182,11 @@
       <c r="N526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>43871</v>
       </c>
@@ -23648,8 +25229,11 @@
       <c r="N527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>43872</v>
       </c>
@@ -23692,8 +25276,11 @@
       <c r="N528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>43873</v>
       </c>
@@ -23736,8 +25323,11 @@
       <c r="N529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>43874</v>
       </c>
@@ -23780,8 +25370,11 @@
       <c r="N530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>43875</v>
       </c>
@@ -23824,8 +25417,11 @@
       <c r="N531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>43876</v>
       </c>
@@ -23868,8 +25464,11 @@
       <c r="N532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>43877</v>
       </c>
@@ -23912,8 +25511,11 @@
       <c r="N533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>43878</v>
       </c>
@@ -23956,8 +25558,11 @@
       <c r="N534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>43879</v>
       </c>
@@ -24000,8 +25605,11 @@
       <c r="N535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>43880</v>
       </c>
@@ -24044,8 +25652,11 @@
       <c r="N536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>43881</v>
       </c>
@@ -24088,8 +25699,11 @@
       <c r="N537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>43882</v>
       </c>
@@ -24132,8 +25746,11 @@
       <c r="N538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>43883</v>
       </c>
@@ -24176,8 +25793,11 @@
       <c r="N539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>43884</v>
       </c>
@@ -24220,17 +25840,20 @@
       <c r="N540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">

--- a/Dati aggiuntivi/fest.xlsx
+++ b/Dati aggiuntivi/fest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Desktop\Uni Bicocca\GitHub\Data-Science-Lab\Dati aggiuntivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BB4289-BC56-465C-A0A7-21C6827C5A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495AB1B-841B-48F8-8FEE-881C7368F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="2448" windowWidth="17280" windowHeight="9960" xr2:uid="{FB71E74E-2008-4B40-AB21-608AC5ED567E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB71E74E-2008-4B40-AB21-608AC5ED567E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>dec26</t>
+  </si>
+  <si>
+    <t>jun2</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:T1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O274" sqref="O274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +507,10 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -554,6 +560,9 @@
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -602,6 +611,9 @@
       <c r="O3">
         <v>0</v>
       </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -650,6 +662,9 @@
       <c r="O4">
         <v>0</v>
       </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -698,6 +713,9 @@
       <c r="O5">
         <v>0</v>
       </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -745,6 +763,9 @@
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -792,6 +813,9 @@
       <c r="O7">
         <v>0</v>
       </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -839,6 +863,9 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -886,6 +913,9 @@
       <c r="O9">
         <v>0</v>
       </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -933,6 +963,9 @@
       <c r="O10">
         <v>0</v>
       </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -980,6 +1013,9 @@
       <c r="O11">
         <v>0</v>
       </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1027,6 +1063,9 @@
       <c r="O12">
         <v>0</v>
       </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1074,6 +1113,9 @@
       <c r="O13">
         <v>0</v>
       </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1121,6 +1163,9 @@
       <c r="O14">
         <v>0</v>
       </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1168,6 +1213,9 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1215,8 +1263,11 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43361</v>
       </c>
@@ -1262,8 +1313,11 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43362</v>
       </c>
@@ -1309,8 +1363,11 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43363</v>
       </c>
@@ -1356,8 +1413,11 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43364</v>
       </c>
@@ -1403,8 +1463,11 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43365</v>
       </c>
@@ -1450,8 +1513,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43366</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43367</v>
       </c>
@@ -1544,8 +1613,11 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43368</v>
       </c>
@@ -1591,8 +1663,11 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43369</v>
       </c>
@@ -1638,8 +1713,11 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43370</v>
       </c>
@@ -1685,8 +1763,11 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43371</v>
       </c>
@@ -1732,8 +1813,11 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43372</v>
       </c>
@@ -1779,8 +1863,11 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43373</v>
       </c>
@@ -1826,8 +1913,11 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43374</v>
       </c>
@@ -1873,8 +1963,11 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43375</v>
       </c>
@@ -1920,8 +2013,11 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43376</v>
       </c>
@@ -1967,8 +2063,11 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43377</v>
       </c>
@@ -2014,8 +2113,11 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43378</v>
       </c>
@@ -2061,8 +2163,11 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43379</v>
       </c>
@@ -2108,8 +2213,11 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43380</v>
       </c>
@@ -2155,8 +2263,11 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43381</v>
       </c>
@@ -2202,8 +2313,11 @@
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43382</v>
       </c>
@@ -2249,8 +2363,11 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43383</v>
       </c>
@@ -2296,8 +2413,11 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43384</v>
       </c>
@@ -2343,8 +2463,11 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43385</v>
       </c>
@@ -2390,8 +2513,11 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43386</v>
       </c>
@@ -2437,8 +2563,11 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43387</v>
       </c>
@@ -2484,8 +2613,11 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43388</v>
       </c>
@@ -2531,8 +2663,11 @@
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43389</v>
       </c>
@@ -2578,8 +2713,11 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43390</v>
       </c>
@@ -2625,8 +2763,11 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43391</v>
       </c>
@@ -2672,8 +2813,11 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43392</v>
       </c>
@@ -2719,8 +2863,11 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43393</v>
       </c>
@@ -2766,8 +2913,11 @@
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43394</v>
       </c>
@@ -2813,8 +2963,11 @@
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43395</v>
       </c>
@@ -2860,8 +3013,11 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43396</v>
       </c>
@@ -2907,8 +3063,11 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43397</v>
       </c>
@@ -2954,8 +3113,11 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43398</v>
       </c>
@@ -3001,8 +3163,11 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43399</v>
       </c>
@@ -3048,8 +3213,11 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43400</v>
       </c>
@@ -3095,8 +3263,11 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43401</v>
       </c>
@@ -3142,8 +3313,11 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43402</v>
       </c>
@@ -3189,8 +3363,11 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43403</v>
       </c>
@@ -3236,8 +3413,11 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43404</v>
       </c>
@@ -3283,8 +3463,11 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43405</v>
       </c>
@@ -3330,8 +3513,11 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43406</v>
       </c>
@@ -3377,8 +3563,11 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43407</v>
       </c>
@@ -3424,8 +3613,11 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43408</v>
       </c>
@@ -3471,8 +3663,11 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43409</v>
       </c>
@@ -3518,8 +3713,11 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43410</v>
       </c>
@@ -3565,8 +3763,11 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43411</v>
       </c>
@@ -3612,8 +3813,11 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43412</v>
       </c>
@@ -3659,8 +3863,11 @@
       <c r="O68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43413</v>
       </c>
@@ -3706,8 +3913,11 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43414</v>
       </c>
@@ -3753,8 +3963,11 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43415</v>
       </c>
@@ -3800,8 +4013,11 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43416</v>
       </c>
@@ -3847,8 +4063,11 @@
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43417</v>
       </c>
@@ -3894,8 +4113,11 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43418</v>
       </c>
@@ -3941,8 +4163,11 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43419</v>
       </c>
@@ -3988,8 +4213,11 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43420</v>
       </c>
@@ -4035,8 +4263,11 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43421</v>
       </c>
@@ -4082,8 +4313,11 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43422</v>
       </c>
@@ -4129,8 +4363,11 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43423</v>
       </c>
@@ -4176,8 +4413,11 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43424</v>
       </c>
@@ -4223,8 +4463,11 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43425</v>
       </c>
@@ -4270,8 +4513,11 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43426</v>
       </c>
@@ -4317,8 +4563,11 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43427</v>
       </c>
@@ -4364,8 +4613,11 @@
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43428</v>
       </c>
@@ -4411,8 +4663,11 @@
       <c r="O84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43429</v>
       </c>
@@ -4458,8 +4713,11 @@
       <c r="O85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43430</v>
       </c>
@@ -4505,8 +4763,11 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43431</v>
       </c>
@@ -4552,8 +4813,11 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43432</v>
       </c>
@@ -4599,8 +4863,11 @@
       <c r="O88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43433</v>
       </c>
@@ -4646,8 +4913,11 @@
       <c r="O89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43434</v>
       </c>
@@ -4693,8 +4963,11 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43435</v>
       </c>
@@ -4740,8 +5013,11 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43436</v>
       </c>
@@ -4787,8 +5063,11 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43437</v>
       </c>
@@ -4834,8 +5113,11 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43438</v>
       </c>
@@ -4881,8 +5163,11 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43439</v>
       </c>
@@ -4928,8 +5213,11 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43440</v>
       </c>
@@ -4975,8 +5263,11 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43441</v>
       </c>
@@ -5022,8 +5313,11 @@
       <c r="O97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43442</v>
       </c>
@@ -5069,8 +5363,11 @@
       <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43443</v>
       </c>
@@ -5116,8 +5413,11 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43444</v>
       </c>
@@ -5163,8 +5463,11 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43445</v>
       </c>
@@ -5210,8 +5513,11 @@
       <c r="O101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43446</v>
       </c>
@@ -5257,8 +5563,11 @@
       <c r="O102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43447</v>
       </c>
@@ -5304,8 +5613,11 @@
       <c r="O103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43448</v>
       </c>
@@ -5351,8 +5663,11 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43449</v>
       </c>
@@ -5398,8 +5713,11 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43450</v>
       </c>
@@ -5445,8 +5763,11 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43451</v>
       </c>
@@ -5492,8 +5813,11 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43452</v>
       </c>
@@ -5539,8 +5863,11 @@
       <c r="O108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43453</v>
       </c>
@@ -5586,8 +5913,11 @@
       <c r="O109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43454</v>
       </c>
@@ -5633,8 +5963,11 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43455</v>
       </c>
@@ -5680,8 +6013,11 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43456</v>
       </c>
@@ -5727,8 +6063,11 @@
       <c r="O112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43457</v>
       </c>
@@ -5774,8 +6113,11 @@
       <c r="O113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43458</v>
       </c>
@@ -5821,8 +6163,11 @@
       <c r="O114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43459</v>
       </c>
@@ -5868,8 +6213,11 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43460</v>
       </c>
@@ -5915,8 +6263,11 @@
       <c r="O116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43461</v>
       </c>
@@ -5962,8 +6313,11 @@
       <c r="O117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43462</v>
       </c>
@@ -6009,8 +6363,11 @@
       <c r="O118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43463</v>
       </c>
@@ -6056,8 +6413,11 @@
       <c r="O119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43464</v>
       </c>
@@ -6103,8 +6463,11 @@
       <c r="O120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43465</v>
       </c>
@@ -6150,8 +6513,11 @@
       <c r="O121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43466</v>
       </c>
@@ -6197,8 +6563,11 @@
       <c r="O122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43467</v>
       </c>
@@ -6244,8 +6613,11 @@
       <c r="O123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43468</v>
       </c>
@@ -6291,8 +6663,11 @@
       <c r="O124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43469</v>
       </c>
@@ -6338,8 +6713,11 @@
       <c r="O125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43470</v>
       </c>
@@ -6385,8 +6763,11 @@
       <c r="O126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43471</v>
       </c>
@@ -6432,8 +6813,11 @@
       <c r="O127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43472</v>
       </c>
@@ -6479,8 +6863,11 @@
       <c r="O128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43473</v>
       </c>
@@ -6526,8 +6913,11 @@
       <c r="O129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43474</v>
       </c>
@@ -6573,8 +6963,11 @@
       <c r="O130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43475</v>
       </c>
@@ -6620,8 +7013,11 @@
       <c r="O131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43476</v>
       </c>
@@ -6667,8 +7063,11 @@
       <c r="O132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43477</v>
       </c>
@@ -6714,8 +7113,11 @@
       <c r="O133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43478</v>
       </c>
@@ -6761,8 +7163,11 @@
       <c r="O134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43479</v>
       </c>
@@ -6808,8 +7213,11 @@
       <c r="O135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43480</v>
       </c>
@@ -6855,8 +7263,11 @@
       <c r="O136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43481</v>
       </c>
@@ -6902,8 +7313,11 @@
       <c r="O137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43482</v>
       </c>
@@ -6949,8 +7363,11 @@
       <c r="O138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43483</v>
       </c>
@@ -6996,8 +7413,11 @@
       <c r="O139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43484</v>
       </c>
@@ -7043,8 +7463,11 @@
       <c r="O140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43485</v>
       </c>
@@ -7090,8 +7513,11 @@
       <c r="O141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43486</v>
       </c>
@@ -7137,8 +7563,11 @@
       <c r="O142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43487</v>
       </c>
@@ -7184,8 +7613,11 @@
       <c r="O143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43488</v>
       </c>
@@ -7231,8 +7663,11 @@
       <c r="O144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43489</v>
       </c>
@@ -7278,8 +7713,11 @@
       <c r="O145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43490</v>
       </c>
@@ -7325,8 +7763,11 @@
       <c r="O146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43491</v>
       </c>
@@ -7372,8 +7813,11 @@
       <c r="O147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43492</v>
       </c>
@@ -7419,8 +7863,11 @@
       <c r="O148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43493</v>
       </c>
@@ -7466,8 +7913,11 @@
       <c r="O149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43494</v>
       </c>
@@ -7513,8 +7963,11 @@
       <c r="O150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43495</v>
       </c>
@@ -7560,8 +8013,11 @@
       <c r="O151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
@@ -7607,8 +8063,11 @@
       <c r="O152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43497</v>
       </c>
@@ -7654,8 +8113,11 @@
       <c r="O153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43498</v>
       </c>
@@ -7701,8 +8163,11 @@
       <c r="O154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43499</v>
       </c>
@@ -7748,8 +8213,11 @@
       <c r="O155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43500</v>
       </c>
@@ -7795,8 +8263,11 @@
       <c r="O156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43501</v>
       </c>
@@ -7842,8 +8313,11 @@
       <c r="O157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43502</v>
       </c>
@@ -7889,8 +8363,11 @@
       <c r="O158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43503</v>
       </c>
@@ -7936,8 +8413,11 @@
       <c r="O159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43504</v>
       </c>
@@ -7983,8 +8463,11 @@
       <c r="O160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43505</v>
       </c>
@@ -8030,8 +8513,11 @@
       <c r="O161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43506</v>
       </c>
@@ -8077,8 +8563,11 @@
       <c r="O162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43507</v>
       </c>
@@ -8124,8 +8613,11 @@
       <c r="O163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43508</v>
       </c>
@@ -8171,8 +8663,11 @@
       <c r="O164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43509</v>
       </c>
@@ -8218,8 +8713,11 @@
       <c r="O165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43510</v>
       </c>
@@ -8265,8 +8763,11 @@
       <c r="O166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43511</v>
       </c>
@@ -8312,8 +8813,11 @@
       <c r="O167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43512</v>
       </c>
@@ -8359,8 +8863,11 @@
       <c r="O168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43513</v>
       </c>
@@ -8406,8 +8913,11 @@
       <c r="O169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43514</v>
       </c>
@@ -8453,8 +8963,11 @@
       <c r="O170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43515</v>
       </c>
@@ -8500,8 +9013,11 @@
       <c r="O171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43516</v>
       </c>
@@ -8547,8 +9063,11 @@
       <c r="O172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43517</v>
       </c>
@@ -8594,8 +9113,11 @@
       <c r="O173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43518</v>
       </c>
@@ -8641,8 +9163,11 @@
       <c r="O174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43519</v>
       </c>
@@ -8688,8 +9213,11 @@
       <c r="O175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43520</v>
       </c>
@@ -8735,8 +9263,11 @@
       <c r="O176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43521</v>
       </c>
@@ -8782,8 +9313,11 @@
       <c r="O177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43522</v>
       </c>
@@ -8829,8 +9363,11 @@
       <c r="O178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43523</v>
       </c>
@@ -8876,8 +9413,11 @@
       <c r="O179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43524</v>
       </c>
@@ -8923,8 +9463,11 @@
       <c r="O180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43525</v>
       </c>
@@ -8970,8 +9513,11 @@
       <c r="O181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43526</v>
       </c>
@@ -9017,8 +9563,11 @@
       <c r="O182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43527</v>
       </c>
@@ -9064,8 +9613,11 @@
       <c r="O183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43528</v>
       </c>
@@ -9111,8 +9663,11 @@
       <c r="O184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43529</v>
       </c>
@@ -9158,8 +9713,11 @@
       <c r="O185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43530</v>
       </c>
@@ -9205,8 +9763,11 @@
       <c r="O186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43531</v>
       </c>
@@ -9252,8 +9813,11 @@
       <c r="O187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43532</v>
       </c>
@@ -9299,8 +9863,11 @@
       <c r="O188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43533</v>
       </c>
@@ -9346,8 +9913,11 @@
       <c r="O189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43534</v>
       </c>
@@ -9393,8 +9963,11 @@
       <c r="O190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43535</v>
       </c>
@@ -9440,8 +10013,11 @@
       <c r="O191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43536</v>
       </c>
@@ -9487,8 +10063,11 @@
       <c r="O192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43537</v>
       </c>
@@ -9534,8 +10113,11 @@
       <c r="O193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43538</v>
       </c>
@@ -9581,8 +10163,11 @@
       <c r="O194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43539</v>
       </c>
@@ -9628,8 +10213,11 @@
       <c r="O195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43540</v>
       </c>
@@ -9675,8 +10263,11 @@
       <c r="O196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43541</v>
       </c>
@@ -9722,8 +10313,11 @@
       <c r="O197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43542</v>
       </c>
@@ -9769,8 +10363,11 @@
       <c r="O198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43543</v>
       </c>
@@ -9816,8 +10413,11 @@
       <c r="O199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43544</v>
       </c>
@@ -9863,8 +10463,11 @@
       <c r="O200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>43545</v>
       </c>
@@ -9910,8 +10513,11 @@
       <c r="O201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>43546</v>
       </c>
@@ -9957,8 +10563,11 @@
       <c r="O202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43547</v>
       </c>
@@ -10004,8 +10613,11 @@
       <c r="O203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43548</v>
       </c>
@@ -10051,8 +10663,11 @@
       <c r="O204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43549</v>
       </c>
@@ -10098,8 +10713,11 @@
       <c r="O205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43550</v>
       </c>
@@ -10145,8 +10763,11 @@
       <c r="O206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43551</v>
       </c>
@@ -10192,8 +10813,11 @@
       <c r="O207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43552</v>
       </c>
@@ -10239,8 +10863,11 @@
       <c r="O208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43553</v>
       </c>
@@ -10286,8 +10913,11 @@
       <c r="O209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43554</v>
       </c>
@@ -10333,8 +10963,11 @@
       <c r="O210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43555</v>
       </c>
@@ -10380,8 +11013,11 @@
       <c r="O211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43556</v>
       </c>
@@ -10427,8 +11063,11 @@
       <c r="O212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43557</v>
       </c>
@@ -10474,8 +11113,11 @@
       <c r="O213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43558</v>
       </c>
@@ -10521,8 +11163,11 @@
       <c r="O214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43559</v>
       </c>
@@ -10568,8 +11213,11 @@
       <c r="O215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43560</v>
       </c>
@@ -10615,8 +11263,11 @@
       <c r="O216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43561</v>
       </c>
@@ -10662,8 +11313,11 @@
       <c r="O217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43562</v>
       </c>
@@ -10709,8 +11363,11 @@
       <c r="O218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43563</v>
       </c>
@@ -10756,8 +11413,11 @@
       <c r="O219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43564</v>
       </c>
@@ -10803,8 +11463,11 @@
       <c r="O220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43565</v>
       </c>
@@ -10850,8 +11513,11 @@
       <c r="O221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>43566</v>
       </c>
@@ -10897,8 +11563,11 @@
       <c r="O222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>43567</v>
       </c>
@@ -10944,8 +11613,11 @@
       <c r="O223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>43568</v>
       </c>
@@ -10991,8 +11663,11 @@
       <c r="O224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>43569</v>
       </c>
@@ -11038,8 +11713,11 @@
       <c r="O225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>43570</v>
       </c>
@@ -11085,8 +11763,11 @@
       <c r="O226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>43571</v>
       </c>
@@ -11132,8 +11813,11 @@
       <c r="O227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>43572</v>
       </c>
@@ -11179,8 +11863,11 @@
       <c r="O228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>43573</v>
       </c>
@@ -11226,8 +11913,11 @@
       <c r="O229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>43574</v>
       </c>
@@ -11273,8 +11963,11 @@
       <c r="O230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>43575</v>
       </c>
@@ -11320,8 +12013,11 @@
       <c r="O231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>43576</v>
       </c>
@@ -11367,8 +12063,11 @@
       <c r="O232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>43577</v>
       </c>
@@ -11414,8 +12113,11 @@
       <c r="O233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>43578</v>
       </c>
@@ -11459,10 +12161,13 @@
         <v>0</v>
       </c>
       <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>43579</v>
       </c>
@@ -11506,10 +12211,13 @@
         <v>0</v>
       </c>
       <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>43580</v>
       </c>
@@ -11555,8 +12263,11 @@
       <c r="O236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>43581</v>
       </c>
@@ -11602,8 +12313,11 @@
       <c r="O237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>43582</v>
       </c>
@@ -11649,8 +12363,11 @@
       <c r="O238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>43583</v>
       </c>
@@ -11696,8 +12413,11 @@
       <c r="O239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>43584</v>
       </c>
@@ -11743,8 +12463,11 @@
       <c r="O240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>43585</v>
       </c>
@@ -11790,8 +12513,11 @@
       <c r="O241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>43586</v>
       </c>
@@ -11837,8 +12563,11 @@
       <c r="O242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>43587</v>
       </c>
@@ -11884,8 +12613,11 @@
       <c r="O243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>43588</v>
       </c>
@@ -11931,8 +12663,11 @@
       <c r="O244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>43589</v>
       </c>
@@ -11978,8 +12713,11 @@
       <c r="O245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>43590</v>
       </c>
@@ -12025,8 +12763,11 @@
       <c r="O246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>43591</v>
       </c>
@@ -12072,8 +12813,11 @@
       <c r="O247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>43592</v>
       </c>
@@ -12119,8 +12863,11 @@
       <c r="O248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>43593</v>
       </c>
@@ -12166,8 +12913,11 @@
       <c r="O249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>43594</v>
       </c>
@@ -12213,8 +12963,11 @@
       <c r="O250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>43595</v>
       </c>
@@ -12260,8 +13013,11 @@
       <c r="O251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>43596</v>
       </c>
@@ -12307,8 +13063,11 @@
       <c r="O252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>43597</v>
       </c>
@@ -12354,8 +13113,11 @@
       <c r="O253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>43598</v>
       </c>
@@ -12401,8 +13163,11 @@
       <c r="O254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>43599</v>
       </c>
@@ -12448,8 +13213,11 @@
       <c r="O255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>43600</v>
       </c>
@@ -12495,8 +13263,11 @@
       <c r="O256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>43601</v>
       </c>
@@ -12542,8 +13313,11 @@
       <c r="O257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>43602</v>
       </c>
@@ -12589,8 +13363,11 @@
       <c r="O258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>43603</v>
       </c>
@@ -12636,8 +13413,11 @@
       <c r="O259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>43604</v>
       </c>
@@ -12683,8 +13463,11 @@
       <c r="O260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>43605</v>
       </c>
@@ -12730,8 +13513,11 @@
       <c r="O261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>43606</v>
       </c>
@@ -12777,8 +13563,11 @@
       <c r="O262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>43607</v>
       </c>
@@ -12824,8 +13613,11 @@
       <c r="O263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>43608</v>
       </c>
@@ -12871,8 +13663,11 @@
       <c r="O264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>43609</v>
       </c>
@@ -12918,8 +13713,11 @@
       <c r="O265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>43610</v>
       </c>
@@ -12965,8 +13763,11 @@
       <c r="O266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>43611</v>
       </c>
@@ -13012,8 +13813,11 @@
       <c r="O267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>43612</v>
       </c>
@@ -13059,8 +13863,11 @@
       <c r="O268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>43613</v>
       </c>
@@ -13106,8 +13913,11 @@
       <c r="O269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>43614</v>
       </c>
@@ -13153,8 +13963,11 @@
       <c r="O270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>43615</v>
       </c>
@@ -13200,8 +14013,11 @@
       <c r="O271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>43616</v>
       </c>
@@ -13247,8 +14063,11 @@
       <c r="O272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>43617</v>
       </c>
@@ -13294,8 +14113,11 @@
       <c r="O273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>43618</v>
       </c>
@@ -13339,10 +14161,13 @@
         <v>0</v>
       </c>
       <c r="O274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>43619</v>
       </c>
@@ -13388,8 +14213,11 @@
       <c r="O275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>43620</v>
       </c>
@@ -13435,8 +14263,11 @@
       <c r="O276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>43621</v>
       </c>
@@ -13482,8 +14313,11 @@
       <c r="O277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>43622</v>
       </c>
@@ -13529,8 +14363,11 @@
       <c r="O278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>43623</v>
       </c>
@@ -13576,8 +14413,11 @@
       <c r="O279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>43624</v>
       </c>
@@ -13623,8 +14463,11 @@
       <c r="O280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>43625</v>
       </c>
@@ -13670,8 +14513,11 @@
       <c r="O281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>43626</v>
       </c>
@@ -13717,8 +14563,11 @@
       <c r="O282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>43627</v>
       </c>
@@ -13764,8 +14613,11 @@
       <c r="O283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>43628</v>
       </c>
@@ -13811,8 +14663,11 @@
       <c r="O284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>43629</v>
       </c>
@@ -13858,8 +14713,11 @@
       <c r="O285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>43630</v>
       </c>
@@ -13905,8 +14763,11 @@
       <c r="O286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>43631</v>
       </c>
@@ -13952,8 +14813,11 @@
       <c r="O287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>43632</v>
       </c>
@@ -13999,8 +14863,11 @@
       <c r="O288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>43633</v>
       </c>
@@ -14046,8 +14913,11 @@
       <c r="O289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>43634</v>
       </c>
@@ -14093,8 +14963,11 @@
       <c r="O290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>43635</v>
       </c>
@@ -14140,8 +15013,11 @@
       <c r="O291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>43636</v>
       </c>
@@ -14187,8 +15063,11 @@
       <c r="O292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>43637</v>
       </c>
@@ -14234,8 +15113,11 @@
       <c r="O293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>43638</v>
       </c>
@@ -14281,8 +15163,11 @@
       <c r="O294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>43639</v>
       </c>
@@ -14328,8 +15213,11 @@
       <c r="O295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>43640</v>
       </c>
@@ -14375,8 +15263,11 @@
       <c r="O296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>43641</v>
       </c>
@@ -14422,8 +15313,11 @@
       <c r="O297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>43642</v>
       </c>
@@ -14469,8 +15363,11 @@
       <c r="O298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>43643</v>
       </c>
@@ -14516,8 +15413,11 @@
       <c r="O299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>43644</v>
       </c>
@@ -14563,8 +15463,11 @@
       <c r="O300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>43645</v>
       </c>
@@ -14610,8 +15513,11 @@
       <c r="O301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>43646</v>
       </c>
@@ -14657,8 +15563,11 @@
       <c r="O302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>43647</v>
       </c>
@@ -14704,8 +15613,11 @@
       <c r="O303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>43648</v>
       </c>
@@ -14751,8 +15663,11 @@
       <c r="O304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>43649</v>
       </c>
@@ -14798,8 +15713,11 @@
       <c r="O305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>43650</v>
       </c>
@@ -14845,8 +15763,11 @@
       <c r="O306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>43651</v>
       </c>
@@ -14892,8 +15813,11 @@
       <c r="O307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>43652</v>
       </c>
@@ -14939,8 +15863,11 @@
       <c r="O308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>43653</v>
       </c>
@@ -14986,8 +15913,11 @@
       <c r="O309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>43654</v>
       </c>
@@ -15033,8 +15963,11 @@
       <c r="O310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>43655</v>
       </c>
@@ -15080,8 +16013,11 @@
       <c r="O311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>43656</v>
       </c>
@@ -15127,8 +16063,11 @@
       <c r="O312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>43657</v>
       </c>
@@ -15174,8 +16113,11 @@
       <c r="O313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>43658</v>
       </c>
@@ -15221,8 +16163,11 @@
       <c r="O314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>43659</v>
       </c>
@@ -15268,8 +16213,11 @@
       <c r="O315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>43660</v>
       </c>
@@ -15315,8 +16263,11 @@
       <c r="O316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>43661</v>
       </c>
@@ -15362,8 +16313,11 @@
       <c r="O317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>43662</v>
       </c>
@@ -15409,8 +16363,11 @@
       <c r="O318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>43663</v>
       </c>
@@ -15456,8 +16413,11 @@
       <c r="O319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>43664</v>
       </c>
@@ -15503,8 +16463,11 @@
       <c r="O320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>43665</v>
       </c>
@@ -15550,8 +16513,11 @@
       <c r="O321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>43666</v>
       </c>
@@ -15597,8 +16563,11 @@
       <c r="O322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>43667</v>
       </c>
@@ -15644,8 +16613,11 @@
       <c r="O323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>43668</v>
       </c>
@@ -15691,8 +16663,11 @@
       <c r="O324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>43669</v>
       </c>
@@ -15738,8 +16713,11 @@
       <c r="O325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>43670</v>
       </c>
@@ -15785,8 +16763,11 @@
       <c r="O326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>43671</v>
       </c>
@@ -15832,8 +16813,11 @@
       <c r="O327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>43672</v>
       </c>
@@ -15879,8 +16863,11 @@
       <c r="O328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>43673</v>
       </c>
@@ -15926,8 +16913,11 @@
       <c r="O329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>43674</v>
       </c>
@@ -15973,8 +16963,11 @@
       <c r="O330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>43675</v>
       </c>
@@ -16020,8 +17013,11 @@
       <c r="O331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>43676</v>
       </c>
@@ -16067,8 +17063,11 @@
       <c r="O332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>43677</v>
       </c>
@@ -16114,8 +17113,11 @@
       <c r="O333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>43678</v>
       </c>
@@ -16161,8 +17163,11 @@
       <c r="O334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>43679</v>
       </c>
@@ -16208,8 +17213,11 @@
       <c r="O335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>43680</v>
       </c>
@@ -16255,8 +17263,11 @@
       <c r="O336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>43681</v>
       </c>
@@ -16302,8 +17313,11 @@
       <c r="O337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>43682</v>
       </c>
@@ -16349,8 +17363,11 @@
       <c r="O338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>43683</v>
       </c>
@@ -16396,8 +17413,11 @@
       <c r="O339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>43684</v>
       </c>
@@ -16443,8 +17463,11 @@
       <c r="O340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>43685</v>
       </c>
@@ -16490,8 +17513,11 @@
       <c r="O341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>43686</v>
       </c>
@@ -16537,8 +17563,11 @@
       <c r="O342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>43687</v>
       </c>
@@ -16584,8 +17613,11 @@
       <c r="O343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>43688</v>
       </c>
@@ -16631,8 +17663,11 @@
       <c r="O344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>43689</v>
       </c>
@@ -16678,8 +17713,11 @@
       <c r="O345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>43690</v>
       </c>
@@ -16725,8 +17763,11 @@
       <c r="O346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>43691</v>
       </c>
@@ -16772,8 +17813,11 @@
       <c r="O347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>43692</v>
       </c>
@@ -16819,8 +17863,11 @@
       <c r="O348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>43693</v>
       </c>
@@ -16866,8 +17913,11 @@
       <c r="O349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>43694</v>
       </c>
@@ -16913,8 +17963,11 @@
       <c r="O350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>43695</v>
       </c>
@@ -16960,8 +18013,11 @@
       <c r="O351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>43696</v>
       </c>
@@ -17007,8 +18063,11 @@
       <c r="O352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>43697</v>
       </c>
@@ -17054,8 +18113,11 @@
       <c r="O353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>43698</v>
       </c>
@@ -17101,8 +18163,11 @@
       <c r="O354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>43699</v>
       </c>
@@ -17148,8 +18213,11 @@
       <c r="O355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>43700</v>
       </c>
@@ -17195,8 +18263,11 @@
       <c r="O356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>43701</v>
       </c>
@@ -17242,8 +18313,11 @@
       <c r="O357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>43702</v>
       </c>
@@ -17289,8 +18363,11 @@
       <c r="O358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>43703</v>
       </c>
@@ -17336,8 +18413,11 @@
       <c r="O359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>43704</v>
       </c>
@@ -17383,8 +18463,11 @@
       <c r="O360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>43705</v>
       </c>
@@ -17430,8 +18513,11 @@
       <c r="O361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>43706</v>
       </c>
@@ -17477,8 +18563,11 @@
       <c r="O362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>43707</v>
       </c>
@@ -17524,8 +18613,11 @@
       <c r="O363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>43708</v>
       </c>
@@ -17571,8 +18663,11 @@
       <c r="O364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>43709</v>
       </c>
@@ -17618,8 +18713,11 @@
       <c r="O365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>43710</v>
       </c>
@@ -17665,8 +18763,11 @@
       <c r="O366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>43711</v>
       </c>
@@ -17712,8 +18813,11 @@
       <c r="O367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>43712</v>
       </c>
@@ -17759,8 +18863,11 @@
       <c r="O368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>43713</v>
       </c>
@@ -17806,8 +18913,11 @@
       <c r="O369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>43714</v>
       </c>
@@ -17853,8 +18963,11 @@
       <c r="O370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>43715</v>
       </c>
@@ -17900,8 +19013,11 @@
       <c r="O371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>43716</v>
       </c>
@@ -17947,8 +19063,11 @@
       <c r="O372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>43717</v>
       </c>
@@ -17994,8 +19113,11 @@
       <c r="O373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>43718</v>
       </c>
@@ -18041,8 +19163,11 @@
       <c r="O374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>43719</v>
       </c>
@@ -18088,8 +19213,11 @@
       <c r="O375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>43720</v>
       </c>
@@ -18135,8 +19263,11 @@
       <c r="O376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>43721</v>
       </c>
@@ -18182,8 +19313,11 @@
       <c r="O377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>43722</v>
       </c>
@@ -18229,8 +19363,11 @@
       <c r="O378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>43723</v>
       </c>
@@ -18276,8 +19413,11 @@
       <c r="O379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>43724</v>
       </c>
@@ -18323,8 +19463,11 @@
       <c r="O380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>43725</v>
       </c>
@@ -18370,8 +19513,11 @@
       <c r="O381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>43726</v>
       </c>
@@ -18417,8 +19563,11 @@
       <c r="O382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>43727</v>
       </c>
@@ -18464,8 +19613,11 @@
       <c r="O383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>43728</v>
       </c>
@@ -18511,8 +19663,11 @@
       <c r="O384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>43729</v>
       </c>
@@ -18558,8 +19713,11 @@
       <c r="O385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>43730</v>
       </c>
@@ -18605,8 +19763,11 @@
       <c r="O386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>43731</v>
       </c>
@@ -18652,8 +19813,11 @@
       <c r="O387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>43732</v>
       </c>
@@ -18699,8 +19863,11 @@
       <c r="O388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>43733</v>
       </c>
@@ -18746,8 +19913,11 @@
       <c r="O389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>43734</v>
       </c>
@@ -18793,8 +19963,11 @@
       <c r="O390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>43735</v>
       </c>
@@ -18840,8 +20013,11 @@
       <c r="O391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>43736</v>
       </c>
@@ -18887,8 +20063,11 @@
       <c r="O392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>43737</v>
       </c>
@@ -18934,8 +20113,11 @@
       <c r="O393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>43738</v>
       </c>
@@ -18981,8 +20163,11 @@
       <c r="O394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>43739</v>
       </c>
@@ -19028,8 +20213,11 @@
       <c r="O395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>43740</v>
       </c>
@@ -19075,8 +20263,11 @@
       <c r="O396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>43741</v>
       </c>
@@ -19122,8 +20313,11 @@
       <c r="O397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>43742</v>
       </c>
@@ -19169,8 +20363,11 @@
       <c r="O398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>43743</v>
       </c>
@@ -19216,8 +20413,11 @@
       <c r="O399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>43744</v>
       </c>
@@ -19263,8 +20463,11 @@
       <c r="O400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>43745</v>
       </c>
@@ -19310,8 +20513,11 @@
       <c r="O401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>43746</v>
       </c>
@@ -19357,8 +20563,11 @@
       <c r="O402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>43747</v>
       </c>
@@ -19404,8 +20613,11 @@
       <c r="O403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>43748</v>
       </c>
@@ -19451,8 +20663,11 @@
       <c r="O404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>43749</v>
       </c>
@@ -19498,8 +20713,11 @@
       <c r="O405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>43750</v>
       </c>
@@ -19545,8 +20763,11 @@
       <c r="O406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>43751</v>
       </c>
@@ -19592,8 +20813,11 @@
       <c r="O407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>43752</v>
       </c>
@@ -19639,8 +20863,11 @@
       <c r="O408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>43753</v>
       </c>
@@ -19686,8 +20913,11 @@
       <c r="O409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>43754</v>
       </c>
@@ -19733,8 +20963,11 @@
       <c r="O410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>43755</v>
       </c>
@@ -19780,8 +21013,11 @@
       <c r="O411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>43756</v>
       </c>
@@ -19827,8 +21063,11 @@
       <c r="O412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>43757</v>
       </c>
@@ -19874,8 +21113,11 @@
       <c r="O413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>43758</v>
       </c>
@@ -19921,8 +21163,11 @@
       <c r="O414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>43759</v>
       </c>
@@ -19968,8 +21213,11 @@
       <c r="O415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>43760</v>
       </c>
@@ -20015,8 +21263,11 @@
       <c r="O416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>43761</v>
       </c>
@@ -20062,8 +21313,11 @@
       <c r="O417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>43762</v>
       </c>
@@ -20109,8 +21363,11 @@
       <c r="O418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>43763</v>
       </c>
@@ -20156,8 +21413,11 @@
       <c r="O419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>43764</v>
       </c>
@@ -20203,8 +21463,11 @@
       <c r="O420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>43765</v>
       </c>
@@ -20250,8 +21513,11 @@
       <c r="O421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>43766</v>
       </c>
@@ -20297,8 +21563,11 @@
       <c r="O422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>43767</v>
       </c>
@@ -20344,8 +21613,11 @@
       <c r="O423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>43768</v>
       </c>
@@ -20391,8 +21663,11 @@
       <c r="O424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>43769</v>
       </c>
@@ -20438,8 +21713,11 @@
       <c r="O425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>43770</v>
       </c>
@@ -20485,8 +21763,11 @@
       <c r="O426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>43771</v>
       </c>
@@ -20530,10 +21811,13 @@
         <v>0</v>
       </c>
       <c r="O427">
+        <v>0</v>
+      </c>
+      <c r="P427">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>43772</v>
       </c>
@@ -20579,8 +21863,11 @@
       <c r="O428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>43773</v>
       </c>
@@ -20626,8 +21913,11 @@
       <c r="O429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>43774</v>
       </c>
@@ -20673,8 +21963,11 @@
       <c r="O430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>43775</v>
       </c>
@@ -20720,8 +22013,11 @@
       <c r="O431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>43776</v>
       </c>
@@ -20767,8 +22063,11 @@
       <c r="O432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>43777</v>
       </c>
@@ -20814,8 +22113,11 @@
       <c r="O433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>43778</v>
       </c>
@@ -20861,8 +22163,11 @@
       <c r="O434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>43779</v>
       </c>
@@ -20908,8 +22213,11 @@
       <c r="O435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>43780</v>
       </c>
@@ -20955,8 +22263,11 @@
       <c r="O436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>43781</v>
       </c>
@@ -21002,8 +22313,11 @@
       <c r="O437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>43782</v>
       </c>
@@ -21049,8 +22363,11 @@
       <c r="O438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>43783</v>
       </c>
@@ -21096,8 +22413,11 @@
       <c r="O439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>43784</v>
       </c>
@@ -21143,8 +22463,11 @@
       <c r="O440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>43785</v>
       </c>
@@ -21190,8 +22513,11 @@
       <c r="O441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>43786</v>
       </c>
@@ -21237,8 +22563,11 @@
       <c r="O442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>43787</v>
       </c>
@@ -21284,8 +22613,11 @@
       <c r="O443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>43788</v>
       </c>
@@ -21331,8 +22663,11 @@
       <c r="O444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>43789</v>
       </c>
@@ -21378,8 +22713,11 @@
       <c r="O445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>43790</v>
       </c>
@@ -21425,8 +22763,11 @@
       <c r="O446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>43791</v>
       </c>
@@ -21472,8 +22813,11 @@
       <c r="O447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>43792</v>
       </c>
@@ -21519,8 +22863,11 @@
       <c r="O448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>43793</v>
       </c>
@@ -21566,8 +22913,11 @@
       <c r="O449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>43794</v>
       </c>
@@ -21613,8 +22963,11 @@
       <c r="O450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>43795</v>
       </c>
@@ -21660,8 +23013,11 @@
       <c r="O451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>43796</v>
       </c>
@@ -21707,8 +23063,11 @@
       <c r="O452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>43797</v>
       </c>
@@ -21754,8 +23113,11 @@
       <c r="O453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>43798</v>
       </c>
@@ -21801,8 +23163,11 @@
       <c r="O454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>43799</v>
       </c>
@@ -21848,8 +23213,11 @@
       <c r="O455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>43800</v>
       </c>
@@ -21895,8 +23263,11 @@
       <c r="O456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>43801</v>
       </c>
@@ -21942,8 +23313,11 @@
       <c r="O457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>43802</v>
       </c>
@@ -21989,8 +23363,11 @@
       <c r="O458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>43803</v>
       </c>
@@ -22036,8 +23413,11 @@
       <c r="O459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>43804</v>
       </c>
@@ -22083,8 +23463,11 @@
       <c r="O460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>43805</v>
       </c>
@@ -22130,8 +23513,11 @@
       <c r="O461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>43806</v>
       </c>
@@ -22177,8 +23563,11 @@
       <c r="O462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>43807</v>
       </c>
@@ -22224,8 +23613,11 @@
       <c r="O463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>43808</v>
       </c>
@@ -22271,8 +23663,11 @@
       <c r="O464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>43809</v>
       </c>
@@ -22318,8 +23713,11 @@
       <c r="O465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>43810</v>
       </c>
@@ -22365,8 +23763,11 @@
       <c r="O466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>43811</v>
       </c>
@@ -22412,8 +23813,11 @@
       <c r="O467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>43812</v>
       </c>
@@ -22459,8 +23863,11 @@
       <c r="O468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>43813</v>
       </c>
@@ -22506,8 +23913,11 @@
       <c r="O469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>43814</v>
       </c>
@@ -22553,8 +23963,11 @@
       <c r="O470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>43815</v>
       </c>
@@ -22600,8 +24013,11 @@
       <c r="O471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>43816</v>
       </c>
@@ -22647,8 +24063,11 @@
       <c r="O472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>43817</v>
       </c>
@@ -22694,8 +24113,11 @@
       <c r="O473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>43818</v>
       </c>
@@ -22741,8 +24163,11 @@
       <c r="O474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>43819</v>
       </c>
@@ -22788,8 +24213,11 @@
       <c r="O475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>43820</v>
       </c>
@@ -22835,8 +24263,11 @@
       <c r="O476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>43821</v>
       </c>
@@ -22882,8 +24313,11 @@
       <c r="O477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>43822</v>
       </c>
@@ -22929,8 +24363,11 @@
       <c r="O478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>43823</v>
       </c>
@@ -22976,8 +24413,11 @@
       <c r="O479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>43824</v>
       </c>
@@ -23023,8 +24463,11 @@
       <c r="O480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>43825</v>
       </c>
@@ -23070,8 +24513,11 @@
       <c r="O481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>43826</v>
       </c>
@@ -23117,8 +24563,11 @@
       <c r="O482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>43827</v>
       </c>
@@ -23164,8 +24613,11 @@
       <c r="O483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>43828</v>
       </c>
@@ -23211,8 +24663,11 @@
       <c r="O484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>43829</v>
       </c>
@@ -23258,8 +24713,11 @@
       <c r="O485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>43830</v>
       </c>
@@ -23305,8 +24763,11 @@
       <c r="O486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>43831</v>
       </c>
@@ -23352,8 +24813,11 @@
       <c r="O487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>43832</v>
       </c>
@@ -23399,8 +24863,11 @@
       <c r="O488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>43833</v>
       </c>
@@ -23446,8 +24913,11 @@
       <c r="O489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>43834</v>
       </c>
@@ -23493,8 +24963,11 @@
       <c r="O490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>43835</v>
       </c>
@@ -23540,8 +25013,11 @@
       <c r="O491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>43836</v>
       </c>
@@ -23587,8 +25063,11 @@
       <c r="O492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>43837</v>
       </c>
@@ -23634,8 +25113,11 @@
       <c r="O493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>43838</v>
       </c>
@@ -23681,8 +25163,11 @@
       <c r="O494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>43839</v>
       </c>
@@ -23728,8 +25213,11 @@
       <c r="O495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>43840</v>
       </c>
@@ -23775,8 +25263,11 @@
       <c r="O496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>43841</v>
       </c>
@@ -23822,8 +25313,11 @@
       <c r="O497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>43842</v>
       </c>
@@ -23869,8 +25363,11 @@
       <c r="O498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>43843</v>
       </c>
@@ -23916,8 +25413,11 @@
       <c r="O499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>43844</v>
       </c>
@@ -23963,8 +25463,11 @@
       <c r="O500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>43845</v>
       </c>
@@ -24010,8 +25513,11 @@
       <c r="O501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>43846</v>
       </c>
@@ -24057,8 +25563,11 @@
       <c r="O502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>43847</v>
       </c>
@@ -24104,8 +25613,11 @@
       <c r="O503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>43848</v>
       </c>
@@ -24151,8 +25663,11 @@
       <c r="O504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>43849</v>
       </c>
@@ -24198,8 +25713,11 @@
       <c r="O505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>43850</v>
       </c>
@@ -24245,8 +25763,11 @@
       <c r="O506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>43851</v>
       </c>
@@ -24292,8 +25813,11 @@
       <c r="O507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>43852</v>
       </c>
@@ -24339,8 +25863,11 @@
       <c r="O508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>43853</v>
       </c>
@@ -24386,8 +25913,11 @@
       <c r="O509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>43854</v>
       </c>
@@ -24433,8 +25963,11 @@
       <c r="O510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>43855</v>
       </c>
@@ -24480,8 +26013,11 @@
       <c r="O511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>43856</v>
       </c>
@@ -24527,8 +26063,11 @@
       <c r="O512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>43857</v>
       </c>
@@ -24574,8 +26113,11 @@
       <c r="O513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>43858</v>
       </c>
@@ -24621,8 +26163,11 @@
       <c r="O514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>43859</v>
       </c>
@@ -24668,8 +26213,11 @@
       <c r="O515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>43860</v>
       </c>
@@ -24715,8 +26263,11 @@
       <c r="O516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>43861</v>
       </c>
@@ -24762,8 +26313,11 @@
       <c r="O517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>43862</v>
       </c>
@@ -24809,8 +26363,11 @@
       <c r="O518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>43863</v>
       </c>
@@ -24856,8 +26413,11 @@
       <c r="O519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>43864</v>
       </c>
@@ -24903,8 +26463,11 @@
       <c r="O520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>43865</v>
       </c>
@@ -24950,8 +26513,11 @@
       <c r="O521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>43866</v>
       </c>
@@ -24997,8 +26563,11 @@
       <c r="O522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>43867</v>
       </c>
@@ -25044,8 +26613,11 @@
       <c r="O523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>43868</v>
       </c>
@@ -25091,8 +26663,11 @@
       <c r="O524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>43869</v>
       </c>
@@ -25138,8 +26713,11 @@
       <c r="O525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>43870</v>
       </c>
@@ -25185,8 +26763,11 @@
       <c r="O526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>43871</v>
       </c>
@@ -25232,8 +26813,11 @@
       <c r="O527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>43872</v>
       </c>
@@ -25279,8 +26863,11 @@
       <c r="O528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>43873</v>
       </c>
@@ -25326,8 +26913,11 @@
       <c r="O529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>43874</v>
       </c>
@@ -25373,8 +26963,11 @@
       <c r="O530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>43875</v>
       </c>
@@ -25420,8 +27013,11 @@
       <c r="O531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>43876</v>
       </c>
@@ -25467,8 +27063,11 @@
       <c r="O532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>43877</v>
       </c>
@@ -25514,8 +27113,11 @@
       <c r="O533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>43878</v>
       </c>
@@ -25561,8 +27163,11 @@
       <c r="O534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>43879</v>
       </c>
@@ -25608,8 +27213,11 @@
       <c r="O535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>43880</v>
       </c>
@@ -25655,8 +27263,11 @@
       <c r="O536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>43881</v>
       </c>
@@ -25702,8 +27313,11 @@
       <c r="O537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>43882</v>
       </c>
@@ -25749,8 +27363,11 @@
       <c r="O538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>43883</v>
       </c>
@@ -25796,8 +27413,11 @@
       <c r="O539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>43884</v>
       </c>
@@ -25843,17 +27463,20 @@
       <c r="O540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">

--- a/Dati aggiuntivi/fest.xlsx
+++ b/Dati aggiuntivi/fest.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Desktop\Uni Bicocca\GitHub\Data-Science-Lab\Dati aggiuntivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495AB1B-841B-48F8-8FEE-881C7368F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A97F05-2348-40FB-9001-C0172A41B616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FB71E74E-2008-4B40-AB21-608AC5ED567E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5F153A3A-0ED8-42C3-B987-D99E17D7E857}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$O$540</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -47,10 +50,19 @@
     <t>dec25</t>
   </si>
   <si>
+    <t>dec26</t>
+  </si>
+  <si>
     <t>jan1</t>
   </si>
   <si>
     <t>jan6</t>
+  </si>
+  <si>
+    <t>aug15</t>
+  </si>
+  <si>
+    <t>dec31</t>
   </si>
   <si>
     <t>eastsun</t>
@@ -59,28 +71,16 @@
     <t>eastermon</t>
   </si>
   <si>
-    <t>aug15</t>
-  </si>
-  <si>
-    <t>dec31</t>
-  </si>
-  <si>
     <t>oct31</t>
   </si>
   <si>
     <t>nov1</t>
   </si>
   <si>
-    <t>bridge</t>
-  </si>
-  <si>
     <t>apr25</t>
   </si>
   <si>
     <t>mag1</t>
-  </si>
-  <si>
-    <t>dec26</t>
   </si>
   <si>
     <t>jun2</t>
@@ -90,17 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,19 +116,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,71 +435,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F627B3D8-8A6E-409C-97A0-6F3BA026AF8A}">
-  <dimension ref="A1:T1061"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A51AAD6-2908-4A88-A865-B86B51D9F3A9}">
+  <dimension ref="A1:O756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O274" sqref="O274"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43346</v>
       </c>
@@ -560,12 +540,8 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43347</v>
       </c>
@@ -611,12 +587,8 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43348</v>
       </c>
@@ -662,12 +634,8 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43349</v>
       </c>
@@ -713,11 +681,8 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43350</v>
       </c>
@@ -763,11 +728,8 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43351</v>
       </c>
@@ -813,11 +775,8 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43352</v>
       </c>
@@ -863,11 +822,8 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43353</v>
       </c>
@@ -913,11 +869,8 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43354</v>
       </c>
@@ -963,11 +916,8 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43355</v>
       </c>
@@ -1013,11 +963,8 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43356</v>
       </c>
@@ -1063,11 +1010,8 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43357</v>
       </c>
@@ -1113,11 +1057,8 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43358</v>
       </c>
@@ -1163,11 +1104,8 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43359</v>
       </c>
@@ -1213,11 +1151,8 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43360</v>
       </c>
@@ -1263,11 +1198,8 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43361</v>
       </c>
@@ -1313,11 +1245,8 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43362</v>
       </c>
@@ -1363,11 +1292,8 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43363</v>
       </c>
@@ -1413,11 +1339,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43364</v>
       </c>
@@ -1463,11 +1386,8 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43365</v>
       </c>
@@ -1513,11 +1433,8 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43366</v>
       </c>
@@ -1563,11 +1480,8 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43367</v>
       </c>
@@ -1613,11 +1527,8 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43368</v>
       </c>
@@ -1663,11 +1574,8 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43369</v>
       </c>
@@ -1713,11 +1621,8 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43370</v>
       </c>
@@ -1763,11 +1668,8 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43371</v>
       </c>
@@ -1813,11 +1715,8 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43372</v>
       </c>
@@ -1863,11 +1762,8 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43373</v>
       </c>
@@ -1913,11 +1809,8 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43374</v>
       </c>
@@ -1963,11 +1856,8 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43375</v>
       </c>
@@ -2013,11 +1903,8 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43376</v>
       </c>
@@ -2063,11 +1950,8 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43377</v>
       </c>
@@ -2113,11 +1997,8 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43378</v>
       </c>
@@ -2163,11 +2044,8 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43379</v>
       </c>
@@ -2213,11 +2091,8 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43380</v>
       </c>
@@ -2263,11 +2138,8 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43381</v>
       </c>
@@ -2313,11 +2185,8 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43382</v>
       </c>
@@ -2363,11 +2232,8 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43383</v>
       </c>
@@ -2413,11 +2279,8 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43384</v>
       </c>
@@ -2463,11 +2326,8 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43385</v>
       </c>
@@ -2513,11 +2373,8 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43386</v>
       </c>
@@ -2563,11 +2420,8 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43387</v>
       </c>
@@ -2613,11 +2467,8 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43388</v>
       </c>
@@ -2663,11 +2514,8 @@
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43389</v>
       </c>
@@ -2713,11 +2561,8 @@
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43390</v>
       </c>
@@ -2763,11 +2608,8 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43391</v>
       </c>
@@ -2813,11 +2655,8 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43392</v>
       </c>
@@ -2863,11 +2702,8 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43393</v>
       </c>
@@ -2913,11 +2749,8 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43394</v>
       </c>
@@ -2963,11 +2796,8 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43395</v>
       </c>
@@ -3013,11 +2843,8 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43396</v>
       </c>
@@ -3063,11 +2890,8 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43397</v>
       </c>
@@ -3113,11 +2937,8 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43398</v>
       </c>
@@ -3163,11 +2984,8 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43399</v>
       </c>
@@ -3213,11 +3031,8 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43400</v>
       </c>
@@ -3263,11 +3078,8 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43401</v>
       </c>
@@ -3313,11 +3125,8 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43402</v>
       </c>
@@ -3363,11 +3172,8 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43403</v>
       </c>
@@ -3413,11 +3219,8 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43404</v>
       </c>
@@ -3463,11 +3266,8 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43405</v>
       </c>
@@ -3513,11 +3313,8 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43406</v>
       </c>
@@ -3563,11 +3360,8 @@
       <c r="O62">
         <v>0</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43407</v>
       </c>
@@ -3613,11 +3407,8 @@
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43408</v>
       </c>
@@ -3663,11 +3454,8 @@
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43409</v>
       </c>
@@ -3713,11 +3501,8 @@
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43410</v>
       </c>
@@ -3763,11 +3548,8 @@
       <c r="O66">
         <v>0</v>
       </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43411</v>
       </c>
@@ -3813,11 +3595,8 @@
       <c r="O67">
         <v>0</v>
       </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43412</v>
       </c>
@@ -3863,11 +3642,8 @@
       <c r="O68">
         <v>0</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43413</v>
       </c>
@@ -3913,11 +3689,8 @@
       <c r="O69">
         <v>0</v>
       </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43414</v>
       </c>
@@ -3963,11 +3736,8 @@
       <c r="O70">
         <v>0</v>
       </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43415</v>
       </c>
@@ -4013,11 +3783,8 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43416</v>
       </c>
@@ -4063,11 +3830,8 @@
       <c r="O72">
         <v>0</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43417</v>
       </c>
@@ -4113,11 +3877,8 @@
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43418</v>
       </c>
@@ -4163,11 +3924,8 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43419</v>
       </c>
@@ -4213,11 +3971,8 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43420</v>
       </c>
@@ -4263,11 +4018,8 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43421</v>
       </c>
@@ -4313,11 +4065,8 @@
       <c r="O77">
         <v>0</v>
       </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43422</v>
       </c>
@@ -4363,11 +4112,8 @@
       <c r="O78">
         <v>0</v>
       </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43423</v>
       </c>
@@ -4413,11 +4159,8 @@
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43424</v>
       </c>
@@ -4463,11 +4206,8 @@
       <c r="O80">
         <v>0</v>
       </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43425</v>
       </c>
@@ -4513,11 +4253,8 @@
       <c r="O81">
         <v>0</v>
       </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43426</v>
       </c>
@@ -4563,11 +4300,8 @@
       <c r="O82">
         <v>0</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43427</v>
       </c>
@@ -4613,11 +4347,8 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43428</v>
       </c>
@@ -4663,11 +4394,8 @@
       <c r="O84">
         <v>0</v>
       </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43429</v>
       </c>
@@ -4713,11 +4441,8 @@
       <c r="O85">
         <v>0</v>
       </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43430</v>
       </c>
@@ -4763,11 +4488,8 @@
       <c r="O86">
         <v>0</v>
       </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43431</v>
       </c>
@@ -4813,11 +4535,8 @@
       <c r="O87">
         <v>0</v>
       </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43432</v>
       </c>
@@ -4863,11 +4582,8 @@
       <c r="O88">
         <v>0</v>
       </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43433</v>
       </c>
@@ -4913,11 +4629,8 @@
       <c r="O89">
         <v>0</v>
       </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43434</v>
       </c>
@@ -4963,11 +4676,8 @@
       <c r="O90">
         <v>0</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43435</v>
       </c>
@@ -5013,11 +4723,8 @@
       <c r="O91">
         <v>0</v>
       </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43436</v>
       </c>
@@ -5063,11 +4770,8 @@
       <c r="O92">
         <v>0</v>
       </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43437</v>
       </c>
@@ -5113,11 +4817,8 @@
       <c r="O93">
         <v>0</v>
       </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43438</v>
       </c>
@@ -5163,11 +4864,8 @@
       <c r="O94">
         <v>0</v>
       </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43439</v>
       </c>
@@ -5213,11 +4911,8 @@
       <c r="O95">
         <v>0</v>
       </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43440</v>
       </c>
@@ -5263,11 +4958,8 @@
       <c r="O96">
         <v>0</v>
       </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43441</v>
       </c>
@@ -5313,11 +5005,8 @@
       <c r="O97">
         <v>0</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43442</v>
       </c>
@@ -5363,11 +5052,8 @@
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43443</v>
       </c>
@@ -5413,11 +5099,8 @@
       <c r="O99">
         <v>0</v>
       </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43444</v>
       </c>
@@ -5463,11 +5146,8 @@
       <c r="O100">
         <v>0</v>
       </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43445</v>
       </c>
@@ -5513,11 +5193,8 @@
       <c r="O101">
         <v>0</v>
       </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43446</v>
       </c>
@@ -5563,11 +5240,8 @@
       <c r="O102">
         <v>0</v>
       </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43447</v>
       </c>
@@ -5613,11 +5287,8 @@
       <c r="O103">
         <v>0</v>
       </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43448</v>
       </c>
@@ -5663,11 +5334,8 @@
       <c r="O104">
         <v>0</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43449</v>
       </c>
@@ -5713,11 +5381,8 @@
       <c r="O105">
         <v>0</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43450</v>
       </c>
@@ -5763,11 +5428,8 @@
       <c r="O106">
         <v>0</v>
       </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43451</v>
       </c>
@@ -5813,11 +5475,8 @@
       <c r="O107">
         <v>0</v>
       </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43452</v>
       </c>
@@ -5863,11 +5522,8 @@
       <c r="O108">
         <v>0</v>
       </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43453</v>
       </c>
@@ -5913,11 +5569,8 @@
       <c r="O109">
         <v>0</v>
       </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43454</v>
       </c>
@@ -5963,11 +5616,8 @@
       <c r="O110">
         <v>0</v>
       </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43455</v>
       </c>
@@ -6013,11 +5663,8 @@
       <c r="O111">
         <v>0</v>
       </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43456</v>
       </c>
@@ -6063,11 +5710,8 @@
       <c r="O112">
         <v>0</v>
       </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43457</v>
       </c>
@@ -6113,11 +5757,8 @@
       <c r="O113">
         <v>0</v>
       </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43458</v>
       </c>
@@ -6163,11 +5804,8 @@
       <c r="O114">
         <v>0</v>
       </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43459</v>
       </c>
@@ -6213,11 +5851,8 @@
       <c r="O115">
         <v>0</v>
       </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43460</v>
       </c>
@@ -6263,11 +5898,8 @@
       <c r="O116">
         <v>0</v>
       </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43461</v>
       </c>
@@ -6313,11 +5945,8 @@
       <c r="O117">
         <v>0</v>
       </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43462</v>
       </c>
@@ -6363,11 +5992,8 @@
       <c r="O118">
         <v>0</v>
       </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43463</v>
       </c>
@@ -6413,11 +6039,8 @@
       <c r="O119">
         <v>0</v>
       </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43464</v>
       </c>
@@ -6463,11 +6086,8 @@
       <c r="O120">
         <v>0</v>
       </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43465</v>
       </c>
@@ -6513,11 +6133,8 @@
       <c r="O121">
         <v>0</v>
       </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43466</v>
       </c>
@@ -6563,11 +6180,8 @@
       <c r="O122">
         <v>0</v>
       </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43467</v>
       </c>
@@ -6613,11 +6227,8 @@
       <c r="O123">
         <v>0</v>
       </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43468</v>
       </c>
@@ -6663,11 +6274,8 @@
       <c r="O124">
         <v>0</v>
       </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43469</v>
       </c>
@@ -6713,11 +6321,8 @@
       <c r="O125">
         <v>0</v>
       </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43470</v>
       </c>
@@ -6763,11 +6368,8 @@
       <c r="O126">
         <v>0</v>
       </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43471</v>
       </c>
@@ -6813,11 +6415,8 @@
       <c r="O127">
         <v>0</v>
       </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43472</v>
       </c>
@@ -6863,11 +6462,8 @@
       <c r="O128">
         <v>0</v>
       </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43473</v>
       </c>
@@ -6913,11 +6509,8 @@
       <c r="O129">
         <v>0</v>
       </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43474</v>
       </c>
@@ -6963,11 +6556,8 @@
       <c r="O130">
         <v>0</v>
       </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43475</v>
       </c>
@@ -7013,11 +6603,8 @@
       <c r="O131">
         <v>0</v>
       </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43476</v>
       </c>
@@ -7063,11 +6650,8 @@
       <c r="O132">
         <v>0</v>
       </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43477</v>
       </c>
@@ -7113,11 +6697,8 @@
       <c r="O133">
         <v>0</v>
       </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43478</v>
       </c>
@@ -7163,11 +6744,8 @@
       <c r="O134">
         <v>0</v>
       </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43479</v>
       </c>
@@ -7213,11 +6791,8 @@
       <c r="O135">
         <v>0</v>
       </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43480</v>
       </c>
@@ -7263,11 +6838,8 @@
       <c r="O136">
         <v>0</v>
       </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43481</v>
       </c>
@@ -7313,11 +6885,8 @@
       <c r="O137">
         <v>0</v>
       </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43482</v>
       </c>
@@ -7363,11 +6932,8 @@
       <c r="O138">
         <v>0</v>
       </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43483</v>
       </c>
@@ -7413,11 +6979,8 @@
       <c r="O139">
         <v>0</v>
       </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43484</v>
       </c>
@@ -7463,11 +7026,8 @@
       <c r="O140">
         <v>0</v>
       </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43485</v>
       </c>
@@ -7513,11 +7073,8 @@
       <c r="O141">
         <v>0</v>
       </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43486</v>
       </c>
@@ -7563,11 +7120,8 @@
       <c r="O142">
         <v>0</v>
       </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43487</v>
       </c>
@@ -7613,11 +7167,8 @@
       <c r="O143">
         <v>0</v>
       </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43488</v>
       </c>
@@ -7663,11 +7214,8 @@
       <c r="O144">
         <v>0</v>
       </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43489</v>
       </c>
@@ -7713,11 +7261,8 @@
       <c r="O145">
         <v>0</v>
       </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43490</v>
       </c>
@@ -7763,11 +7308,8 @@
       <c r="O146">
         <v>0</v>
       </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43491</v>
       </c>
@@ -7813,11 +7355,8 @@
       <c r="O147">
         <v>0</v>
       </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43492</v>
       </c>
@@ -7863,11 +7402,8 @@
       <c r="O148">
         <v>0</v>
       </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43493</v>
       </c>
@@ -7913,11 +7449,8 @@
       <c r="O149">
         <v>0</v>
       </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43494</v>
       </c>
@@ -7963,11 +7496,8 @@
       <c r="O150">
         <v>0</v>
       </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43495</v>
       </c>
@@ -8013,11 +7543,8 @@
       <c r="O151">
         <v>0</v>
       </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
@@ -8063,11 +7590,8 @@
       <c r="O152">
         <v>0</v>
       </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43497</v>
       </c>
@@ -8113,11 +7637,8 @@
       <c r="O153">
         <v>0</v>
       </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43498</v>
       </c>
@@ -8163,11 +7684,8 @@
       <c r="O154">
         <v>0</v>
       </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43499</v>
       </c>
@@ -8213,11 +7731,8 @@
       <c r="O155">
         <v>0</v>
       </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43500</v>
       </c>
@@ -8263,11 +7778,8 @@
       <c r="O156">
         <v>0</v>
       </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43501</v>
       </c>
@@ -8313,11 +7825,8 @@
       <c r="O157">
         <v>0</v>
       </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43502</v>
       </c>
@@ -8363,11 +7872,8 @@
       <c r="O158">
         <v>0</v>
       </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43503</v>
       </c>
@@ -8413,11 +7919,8 @@
       <c r="O159">
         <v>0</v>
       </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43504</v>
       </c>
@@ -8463,11 +7966,8 @@
       <c r="O160">
         <v>0</v>
       </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43505</v>
       </c>
@@ -8513,11 +8013,8 @@
       <c r="O161">
         <v>0</v>
       </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43506</v>
       </c>
@@ -8563,11 +8060,8 @@
       <c r="O162">
         <v>0</v>
       </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43507</v>
       </c>
@@ -8613,11 +8107,8 @@
       <c r="O163">
         <v>0</v>
       </c>
-      <c r="P163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43508</v>
       </c>
@@ -8663,11 +8154,8 @@
       <c r="O164">
         <v>0</v>
       </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43509</v>
       </c>
@@ -8713,11 +8201,8 @@
       <c r="O165">
         <v>0</v>
       </c>
-      <c r="P165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43510</v>
       </c>
@@ -8763,11 +8248,8 @@
       <c r="O166">
         <v>0</v>
       </c>
-      <c r="P166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43511</v>
       </c>
@@ -8813,11 +8295,8 @@
       <c r="O167">
         <v>0</v>
       </c>
-      <c r="P167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43512</v>
       </c>
@@ -8863,11 +8342,8 @@
       <c r="O168">
         <v>0</v>
       </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43513</v>
       </c>
@@ -8913,11 +8389,8 @@
       <c r="O169">
         <v>0</v>
       </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43514</v>
       </c>
@@ -8963,11 +8436,8 @@
       <c r="O170">
         <v>0</v>
       </c>
-      <c r="P170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43515</v>
       </c>
@@ -9013,11 +8483,8 @@
       <c r="O171">
         <v>0</v>
       </c>
-      <c r="P171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43516</v>
       </c>
@@ -9063,11 +8530,8 @@
       <c r="O172">
         <v>0</v>
       </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43517</v>
       </c>
@@ -9113,11 +8577,8 @@
       <c r="O173">
         <v>0</v>
       </c>
-      <c r="P173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43518</v>
       </c>
@@ -9163,11 +8624,8 @@
       <c r="O174">
         <v>0</v>
       </c>
-      <c r="P174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43519</v>
       </c>
@@ -9213,11 +8671,8 @@
       <c r="O175">
         <v>0</v>
       </c>
-      <c r="P175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43520</v>
       </c>
@@ -9263,11 +8718,8 @@
       <c r="O176">
         <v>0</v>
       </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43521</v>
       </c>
@@ -9313,11 +8765,8 @@
       <c r="O177">
         <v>0</v>
       </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43522</v>
       </c>
@@ -9363,11 +8812,8 @@
       <c r="O178">
         <v>0</v>
       </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43523</v>
       </c>
@@ -9413,11 +8859,8 @@
       <c r="O179">
         <v>0</v>
       </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43524</v>
       </c>
@@ -9463,11 +8906,8 @@
       <c r="O180">
         <v>0</v>
       </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43525</v>
       </c>
@@ -9513,11 +8953,8 @@
       <c r="O181">
         <v>0</v>
       </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43526</v>
       </c>
@@ -9563,11 +9000,8 @@
       <c r="O182">
         <v>0</v>
       </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43527</v>
       </c>
@@ -9613,11 +9047,8 @@
       <c r="O183">
         <v>0</v>
       </c>
-      <c r="P183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43528</v>
       </c>
@@ -9663,11 +9094,8 @@
       <c r="O184">
         <v>0</v>
       </c>
-      <c r="P184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43529</v>
       </c>
@@ -9713,11 +9141,8 @@
       <c r="O185">
         <v>0</v>
       </c>
-      <c r="P185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43530</v>
       </c>
@@ -9763,11 +9188,8 @@
       <c r="O186">
         <v>0</v>
       </c>
-      <c r="P186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43531</v>
       </c>
@@ -9813,11 +9235,8 @@
       <c r="O187">
         <v>0</v>
       </c>
-      <c r="P187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43532</v>
       </c>
@@ -9863,11 +9282,8 @@
       <c r="O188">
         <v>0</v>
       </c>
-      <c r="P188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43533</v>
       </c>
@@ -9913,11 +9329,8 @@
       <c r="O189">
         <v>0</v>
       </c>
-      <c r="P189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43534</v>
       </c>
@@ -9963,11 +9376,8 @@
       <c r="O190">
         <v>0</v>
       </c>
-      <c r="P190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43535</v>
       </c>
@@ -10013,11 +9423,8 @@
       <c r="O191">
         <v>0</v>
       </c>
-      <c r="P191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43536</v>
       </c>
@@ -10063,11 +9470,8 @@
       <c r="O192">
         <v>0</v>
       </c>
-      <c r="P192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43537</v>
       </c>
@@ -10113,11 +9517,8 @@
       <c r="O193">
         <v>0</v>
       </c>
-      <c r="P193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43538</v>
       </c>
@@ -10163,11 +9564,8 @@
       <c r="O194">
         <v>0</v>
       </c>
-      <c r="P194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43539</v>
       </c>
@@ -10213,11 +9611,8 @@
       <c r="O195">
         <v>0</v>
       </c>
-      <c r="P195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43540</v>
       </c>
@@ -10263,11 +9658,8 @@
       <c r="O196">
         <v>0</v>
       </c>
-      <c r="P196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43541</v>
       </c>
@@ -10313,11 +9705,8 @@
       <c r="O197">
         <v>0</v>
       </c>
-      <c r="P197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43542</v>
       </c>
@@ -10363,11 +9752,8 @@
       <c r="O198">
         <v>0</v>
       </c>
-      <c r="P198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43543</v>
       </c>
@@ -10413,11 +9799,8 @@
       <c r="O199">
         <v>0</v>
       </c>
-      <c r="P199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43544</v>
       </c>
@@ -10463,11 +9846,8 @@
       <c r="O200">
         <v>0</v>
       </c>
-      <c r="P200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>43545</v>
       </c>
@@ -10513,11 +9893,8 @@
       <c r="O201">
         <v>0</v>
       </c>
-      <c r="P201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>43546</v>
       </c>
@@ -10563,11 +9940,8 @@
       <c r="O202">
         <v>0</v>
       </c>
-      <c r="P202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43547</v>
       </c>
@@ -10613,11 +9987,8 @@
       <c r="O203">
         <v>0</v>
       </c>
-      <c r="P203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43548</v>
       </c>
@@ -10663,11 +10034,8 @@
       <c r="O204">
         <v>0</v>
       </c>
-      <c r="P204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43549</v>
       </c>
@@ -10713,11 +10081,8 @@
       <c r="O205">
         <v>0</v>
       </c>
-      <c r="P205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43550</v>
       </c>
@@ -10763,11 +10128,8 @@
       <c r="O206">
         <v>0</v>
       </c>
-      <c r="P206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43551</v>
       </c>
@@ -10813,11 +10175,8 @@
       <c r="O207">
         <v>0</v>
       </c>
-      <c r="P207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43552</v>
       </c>
@@ -10863,11 +10222,8 @@
       <c r="O208">
         <v>0</v>
       </c>
-      <c r="P208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43553</v>
       </c>
@@ -10913,11 +10269,8 @@
       <c r="O209">
         <v>0</v>
       </c>
-      <c r="P209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43554</v>
       </c>
@@ -10963,11 +10316,8 @@
       <c r="O210">
         <v>0</v>
       </c>
-      <c r="P210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43555</v>
       </c>
@@ -11013,11 +10363,8 @@
       <c r="O211">
         <v>0</v>
       </c>
-      <c r="P211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43556</v>
       </c>
@@ -11063,11 +10410,8 @@
       <c r="O212">
         <v>0</v>
       </c>
-      <c r="P212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43557</v>
       </c>
@@ -11113,11 +10457,8 @@
       <c r="O213">
         <v>0</v>
       </c>
-      <c r="P213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43558</v>
       </c>
@@ -11163,11 +10504,8 @@
       <c r="O214">
         <v>0</v>
       </c>
-      <c r="P214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43559</v>
       </c>
@@ -11213,11 +10551,8 @@
       <c r="O215">
         <v>0</v>
       </c>
-      <c r="P215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43560</v>
       </c>
@@ -11263,11 +10598,8 @@
       <c r="O216">
         <v>0</v>
       </c>
-      <c r="P216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43561</v>
       </c>
@@ -11313,11 +10645,8 @@
       <c r="O217">
         <v>0</v>
       </c>
-      <c r="P217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43562</v>
       </c>
@@ -11363,11 +10692,8 @@
       <c r="O218">
         <v>0</v>
       </c>
-      <c r="P218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43563</v>
       </c>
@@ -11413,11 +10739,8 @@
       <c r="O219">
         <v>0</v>
       </c>
-      <c r="P219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43564</v>
       </c>
@@ -11463,11 +10786,8 @@
       <c r="O220">
         <v>0</v>
       </c>
-      <c r="P220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43565</v>
       </c>
@@ -11513,11 +10833,8 @@
       <c r="O221">
         <v>0</v>
       </c>
-      <c r="P221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>43566</v>
       </c>
@@ -11563,11 +10880,8 @@
       <c r="O222">
         <v>0</v>
       </c>
-      <c r="P222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>43567</v>
       </c>
@@ -11613,11 +10927,8 @@
       <c r="O223">
         <v>0</v>
       </c>
-      <c r="P223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>43568</v>
       </c>
@@ -11663,11 +10974,8 @@
       <c r="O224">
         <v>0</v>
       </c>
-      <c r="P224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>43569</v>
       </c>
@@ -11713,11 +11021,8 @@
       <c r="O225">
         <v>0</v>
       </c>
-      <c r="P225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>43570</v>
       </c>
@@ -11763,11 +11068,8 @@
       <c r="O226">
         <v>0</v>
       </c>
-      <c r="P226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>43571</v>
       </c>
@@ -11813,11 +11115,8 @@
       <c r="O227">
         <v>0</v>
       </c>
-      <c r="P227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>43572</v>
       </c>
@@ -11863,11 +11162,8 @@
       <c r="O228">
         <v>0</v>
       </c>
-      <c r="P228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>43573</v>
       </c>
@@ -11913,11 +11209,8 @@
       <c r="O229">
         <v>0</v>
       </c>
-      <c r="P229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>43574</v>
       </c>
@@ -11963,11 +11256,8 @@
       <c r="O230">
         <v>0</v>
       </c>
-      <c r="P230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>43575</v>
       </c>
@@ -12013,11 +11303,8 @@
       <c r="O231">
         <v>0</v>
       </c>
-      <c r="P231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>43576</v>
       </c>
@@ -12063,11 +11350,8 @@
       <c r="O232">
         <v>0</v>
       </c>
-      <c r="P232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>43577</v>
       </c>
@@ -12113,11 +11397,8 @@
       <c r="O233">
         <v>0</v>
       </c>
-      <c r="P233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>43578</v>
       </c>
@@ -12163,11 +11444,8 @@
       <c r="O234">
         <v>0</v>
       </c>
-      <c r="P234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>43579</v>
       </c>
@@ -12213,11 +11491,8 @@
       <c r="O235">
         <v>0</v>
       </c>
-      <c r="P235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>43580</v>
       </c>
@@ -12263,11 +11538,8 @@
       <c r="O236">
         <v>0</v>
       </c>
-      <c r="P236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>43581</v>
       </c>
@@ -12313,11 +11585,8 @@
       <c r="O237">
         <v>0</v>
       </c>
-      <c r="P237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>43582</v>
       </c>
@@ -12363,11 +11632,8 @@
       <c r="O238">
         <v>0</v>
       </c>
-      <c r="P238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>43583</v>
       </c>
@@ -12413,11 +11679,8 @@
       <c r="O239">
         <v>0</v>
       </c>
-      <c r="P239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>43584</v>
       </c>
@@ -12463,11 +11726,8 @@
       <c r="O240">
         <v>0</v>
       </c>
-      <c r="P240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>43585</v>
       </c>
@@ -12513,11 +11773,8 @@
       <c r="O241">
         <v>0</v>
       </c>
-      <c r="P241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>43586</v>
       </c>
@@ -12563,11 +11820,8 @@
       <c r="O242">
         <v>0</v>
       </c>
-      <c r="P242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>43587</v>
       </c>
@@ -12613,11 +11867,8 @@
       <c r="O243">
         <v>0</v>
       </c>
-      <c r="P243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>43588</v>
       </c>
@@ -12663,11 +11914,8 @@
       <c r="O244">
         <v>0</v>
       </c>
-      <c r="P244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>43589</v>
       </c>
@@ -12713,11 +11961,8 @@
       <c r="O245">
         <v>0</v>
       </c>
-      <c r="P245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>43590</v>
       </c>
@@ -12763,11 +12008,8 @@
       <c r="O246">
         <v>0</v>
       </c>
-      <c r="P246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>43591</v>
       </c>
@@ -12813,11 +12055,8 @@
       <c r="O247">
         <v>0</v>
       </c>
-      <c r="P247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>43592</v>
       </c>
@@ -12863,11 +12102,8 @@
       <c r="O248">
         <v>0</v>
       </c>
-      <c r="P248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>43593</v>
       </c>
@@ -12913,11 +12149,8 @@
       <c r="O249">
         <v>0</v>
       </c>
-      <c r="P249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>43594</v>
       </c>
@@ -12963,11 +12196,8 @@
       <c r="O250">
         <v>0</v>
       </c>
-      <c r="P250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>43595</v>
       </c>
@@ -13013,11 +12243,8 @@
       <c r="O251">
         <v>0</v>
       </c>
-      <c r="P251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>43596</v>
       </c>
@@ -13063,11 +12290,8 @@
       <c r="O252">
         <v>0</v>
       </c>
-      <c r="P252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>43597</v>
       </c>
@@ -13113,11 +12337,8 @@
       <c r="O253">
         <v>0</v>
       </c>
-      <c r="P253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>43598</v>
       </c>
@@ -13163,11 +12384,8 @@
       <c r="O254">
         <v>0</v>
       </c>
-      <c r="P254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>43599</v>
       </c>
@@ -13213,11 +12431,8 @@
       <c r="O255">
         <v>0</v>
       </c>
-      <c r="P255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>43600</v>
       </c>
@@ -13263,11 +12478,8 @@
       <c r="O256">
         <v>0</v>
       </c>
-      <c r="P256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>43601</v>
       </c>
@@ -13313,11 +12525,8 @@
       <c r="O257">
         <v>0</v>
       </c>
-      <c r="P257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>43602</v>
       </c>
@@ -13363,11 +12572,8 @@
       <c r="O258">
         <v>0</v>
       </c>
-      <c r="P258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>43603</v>
       </c>
@@ -13413,11 +12619,8 @@
       <c r="O259">
         <v>0</v>
       </c>
-      <c r="P259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>43604</v>
       </c>
@@ -13463,11 +12666,8 @@
       <c r="O260">
         <v>0</v>
       </c>
-      <c r="P260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>43605</v>
       </c>
@@ -13513,11 +12713,8 @@
       <c r="O261">
         <v>0</v>
       </c>
-      <c r="P261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>43606</v>
       </c>
@@ -13563,11 +12760,8 @@
       <c r="O262">
         <v>0</v>
       </c>
-      <c r="P262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>43607</v>
       </c>
@@ -13613,11 +12807,8 @@
       <c r="O263">
         <v>0</v>
       </c>
-      <c r="P263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>43608</v>
       </c>
@@ -13663,11 +12854,8 @@
       <c r="O264">
         <v>0</v>
       </c>
-      <c r="P264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>43609</v>
       </c>
@@ -13713,11 +12901,8 @@
       <c r="O265">
         <v>0</v>
       </c>
-      <c r="P265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>43610</v>
       </c>
@@ -13763,11 +12948,8 @@
       <c r="O266">
         <v>0</v>
       </c>
-      <c r="P266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>43611</v>
       </c>
@@ -13813,11 +12995,8 @@
       <c r="O267">
         <v>0</v>
       </c>
-      <c r="P267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>43612</v>
       </c>
@@ -13863,11 +13042,8 @@
       <c r="O268">
         <v>0</v>
       </c>
-      <c r="P268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>43613</v>
       </c>
@@ -13913,11 +13089,8 @@
       <c r="O269">
         <v>0</v>
       </c>
-      <c r="P269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>43614</v>
       </c>
@@ -13963,11 +13136,8 @@
       <c r="O270">
         <v>0</v>
       </c>
-      <c r="P270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>43615</v>
       </c>
@@ -14013,11 +13183,8 @@
       <c r="O271">
         <v>0</v>
       </c>
-      <c r="P271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>43616</v>
       </c>
@@ -14063,11 +13230,8 @@
       <c r="O272">
         <v>0</v>
       </c>
-      <c r="P272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>43617</v>
       </c>
@@ -14113,11 +13277,8 @@
       <c r="O273">
         <v>0</v>
       </c>
-      <c r="P273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>43618</v>
       </c>
@@ -14163,11 +13324,8 @@
       <c r="O274">
         <v>1</v>
       </c>
-      <c r="P274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>43619</v>
       </c>
@@ -14213,11 +13371,8 @@
       <c r="O275">
         <v>0</v>
       </c>
-      <c r="P275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>43620</v>
       </c>
@@ -14263,11 +13418,8 @@
       <c r="O276">
         <v>0</v>
       </c>
-      <c r="P276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>43621</v>
       </c>
@@ -14313,11 +13465,8 @@
       <c r="O277">
         <v>0</v>
       </c>
-      <c r="P277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>43622</v>
       </c>
@@ -14363,11 +13512,8 @@
       <c r="O278">
         <v>0</v>
       </c>
-      <c r="P278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>43623</v>
       </c>
@@ -14413,11 +13559,8 @@
       <c r="O279">
         <v>0</v>
       </c>
-      <c r="P279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>43624</v>
       </c>
@@ -14463,11 +13606,8 @@
       <c r="O280">
         <v>0</v>
       </c>
-      <c r="P280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>43625</v>
       </c>
@@ -14513,11 +13653,8 @@
       <c r="O281">
         <v>0</v>
       </c>
-      <c r="P281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>43626</v>
       </c>
@@ -14563,11 +13700,8 @@
       <c r="O282">
         <v>0</v>
       </c>
-      <c r="P282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>43627</v>
       </c>
@@ -14613,11 +13747,8 @@
       <c r="O283">
         <v>0</v>
       </c>
-      <c r="P283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>43628</v>
       </c>
@@ -14663,11 +13794,8 @@
       <c r="O284">
         <v>0</v>
       </c>
-      <c r="P284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>43629</v>
       </c>
@@ -14713,11 +13841,8 @@
       <c r="O285">
         <v>0</v>
       </c>
-      <c r="P285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>43630</v>
       </c>
@@ -14763,11 +13888,8 @@
       <c r="O286">
         <v>0</v>
       </c>
-      <c r="P286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>43631</v>
       </c>
@@ -14813,11 +13935,8 @@
       <c r="O287">
         <v>0</v>
       </c>
-      <c r="P287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>43632</v>
       </c>
@@ -14863,11 +13982,8 @@
       <c r="O288">
         <v>0</v>
       </c>
-      <c r="P288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>43633</v>
       </c>
@@ -14913,11 +14029,8 @@
       <c r="O289">
         <v>0</v>
       </c>
-      <c r="P289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>43634</v>
       </c>
@@ -14963,11 +14076,8 @@
       <c r="O290">
         <v>0</v>
       </c>
-      <c r="P290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>43635</v>
       </c>
@@ -15013,11 +14123,8 @@
       <c r="O291">
         <v>0</v>
       </c>
-      <c r="P291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>43636</v>
       </c>
@@ -15063,11 +14170,8 @@
       <c r="O292">
         <v>0</v>
       </c>
-      <c r="P292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>43637</v>
       </c>
@@ -15113,11 +14217,8 @@
       <c r="O293">
         <v>0</v>
       </c>
-      <c r="P293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>43638</v>
       </c>
@@ -15163,11 +14264,8 @@
       <c r="O294">
         <v>0</v>
       </c>
-      <c r="P294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>43639</v>
       </c>
@@ -15213,11 +14311,8 @@
       <c r="O295">
         <v>0</v>
       </c>
-      <c r="P295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>43640</v>
       </c>
@@ -15263,11 +14358,8 @@
       <c r="O296">
         <v>0</v>
       </c>
-      <c r="P296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>43641</v>
       </c>
@@ -15313,11 +14405,8 @@
       <c r="O297">
         <v>0</v>
       </c>
-      <c r="P297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>43642</v>
       </c>
@@ -15363,11 +14452,8 @@
       <c r="O298">
         <v>0</v>
       </c>
-      <c r="P298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>43643</v>
       </c>
@@ -15413,11 +14499,8 @@
       <c r="O299">
         <v>0</v>
       </c>
-      <c r="P299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>43644</v>
       </c>
@@ -15463,11 +14546,8 @@
       <c r="O300">
         <v>0</v>
       </c>
-      <c r="P300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>43645</v>
       </c>
@@ -15513,11 +14593,8 @@
       <c r="O301">
         <v>0</v>
       </c>
-      <c r="P301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>43646</v>
       </c>
@@ -15563,11 +14640,8 @@
       <c r="O302">
         <v>0</v>
       </c>
-      <c r="P302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>43647</v>
       </c>
@@ -15613,11 +14687,8 @@
       <c r="O303">
         <v>0</v>
       </c>
-      <c r="P303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>43648</v>
       </c>
@@ -15663,11 +14734,8 @@
       <c r="O304">
         <v>0</v>
       </c>
-      <c r="P304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>43649</v>
       </c>
@@ -15713,11 +14781,8 @@
       <c r="O305">
         <v>0</v>
       </c>
-      <c r="P305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>43650</v>
       </c>
@@ -15763,11 +14828,8 @@
       <c r="O306">
         <v>0</v>
       </c>
-      <c r="P306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>43651</v>
       </c>
@@ -15813,11 +14875,8 @@
       <c r="O307">
         <v>0</v>
       </c>
-      <c r="P307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>43652</v>
       </c>
@@ -15863,11 +14922,8 @@
       <c r="O308">
         <v>0</v>
       </c>
-      <c r="P308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>43653</v>
       </c>
@@ -15913,11 +14969,8 @@
       <c r="O309">
         <v>0</v>
       </c>
-      <c r="P309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>43654</v>
       </c>
@@ -15963,11 +15016,8 @@
       <c r="O310">
         <v>0</v>
       </c>
-      <c r="P310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>43655</v>
       </c>
@@ -16013,11 +15063,8 @@
       <c r="O311">
         <v>0</v>
       </c>
-      <c r="P311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>43656</v>
       </c>
@@ -16063,11 +15110,8 @@
       <c r="O312">
         <v>0</v>
       </c>
-      <c r="P312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>43657</v>
       </c>
@@ -16113,11 +15157,8 @@
       <c r="O313">
         <v>0</v>
       </c>
-      <c r="P313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>43658</v>
       </c>
@@ -16163,11 +15204,8 @@
       <c r="O314">
         <v>0</v>
       </c>
-      <c r="P314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>43659</v>
       </c>
@@ -16213,11 +15251,8 @@
       <c r="O315">
         <v>0</v>
       </c>
-      <c r="P315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>43660</v>
       </c>
@@ -16263,11 +15298,8 @@
       <c r="O316">
         <v>0</v>
       </c>
-      <c r="P316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>43661</v>
       </c>
@@ -16313,11 +15345,8 @@
       <c r="O317">
         <v>0</v>
       </c>
-      <c r="P317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>43662</v>
       </c>
@@ -16363,11 +15392,8 @@
       <c r="O318">
         <v>0</v>
       </c>
-      <c r="P318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>43663</v>
       </c>
@@ -16413,11 +15439,8 @@
       <c r="O319">
         <v>0</v>
       </c>
-      <c r="P319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>43664</v>
       </c>
@@ -16463,11 +15486,8 @@
       <c r="O320">
         <v>0</v>
       </c>
-      <c r="P320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>43665</v>
       </c>
@@ -16513,11 +15533,8 @@
       <c r="O321">
         <v>0</v>
       </c>
-      <c r="P321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>43666</v>
       </c>
@@ -16563,11 +15580,8 @@
       <c r="O322">
         <v>0</v>
       </c>
-      <c r="P322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>43667</v>
       </c>
@@ -16613,11 +15627,8 @@
       <c r="O323">
         <v>0</v>
       </c>
-      <c r="P323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>43668</v>
       </c>
@@ -16663,11 +15674,8 @@
       <c r="O324">
         <v>0</v>
       </c>
-      <c r="P324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>43669</v>
       </c>
@@ -16713,11 +15721,8 @@
       <c r="O325">
         <v>0</v>
       </c>
-      <c r="P325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>43670</v>
       </c>
@@ -16763,11 +15768,8 @@
       <c r="O326">
         <v>0</v>
       </c>
-      <c r="P326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>43671</v>
       </c>
@@ -16813,11 +15815,8 @@
       <c r="O327">
         <v>0</v>
       </c>
-      <c r="P327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>43672</v>
       </c>
@@ -16863,11 +15862,8 @@
       <c r="O328">
         <v>0</v>
       </c>
-      <c r="P328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>43673</v>
       </c>
@@ -16913,11 +15909,8 @@
       <c r="O329">
         <v>0</v>
       </c>
-      <c r="P329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>43674</v>
       </c>
@@ -16963,11 +15956,8 @@
       <c r="O330">
         <v>0</v>
       </c>
-      <c r="P330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>43675</v>
       </c>
@@ -17013,11 +16003,8 @@
       <c r="O331">
         <v>0</v>
       </c>
-      <c r="P331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>43676</v>
       </c>
@@ -17063,11 +16050,8 @@
       <c r="O332">
         <v>0</v>
       </c>
-      <c r="P332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>43677</v>
       </c>
@@ -17113,11 +16097,8 @@
       <c r="O333">
         <v>0</v>
       </c>
-      <c r="P333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>43678</v>
       </c>
@@ -17163,11 +16144,8 @@
       <c r="O334">
         <v>0</v>
       </c>
-      <c r="P334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>43679</v>
       </c>
@@ -17213,11 +16191,8 @@
       <c r="O335">
         <v>0</v>
       </c>
-      <c r="P335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>43680</v>
       </c>
@@ -17263,11 +16238,8 @@
       <c r="O336">
         <v>0</v>
       </c>
-      <c r="P336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>43681</v>
       </c>
@@ -17313,11 +16285,8 @@
       <c r="O337">
         <v>0</v>
       </c>
-      <c r="P337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>43682</v>
       </c>
@@ -17363,11 +16332,8 @@
       <c r="O338">
         <v>0</v>
       </c>
-      <c r="P338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>43683</v>
       </c>
@@ -17413,11 +16379,8 @@
       <c r="O339">
         <v>0</v>
       </c>
-      <c r="P339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>43684</v>
       </c>
@@ -17463,11 +16426,8 @@
       <c r="O340">
         <v>0</v>
       </c>
-      <c r="P340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>43685</v>
       </c>
@@ -17513,11 +16473,8 @@
       <c r="O341">
         <v>0</v>
       </c>
-      <c r="P341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>43686</v>
       </c>
@@ -17563,11 +16520,8 @@
       <c r="O342">
         <v>0</v>
       </c>
-      <c r="P342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>43687</v>
       </c>
@@ -17613,11 +16567,8 @@
       <c r="O343">
         <v>0</v>
       </c>
-      <c r="P343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>43688</v>
       </c>
@@ -17663,11 +16614,8 @@
       <c r="O344">
         <v>0</v>
       </c>
-      <c r="P344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>43689</v>
       </c>
@@ -17713,11 +16661,8 @@
       <c r="O345">
         <v>0</v>
       </c>
-      <c r="P345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>43690</v>
       </c>
@@ -17763,11 +16708,8 @@
       <c r="O346">
         <v>0</v>
       </c>
-      <c r="P346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>43691</v>
       </c>
@@ -17813,11 +16755,8 @@
       <c r="O347">
         <v>0</v>
       </c>
-      <c r="P347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>43692</v>
       </c>
@@ -17863,11 +16802,8 @@
       <c r="O348">
         <v>0</v>
       </c>
-      <c r="P348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>43693</v>
       </c>
@@ -17913,11 +16849,8 @@
       <c r="O349">
         <v>0</v>
       </c>
-      <c r="P349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>43694</v>
       </c>
@@ -17963,11 +16896,8 @@
       <c r="O350">
         <v>0</v>
       </c>
-      <c r="P350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>43695</v>
       </c>
@@ -18013,11 +16943,8 @@
       <c r="O351">
         <v>0</v>
       </c>
-      <c r="P351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>43696</v>
       </c>
@@ -18063,11 +16990,8 @@
       <c r="O352">
         <v>0</v>
       </c>
-      <c r="P352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>43697</v>
       </c>
@@ -18113,11 +17037,8 @@
       <c r="O353">
         <v>0</v>
       </c>
-      <c r="P353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>43698</v>
       </c>
@@ -18163,11 +17084,8 @@
       <c r="O354">
         <v>0</v>
       </c>
-      <c r="P354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>43699</v>
       </c>
@@ -18213,11 +17131,8 @@
       <c r="O355">
         <v>0</v>
       </c>
-      <c r="P355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>43700</v>
       </c>
@@ -18263,11 +17178,8 @@
       <c r="O356">
         <v>0</v>
       </c>
-      <c r="P356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>43701</v>
       </c>
@@ -18313,11 +17225,8 @@
       <c r="O357">
         <v>0</v>
       </c>
-      <c r="P357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>43702</v>
       </c>
@@ -18363,11 +17272,8 @@
       <c r="O358">
         <v>0</v>
       </c>
-      <c r="P358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>43703</v>
       </c>
@@ -18413,11 +17319,8 @@
       <c r="O359">
         <v>0</v>
       </c>
-      <c r="P359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>43704</v>
       </c>
@@ -18463,11 +17366,8 @@
       <c r="O360">
         <v>0</v>
       </c>
-      <c r="P360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>43705</v>
       </c>
@@ -18513,11 +17413,8 @@
       <c r="O361">
         <v>0</v>
       </c>
-      <c r="P361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>43706</v>
       </c>
@@ -18563,11 +17460,8 @@
       <c r="O362">
         <v>0</v>
       </c>
-      <c r="P362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>43707</v>
       </c>
@@ -18613,11 +17507,8 @@
       <c r="O363">
         <v>0</v>
       </c>
-      <c r="P363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>43708</v>
       </c>
@@ -18663,11 +17554,8 @@
       <c r="O364">
         <v>0</v>
       </c>
-      <c r="P364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>43709</v>
       </c>
@@ -18713,11 +17601,8 @@
       <c r="O365">
         <v>0</v>
       </c>
-      <c r="P365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>43710</v>
       </c>
@@ -18763,11 +17648,8 @@
       <c r="O366">
         <v>0</v>
       </c>
-      <c r="P366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>43711</v>
       </c>
@@ -18813,11 +17695,8 @@
       <c r="O367">
         <v>0</v>
       </c>
-      <c r="P367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>43712</v>
       </c>
@@ -18863,11 +17742,8 @@
       <c r="O368">
         <v>0</v>
       </c>
-      <c r="P368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>43713</v>
       </c>
@@ -18913,11 +17789,8 @@
       <c r="O369">
         <v>0</v>
       </c>
-      <c r="P369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>43714</v>
       </c>
@@ -18963,11 +17836,8 @@
       <c r="O370">
         <v>0</v>
       </c>
-      <c r="P370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>43715</v>
       </c>
@@ -19013,11 +17883,8 @@
       <c r="O371">
         <v>0</v>
       </c>
-      <c r="P371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>43716</v>
       </c>
@@ -19063,11 +17930,8 @@
       <c r="O372">
         <v>0</v>
       </c>
-      <c r="P372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>43717</v>
       </c>
@@ -19113,11 +17977,8 @@
       <c r="O373">
         <v>0</v>
       </c>
-      <c r="P373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>43718</v>
       </c>
@@ -19163,11 +18024,8 @@
       <c r="O374">
         <v>0</v>
       </c>
-      <c r="P374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>43719</v>
       </c>
@@ -19213,11 +18071,8 @@
       <c r="O375">
         <v>0</v>
       </c>
-      <c r="P375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>43720</v>
       </c>
@@ -19263,11 +18118,8 @@
       <c r="O376">
         <v>0</v>
       </c>
-      <c r="P376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>43721</v>
       </c>
@@ -19313,11 +18165,8 @@
       <c r="O377">
         <v>0</v>
       </c>
-      <c r="P377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>43722</v>
       </c>
@@ -19363,11 +18212,8 @@
       <c r="O378">
         <v>0</v>
       </c>
-      <c r="P378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>43723</v>
       </c>
@@ -19413,11 +18259,8 @@
       <c r="O379">
         <v>0</v>
       </c>
-      <c r="P379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>43724</v>
       </c>
@@ -19463,11 +18306,8 @@
       <c r="O380">
         <v>0</v>
       </c>
-      <c r="P380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>43725</v>
       </c>
@@ -19513,11 +18353,8 @@
       <c r="O381">
         <v>0</v>
       </c>
-      <c r="P381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>43726</v>
       </c>
@@ -19563,11 +18400,8 @@
       <c r="O382">
         <v>0</v>
       </c>
-      <c r="P382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>43727</v>
       </c>
@@ -19613,11 +18447,8 @@
       <c r="O383">
         <v>0</v>
       </c>
-      <c r="P383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>43728</v>
       </c>
@@ -19663,11 +18494,8 @@
       <c r="O384">
         <v>0</v>
       </c>
-      <c r="P384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>43729</v>
       </c>
@@ -19713,11 +18541,8 @@
       <c r="O385">
         <v>0</v>
       </c>
-      <c r="P385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>43730</v>
       </c>
@@ -19763,11 +18588,8 @@
       <c r="O386">
         <v>0</v>
       </c>
-      <c r="P386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>43731</v>
       </c>
@@ -19813,11 +18635,8 @@
       <c r="O387">
         <v>0</v>
       </c>
-      <c r="P387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>43732</v>
       </c>
@@ -19863,11 +18682,8 @@
       <c r="O388">
         <v>0</v>
       </c>
-      <c r="P388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>43733</v>
       </c>
@@ -19913,11 +18729,8 @@
       <c r="O389">
         <v>0</v>
       </c>
-      <c r="P389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>43734</v>
       </c>
@@ -19963,11 +18776,8 @@
       <c r="O390">
         <v>0</v>
       </c>
-      <c r="P390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>43735</v>
       </c>
@@ -20013,11 +18823,8 @@
       <c r="O391">
         <v>0</v>
       </c>
-      <c r="P391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>43736</v>
       </c>
@@ -20063,11 +18870,8 @@
       <c r="O392">
         <v>0</v>
       </c>
-      <c r="P392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>43737</v>
       </c>
@@ -20113,11 +18917,8 @@
       <c r="O393">
         <v>0</v>
       </c>
-      <c r="P393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>43738</v>
       </c>
@@ -20163,11 +18964,8 @@
       <c r="O394">
         <v>0</v>
       </c>
-      <c r="P394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>43739</v>
       </c>
@@ -20213,11 +19011,8 @@
       <c r="O395">
         <v>0</v>
       </c>
-      <c r="P395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>43740</v>
       </c>
@@ -20263,11 +19058,8 @@
       <c r="O396">
         <v>0</v>
       </c>
-      <c r="P396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>43741</v>
       </c>
@@ -20313,11 +19105,8 @@
       <c r="O397">
         <v>0</v>
       </c>
-      <c r="P397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>43742</v>
       </c>
@@ -20363,11 +19152,8 @@
       <c r="O398">
         <v>0</v>
       </c>
-      <c r="P398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>43743</v>
       </c>
@@ -20413,11 +19199,8 @@
       <c r="O399">
         <v>0</v>
       </c>
-      <c r="P399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>43744</v>
       </c>
@@ -20463,11 +19246,8 @@
       <c r="O400">
         <v>0</v>
       </c>
-      <c r="P400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>43745</v>
       </c>
@@ -20513,11 +19293,8 @@
       <c r="O401">
         <v>0</v>
       </c>
-      <c r="P401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>43746</v>
       </c>
@@ -20563,11 +19340,8 @@
       <c r="O402">
         <v>0</v>
       </c>
-      <c r="P402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>43747</v>
       </c>
@@ -20613,11 +19387,8 @@
       <c r="O403">
         <v>0</v>
       </c>
-      <c r="P403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>43748</v>
       </c>
@@ -20663,11 +19434,8 @@
       <c r="O404">
         <v>0</v>
       </c>
-      <c r="P404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>43749</v>
       </c>
@@ -20713,11 +19481,8 @@
       <c r="O405">
         <v>0</v>
       </c>
-      <c r="P405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>43750</v>
       </c>
@@ -20763,11 +19528,8 @@
       <c r="O406">
         <v>0</v>
       </c>
-      <c r="P406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>43751</v>
       </c>
@@ -20813,11 +19575,8 @@
       <c r="O407">
         <v>0</v>
       </c>
-      <c r="P407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>43752</v>
       </c>
@@ -20863,11 +19622,8 @@
       <c r="O408">
         <v>0</v>
       </c>
-      <c r="P408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>43753</v>
       </c>
@@ -20913,11 +19669,8 @@
       <c r="O409">
         <v>0</v>
       </c>
-      <c r="P409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>43754</v>
       </c>
@@ -20963,11 +19716,8 @@
       <c r="O410">
         <v>0</v>
       </c>
-      <c r="P410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>43755</v>
       </c>
@@ -21013,11 +19763,8 @@
       <c r="O411">
         <v>0</v>
       </c>
-      <c r="P411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>43756</v>
       </c>
@@ -21063,11 +19810,8 @@
       <c r="O412">
         <v>0</v>
       </c>
-      <c r="P412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>43757</v>
       </c>
@@ -21113,11 +19857,8 @@
       <c r="O413">
         <v>0</v>
       </c>
-      <c r="P413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>43758</v>
       </c>
@@ -21163,11 +19904,8 @@
       <c r="O414">
         <v>0</v>
       </c>
-      <c r="P414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>43759</v>
       </c>
@@ -21213,11 +19951,8 @@
       <c r="O415">
         <v>0</v>
       </c>
-      <c r="P415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>43760</v>
       </c>
@@ -21263,11 +19998,8 @@
       <c r="O416">
         <v>0</v>
       </c>
-      <c r="P416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>43761</v>
       </c>
@@ -21313,11 +20045,8 @@
       <c r="O417">
         <v>0</v>
       </c>
-      <c r="P417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>43762</v>
       </c>
@@ -21363,11 +20092,8 @@
       <c r="O418">
         <v>0</v>
       </c>
-      <c r="P418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>43763</v>
       </c>
@@ -21413,11 +20139,8 @@
       <c r="O419">
         <v>0</v>
       </c>
-      <c r="P419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>43764</v>
       </c>
@@ -21463,11 +20186,8 @@
       <c r="O420">
         <v>0</v>
       </c>
-      <c r="P420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>43765</v>
       </c>
@@ -21513,11 +20233,8 @@
       <c r="O421">
         <v>0</v>
       </c>
-      <c r="P421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>43766</v>
       </c>
@@ -21563,11 +20280,8 @@
       <c r="O422">
         <v>0</v>
       </c>
-      <c r="P422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>43767</v>
       </c>
@@ -21613,11 +20327,8 @@
       <c r="O423">
         <v>0</v>
       </c>
-      <c r="P423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>43768</v>
       </c>
@@ -21663,11 +20374,8 @@
       <c r="O424">
         <v>0</v>
       </c>
-      <c r="P424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>43769</v>
       </c>
@@ -21713,11 +20421,8 @@
       <c r="O425">
         <v>0</v>
       </c>
-      <c r="P425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>43770</v>
       </c>
@@ -21763,11 +20468,8 @@
       <c r="O426">
         <v>0</v>
       </c>
-      <c r="P426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>43771</v>
       </c>
@@ -21813,11 +20515,8 @@
       <c r="O427">
         <v>0</v>
       </c>
-      <c r="P427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>43772</v>
       </c>
@@ -21863,11 +20562,8 @@
       <c r="O428">
         <v>0</v>
       </c>
-      <c r="P428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>43773</v>
       </c>
@@ -21913,11 +20609,8 @@
       <c r="O429">
         <v>0</v>
       </c>
-      <c r="P429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>43774</v>
       </c>
@@ -21963,11 +20656,8 @@
       <c r="O430">
         <v>0</v>
       </c>
-      <c r="P430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>43775</v>
       </c>
@@ -22013,11 +20703,8 @@
       <c r="O431">
         <v>0</v>
       </c>
-      <c r="P431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>43776</v>
       </c>
@@ -22063,11 +20750,8 @@
       <c r="O432">
         <v>0</v>
       </c>
-      <c r="P432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>43777</v>
       </c>
@@ -22113,11 +20797,8 @@
       <c r="O433">
         <v>0</v>
       </c>
-      <c r="P433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>43778</v>
       </c>
@@ -22163,11 +20844,8 @@
       <c r="O434">
         <v>0</v>
       </c>
-      <c r="P434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>43779</v>
       </c>
@@ -22213,11 +20891,8 @@
       <c r="O435">
         <v>0</v>
       </c>
-      <c r="P435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>43780</v>
       </c>
@@ -22263,11 +20938,8 @@
       <c r="O436">
         <v>0</v>
       </c>
-      <c r="P436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>43781</v>
       </c>
@@ -22313,11 +20985,8 @@
       <c r="O437">
         <v>0</v>
       </c>
-      <c r="P437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>43782</v>
       </c>
@@ -22363,11 +21032,8 @@
       <c r="O438">
         <v>0</v>
       </c>
-      <c r="P438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>43783</v>
       </c>
@@ -22413,11 +21079,8 @@
       <c r="O439">
         <v>0</v>
       </c>
-      <c r="P439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>43784</v>
       </c>
@@ -22463,11 +21126,8 @@
       <c r="O440">
         <v>0</v>
       </c>
-      <c r="P440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>43785</v>
       </c>
@@ -22513,11 +21173,8 @@
       <c r="O441">
         <v>0</v>
       </c>
-      <c r="P441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>43786</v>
       </c>
@@ -22563,11 +21220,8 @@
       <c r="O442">
         <v>0</v>
       </c>
-      <c r="P442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>43787</v>
       </c>
@@ -22613,11 +21267,8 @@
       <c r="O443">
         <v>0</v>
       </c>
-      <c r="P443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>43788</v>
       </c>
@@ -22663,11 +21314,8 @@
       <c r="O444">
         <v>0</v>
       </c>
-      <c r="P444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>43789</v>
       </c>
@@ -22713,11 +21361,8 @@
       <c r="O445">
         <v>0</v>
       </c>
-      <c r="P445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>43790</v>
       </c>
@@ -22763,11 +21408,8 @@
       <c r="O446">
         <v>0</v>
       </c>
-      <c r="P446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>43791</v>
       </c>
@@ -22813,11 +21455,8 @@
       <c r="O447">
         <v>0</v>
       </c>
-      <c r="P447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>43792</v>
       </c>
@@ -22863,11 +21502,8 @@
       <c r="O448">
         <v>0</v>
       </c>
-      <c r="P448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>43793</v>
       </c>
@@ -22913,11 +21549,8 @@
       <c r="O449">
         <v>0</v>
       </c>
-      <c r="P449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>43794</v>
       </c>
@@ -22963,11 +21596,8 @@
       <c r="O450">
         <v>0</v>
       </c>
-      <c r="P450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>43795</v>
       </c>
@@ -23013,11 +21643,8 @@
       <c r="O451">
         <v>0</v>
       </c>
-      <c r="P451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>43796</v>
       </c>
@@ -23063,11 +21690,8 @@
       <c r="O452">
         <v>0</v>
       </c>
-      <c r="P452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>43797</v>
       </c>
@@ -23113,11 +21737,8 @@
       <c r="O453">
         <v>0</v>
       </c>
-      <c r="P453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>43798</v>
       </c>
@@ -23163,11 +21784,8 @@
       <c r="O454">
         <v>0</v>
       </c>
-      <c r="P454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>43799</v>
       </c>
@@ -23213,11 +21831,8 @@
       <c r="O455">
         <v>0</v>
       </c>
-      <c r="P455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>43800</v>
       </c>
@@ -23263,11 +21878,8 @@
       <c r="O456">
         <v>0</v>
       </c>
-      <c r="P456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>43801</v>
       </c>
@@ -23313,11 +21925,8 @@
       <c r="O457">
         <v>0</v>
       </c>
-      <c r="P457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>43802</v>
       </c>
@@ -23363,11 +21972,8 @@
       <c r="O458">
         <v>0</v>
       </c>
-      <c r="P458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>43803</v>
       </c>
@@ -23413,11 +22019,8 @@
       <c r="O459">
         <v>0</v>
       </c>
-      <c r="P459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>43804</v>
       </c>
@@ -23463,11 +22066,8 @@
       <c r="O460">
         <v>0</v>
       </c>
-      <c r="P460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>43805</v>
       </c>
@@ -23513,11 +22113,8 @@
       <c r="O461">
         <v>0</v>
       </c>
-      <c r="P461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>43806</v>
       </c>
@@ -23563,11 +22160,8 @@
       <c r="O462">
         <v>0</v>
       </c>
-      <c r="P462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>43807</v>
       </c>
@@ -23613,11 +22207,8 @@
       <c r="O463">
         <v>0</v>
       </c>
-      <c r="P463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>43808</v>
       </c>
@@ -23663,11 +22254,8 @@
       <c r="O464">
         <v>0</v>
       </c>
-      <c r="P464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>43809</v>
       </c>
@@ -23713,11 +22301,8 @@
       <c r="O465">
         <v>0</v>
       </c>
-      <c r="P465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>43810</v>
       </c>
@@ -23763,11 +22348,8 @@
       <c r="O466">
         <v>0</v>
       </c>
-      <c r="P466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>43811</v>
       </c>
@@ -23813,11 +22395,8 @@
       <c r="O467">
         <v>0</v>
       </c>
-      <c r="P467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>43812</v>
       </c>
@@ -23863,11 +22442,8 @@
       <c r="O468">
         <v>0</v>
       </c>
-      <c r="P468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>43813</v>
       </c>
@@ -23913,11 +22489,8 @@
       <c r="O469">
         <v>0</v>
       </c>
-      <c r="P469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>43814</v>
       </c>
@@ -23963,11 +22536,8 @@
       <c r="O470">
         <v>0</v>
       </c>
-      <c r="P470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>43815</v>
       </c>
@@ -24013,11 +22583,8 @@
       <c r="O471">
         <v>0</v>
       </c>
-      <c r="P471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>43816</v>
       </c>
@@ -24063,11 +22630,8 @@
       <c r="O472">
         <v>0</v>
       </c>
-      <c r="P472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>43817</v>
       </c>
@@ -24113,11 +22677,8 @@
       <c r="O473">
         <v>0</v>
       </c>
-      <c r="P473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>43818</v>
       </c>
@@ -24163,11 +22724,8 @@
       <c r="O474">
         <v>0</v>
       </c>
-      <c r="P474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>43819</v>
       </c>
@@ -24213,11 +22771,8 @@
       <c r="O475">
         <v>0</v>
       </c>
-      <c r="P475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>43820</v>
       </c>
@@ -24263,11 +22818,8 @@
       <c r="O476">
         <v>0</v>
       </c>
-      <c r="P476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>43821</v>
       </c>
@@ -24313,11 +22865,8 @@
       <c r="O477">
         <v>0</v>
       </c>
-      <c r="P477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>43822</v>
       </c>
@@ -24363,11 +22912,8 @@
       <c r="O478">
         <v>0</v>
       </c>
-      <c r="P478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>43823</v>
       </c>
@@ -24413,11 +22959,8 @@
       <c r="O479">
         <v>0</v>
       </c>
-      <c r="P479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>43824</v>
       </c>
@@ -24463,11 +23006,8 @@
       <c r="O480">
         <v>0</v>
       </c>
-      <c r="P480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>43825</v>
       </c>
@@ -24513,11 +23053,8 @@
       <c r="O481">
         <v>0</v>
       </c>
-      <c r="P481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>43826</v>
       </c>
@@ -24563,11 +23100,8 @@
       <c r="O482">
         <v>0</v>
       </c>
-      <c r="P482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>43827</v>
       </c>
@@ -24613,11 +23147,8 @@
       <c r="O483">
         <v>0</v>
       </c>
-      <c r="P483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>43828</v>
       </c>
@@ -24663,11 +23194,8 @@
       <c r="O484">
         <v>0</v>
       </c>
-      <c r="P484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>43829</v>
       </c>
@@ -24713,11 +23241,8 @@
       <c r="O485">
         <v>0</v>
       </c>
-      <c r="P485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>43830</v>
       </c>
@@ -24763,11 +23288,8 @@
       <c r="O486">
         <v>0</v>
       </c>
-      <c r="P486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>43831</v>
       </c>
@@ -24813,11 +23335,8 @@
       <c r="O487">
         <v>0</v>
       </c>
-      <c r="P487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>43832</v>
       </c>
@@ -24863,11 +23382,8 @@
       <c r="O488">
         <v>0</v>
       </c>
-      <c r="P488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>43833</v>
       </c>
@@ -24913,11 +23429,8 @@
       <c r="O489">
         <v>0</v>
       </c>
-      <c r="P489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>43834</v>
       </c>
@@ -24963,11 +23476,8 @@
       <c r="O490">
         <v>0</v>
       </c>
-      <c r="P490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>43835</v>
       </c>
@@ -25013,11 +23523,8 @@
       <c r="O491">
         <v>0</v>
       </c>
-      <c r="P491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>43836</v>
       </c>
@@ -25063,11 +23570,8 @@
       <c r="O492">
         <v>0</v>
       </c>
-      <c r="P492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>43837</v>
       </c>
@@ -25113,11 +23617,8 @@
       <c r="O493">
         <v>0</v>
       </c>
-      <c r="P493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>43838</v>
       </c>
@@ -25163,11 +23664,8 @@
       <c r="O494">
         <v>0</v>
       </c>
-      <c r="P494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>43839</v>
       </c>
@@ -25213,11 +23711,8 @@
       <c r="O495">
         <v>0</v>
       </c>
-      <c r="P495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>43840</v>
       </c>
@@ -25263,11 +23758,8 @@
       <c r="O496">
         <v>0</v>
       </c>
-      <c r="P496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>43841</v>
       </c>
@@ -25313,11 +23805,8 @@
       <c r="O497">
         <v>0</v>
       </c>
-      <c r="P497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>43842</v>
       </c>
@@ -25363,11 +23852,8 @@
       <c r="O498">
         <v>0</v>
       </c>
-      <c r="P498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>43843</v>
       </c>
@@ -25413,11 +23899,8 @@
       <c r="O499">
         <v>0</v>
       </c>
-      <c r="P499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>43844</v>
       </c>
@@ -25463,11 +23946,8 @@
       <c r="O500">
         <v>0</v>
       </c>
-      <c r="P500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>43845</v>
       </c>
@@ -25513,11 +23993,8 @@
       <c r="O501">
         <v>0</v>
       </c>
-      <c r="P501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>43846</v>
       </c>
@@ -25563,11 +24040,8 @@
       <c r="O502">
         <v>0</v>
       </c>
-      <c r="P502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>43847</v>
       </c>
@@ -25613,11 +24087,8 @@
       <c r="O503">
         <v>0</v>
       </c>
-      <c r="P503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>43848</v>
       </c>
@@ -25663,11 +24134,8 @@
       <c r="O504">
         <v>0</v>
       </c>
-      <c r="P504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>43849</v>
       </c>
@@ -25713,11 +24181,8 @@
       <c r="O505">
         <v>0</v>
       </c>
-      <c r="P505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>43850</v>
       </c>
@@ -25763,11 +24228,8 @@
       <c r="O506">
         <v>0</v>
       </c>
-      <c r="P506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>43851</v>
       </c>
@@ -25813,11 +24275,8 @@
       <c r="O507">
         <v>0</v>
       </c>
-      <c r="P507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>43852</v>
       </c>
@@ -25863,11 +24322,8 @@
       <c r="O508">
         <v>0</v>
       </c>
-      <c r="P508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>43853</v>
       </c>
@@ -25913,11 +24369,8 @@
       <c r="O509">
         <v>0</v>
       </c>
-      <c r="P509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>43854</v>
       </c>
@@ -25963,11 +24416,8 @@
       <c r="O510">
         <v>0</v>
       </c>
-      <c r="P510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>43855</v>
       </c>
@@ -26013,11 +24463,8 @@
       <c r="O511">
         <v>0</v>
       </c>
-      <c r="P511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>43856</v>
       </c>
@@ -26063,11 +24510,8 @@
       <c r="O512">
         <v>0</v>
       </c>
-      <c r="P512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>43857</v>
       </c>
@@ -26113,11 +24557,8 @@
       <c r="O513">
         <v>0</v>
       </c>
-      <c r="P513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>43858</v>
       </c>
@@ -26163,11 +24604,8 @@
       <c r="O514">
         <v>0</v>
       </c>
-      <c r="P514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>43859</v>
       </c>
@@ -26213,11 +24651,8 @@
       <c r="O515">
         <v>0</v>
       </c>
-      <c r="P515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>43860</v>
       </c>
@@ -26263,11 +24698,8 @@
       <c r="O516">
         <v>0</v>
       </c>
-      <c r="P516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>43861</v>
       </c>
@@ -26313,11 +24745,8 @@
       <c r="O517">
         <v>0</v>
       </c>
-      <c r="P517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>43862</v>
       </c>
@@ -26363,11 +24792,8 @@
       <c r="O518">
         <v>0</v>
       </c>
-      <c r="P518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>43863</v>
       </c>
@@ -26413,11 +24839,8 @@
       <c r="O519">
         <v>0</v>
       </c>
-      <c r="P519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>43864</v>
       </c>
@@ -26463,11 +24886,8 @@
       <c r="O520">
         <v>0</v>
       </c>
-      <c r="P520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>43865</v>
       </c>
@@ -26513,11 +24933,8 @@
       <c r="O521">
         <v>0</v>
       </c>
-      <c r="P521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>43866</v>
       </c>
@@ -26563,11 +24980,8 @@
       <c r="O522">
         <v>0</v>
       </c>
-      <c r="P522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>43867</v>
       </c>
@@ -26613,11 +25027,8 @@
       <c r="O523">
         <v>0</v>
       </c>
-      <c r="P523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>43868</v>
       </c>
@@ -26663,11 +25074,8 @@
       <c r="O524">
         <v>0</v>
       </c>
-      <c r="P524">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>43869</v>
       </c>
@@ -26713,11 +25121,8 @@
       <c r="O525">
         <v>0</v>
       </c>
-      <c r="P525">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>43870</v>
       </c>
@@ -26763,11 +25168,8 @@
       <c r="O526">
         <v>0</v>
       </c>
-      <c r="P526">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>43871</v>
       </c>
@@ -26813,11 +25215,8 @@
       <c r="O527">
         <v>0</v>
       </c>
-      <c r="P527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>43872</v>
       </c>
@@ -26863,11 +25262,8 @@
       <c r="O528">
         <v>0</v>
       </c>
-      <c r="P528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>43873</v>
       </c>
@@ -26913,11 +25309,8 @@
       <c r="O529">
         <v>0</v>
       </c>
-      <c r="P529">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>43874</v>
       </c>
@@ -26963,11 +25356,8 @@
       <c r="O530">
         <v>0</v>
       </c>
-      <c r="P530">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>43875</v>
       </c>
@@ -27013,11 +25403,8 @@
       <c r="O531">
         <v>0</v>
       </c>
-      <c r="P531">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>43876</v>
       </c>
@@ -27063,11 +25450,8 @@
       <c r="O532">
         <v>0</v>
       </c>
-      <c r="P532">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>43877</v>
       </c>
@@ -27113,11 +25497,8 @@
       <c r="O533">
         <v>0</v>
       </c>
-      <c r="P533">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>43878</v>
       </c>
@@ -27163,11 +25544,8 @@
       <c r="O534">
         <v>0</v>
       </c>
-      <c r="P534">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>43879</v>
       </c>
@@ -27213,11 +25591,8 @@
       <c r="O535">
         <v>0</v>
       </c>
-      <c r="P535">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>43880</v>
       </c>
@@ -27263,11 +25638,8 @@
       <c r="O536">
         <v>0</v>
       </c>
-      <c r="P536">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>43881</v>
       </c>
@@ -27313,11 +25685,8 @@
       <c r="O537">
         <v>0</v>
       </c>
-      <c r="P537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>43882</v>
       </c>
@@ -27363,11 +25732,8 @@
       <c r="O538">
         <v>0</v>
       </c>
-      <c r="P538">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>43883</v>
       </c>
@@ -27399,7 +25765,7 @@
         <v>0</v>
       </c>
       <c r="K539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L539">
         <v>0</v>
@@ -27413,11 +25779,8 @@
       <c r="O539">
         <v>0</v>
       </c>
-      <c r="P539">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>43884</v>
       </c>
@@ -27449,7 +25812,7 @@
         <v>0</v>
       </c>
       <c r="K540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L540">
         <v>0</v>
@@ -27463,20 +25826,17 @@
       <c r="O540">
         <v>0</v>
       </c>
-      <c r="P540">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
@@ -28114,921 +26474,6 @@
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A757" s="1"/>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A758" s="1"/>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A759" s="1"/>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A760" s="1"/>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A761" s="1"/>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A762" s="1"/>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A763" s="1"/>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A764" s="1"/>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A765" s="1"/>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A766" s="1"/>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A767" s="1"/>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A768" s="1"/>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A769" s="1"/>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A770" s="1"/>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A771" s="1"/>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A772" s="1"/>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A773" s="1"/>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A774" s="1"/>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A775" s="1"/>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A776" s="1"/>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A777" s="1"/>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A778" s="1"/>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A779" s="1"/>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A780" s="1"/>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A781" s="1"/>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A782" s="1"/>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A783" s="1"/>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A784" s="1"/>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A785" s="1"/>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A786" s="1"/>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A787" s="1"/>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A788" s="1"/>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A789" s="1"/>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A790" s="1"/>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A791" s="1"/>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A792" s="1"/>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A793" s="1"/>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A794" s="1"/>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A795" s="1"/>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A796" s="1"/>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A797" s="1"/>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A798" s="1"/>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A799" s="1"/>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A800" s="1"/>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A801" s="1"/>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A802" s="1"/>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A803" s="1"/>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A804" s="1"/>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A805" s="1"/>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A806" s="1"/>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A807" s="1"/>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A808" s="1"/>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A809" s="1"/>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A810" s="1"/>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A811" s="1"/>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A812" s="1"/>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A813" s="1"/>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A814" s="1"/>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A815" s="1"/>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A816" s="1"/>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A817" s="1"/>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A818" s="1"/>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A819" s="1"/>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A820" s="1"/>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A821" s="1"/>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A822" s="1"/>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A823" s="1"/>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A824" s="1"/>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A825" s="1"/>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A826" s="1"/>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A827" s="1"/>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A828" s="1"/>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A829" s="1"/>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A830" s="1"/>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A831" s="1"/>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A832" s="1"/>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A833" s="1"/>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A834" s="1"/>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A835" s="1"/>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A836" s="1"/>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A837" s="1"/>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A838" s="1"/>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A839" s="1"/>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A840" s="1"/>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A841" s="1"/>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A842" s="1"/>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A843" s="1"/>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A844" s="1"/>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A845" s="1"/>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A846" s="1"/>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A847" s="1"/>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A848" s="1"/>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A849" s="1"/>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A850" s="1"/>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A851" s="1"/>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A852" s="1"/>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A853" s="1"/>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A854" s="1"/>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A855" s="1"/>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A856" s="1"/>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A857" s="1"/>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A858" s="1"/>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A859" s="1"/>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A860" s="1"/>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A861" s="1"/>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A862" s="1"/>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A863" s="1"/>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A864" s="1"/>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A865" s="1"/>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A866" s="1"/>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A867" s="1"/>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A868" s="1"/>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A869" s="1"/>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A870" s="1"/>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A871" s="1"/>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A872" s="1"/>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A873" s="1"/>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A874" s="1"/>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A875" s="1"/>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A876" s="1"/>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A877" s="1"/>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A878" s="1"/>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A879" s="1"/>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A880" s="1"/>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A881" s="1"/>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A882" s="1"/>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A883" s="1"/>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A884" s="1"/>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A885" s="1"/>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A886" s="1"/>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A887" s="1"/>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A888" s="1"/>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A889" s="1"/>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A890" s="1"/>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A891" s="1"/>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A892" s="1"/>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A893" s="1"/>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A894" s="1"/>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A895" s="1"/>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A896" s="1"/>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A897" s="1"/>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A898" s="1"/>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A899" s="1"/>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A900" s="1"/>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A901" s="1"/>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A902" s="1"/>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A903" s="1"/>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A904" s="1"/>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A905" s="1"/>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A906" s="1"/>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A907" s="1"/>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A908" s="1"/>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A909" s="1"/>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A910" s="1"/>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A911" s="1"/>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A912" s="1"/>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A913" s="1"/>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A914" s="1"/>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A915" s="1"/>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A916" s="1"/>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A917" s="1"/>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A918" s="1"/>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A919" s="1"/>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A920" s="1"/>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A921" s="1"/>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A922" s="1"/>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A923" s="1"/>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A924" s="1"/>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A925" s="1"/>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A926" s="1"/>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A927" s="1"/>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A928" s="1"/>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A929" s="1"/>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A930" s="1"/>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A931" s="1"/>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A932" s="1"/>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A933" s="1"/>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A934" s="1"/>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A935" s="1"/>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A936" s="1"/>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A937" s="1"/>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A938" s="1"/>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A939" s="1"/>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A940" s="1"/>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A941" s="1"/>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A942" s="1"/>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A943" s="1"/>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A944" s="1"/>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A945" s="1"/>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A946" s="1"/>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A947" s="1"/>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A948" s="1"/>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A949" s="1"/>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A950" s="1"/>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A951" s="1"/>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A952" s="1"/>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A953" s="1"/>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A954" s="1"/>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A955" s="1"/>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A956" s="1"/>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A957" s="1"/>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A958" s="1"/>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A959" s="1"/>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A960" s="1"/>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A961" s="1"/>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A962" s="1"/>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A963" s="1"/>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A964" s="1"/>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A965" s="1"/>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A966" s="1"/>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A967" s="1"/>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A968" s="1"/>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A969" s="1"/>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A970" s="1"/>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A971" s="1"/>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A972" s="1"/>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A973" s="1"/>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A974" s="1"/>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A975" s="1"/>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A976" s="1"/>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A977" s="1"/>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A978" s="1"/>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A979" s="1"/>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A980" s="1"/>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A981" s="1"/>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A982" s="1"/>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A983" s="1"/>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A984" s="1"/>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A985" s="1"/>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A986" s="1"/>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A987" s="1"/>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A988" s="1"/>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A989" s="1"/>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A990" s="1"/>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A991" s="1"/>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A992" s="1"/>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A993" s="1"/>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A994" s="1"/>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A995" s="1"/>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A996" s="1"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A997" s="1"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A998" s="1"/>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A999" s="1"/>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1004" s="1"/>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1006" s="1"/>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1007" s="1"/>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1008" s="1"/>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1009" s="1"/>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1010" s="1"/>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1011" s="1"/>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1012" s="1"/>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1013" s="1"/>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1015" s="1"/>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1016" s="1"/>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1017" s="1"/>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1018" s="1"/>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1019" s="1"/>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1020" s="1"/>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1021" s="1"/>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1022" s="1"/>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1023" s="1"/>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1024" s="1"/>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1032" s="1"/>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1033" s="1"/>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1034" s="1"/>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1035" s="1"/>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1036" s="1"/>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1037" s="1"/>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1038" s="1"/>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1039" s="1"/>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1040" s="1"/>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1041" s="1"/>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1042" s="1"/>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1043" s="1"/>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1044" s="1"/>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1045" s="1"/>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1046" s="1"/>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1047" s="1"/>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048" s="1"/>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1049" s="1"/>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1050" s="1"/>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1051" s="1"/>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1052" s="1"/>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1053" s="1"/>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1054" s="1"/>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1055" s="1"/>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1056" s="1"/>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1057" s="1"/>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1058" s="1"/>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1059" s="1"/>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1060" s="1"/>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1061" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dati aggiuntivi/fest.xlsx
+++ b/Dati aggiuntivi/fest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Desktop\Uni Bicocca\GitHub\Data-Science-Lab\Dati aggiuntivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A97F05-2348-40FB-9001-C0172A41B616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFBE41-302F-4C78-9FB6-B0F17FC256AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5F153A3A-0ED8-42C3-B987-D99E17D7E857}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$O$540</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$540</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>jun2</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>martgrasso</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A51AAD6-2908-4A88-A865-B86B51D9F3A9}">
-  <dimension ref="A1:O756"/>
+  <dimension ref="A1:Q756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +453,7 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +499,14 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43346</v>
       </c>
@@ -540,8 +552,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43347</v>
       </c>
@@ -587,8 +605,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43348</v>
       </c>
@@ -634,8 +658,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43349</v>
       </c>
@@ -681,8 +711,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43350</v>
       </c>
@@ -728,8 +764,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43351</v>
       </c>
@@ -775,8 +817,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43352</v>
       </c>
@@ -822,8 +870,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43353</v>
       </c>
@@ -869,8 +923,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43354</v>
       </c>
@@ -916,8 +976,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43355</v>
       </c>
@@ -963,8 +1029,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43356</v>
       </c>
@@ -1010,8 +1082,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43357</v>
       </c>
@@ -1057,8 +1135,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43358</v>
       </c>
@@ -1104,8 +1188,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43359</v>
       </c>
@@ -1151,8 +1241,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43360</v>
       </c>
@@ -1198,8 +1294,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43361</v>
       </c>
@@ -1245,8 +1347,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43362</v>
       </c>
@@ -1292,8 +1400,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43363</v>
       </c>
@@ -1339,8 +1453,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43364</v>
       </c>
@@ -1386,8 +1506,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43365</v>
       </c>
@@ -1433,8 +1559,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43366</v>
       </c>
@@ -1480,8 +1612,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43367</v>
       </c>
@@ -1527,8 +1665,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43368</v>
       </c>
@@ -1574,8 +1718,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43369</v>
       </c>
@@ -1621,8 +1771,14 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43370</v>
       </c>
@@ -1668,8 +1824,14 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43371</v>
       </c>
@@ -1715,8 +1877,14 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43372</v>
       </c>
@@ -1762,8 +1930,14 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43373</v>
       </c>
@@ -1809,8 +1983,14 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43374</v>
       </c>
@@ -1856,8 +2036,14 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43375</v>
       </c>
@@ -1903,8 +2089,14 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43376</v>
       </c>
@@ -1950,8 +2142,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43377</v>
       </c>
@@ -1997,8 +2195,14 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43378</v>
       </c>
@@ -2044,8 +2248,14 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43379</v>
       </c>
@@ -2091,8 +2301,14 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43380</v>
       </c>
@@ -2138,8 +2354,14 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43381</v>
       </c>
@@ -2185,8 +2407,14 @@
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43382</v>
       </c>
@@ -2232,8 +2460,14 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43383</v>
       </c>
@@ -2279,8 +2513,14 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43384</v>
       </c>
@@ -2326,8 +2566,14 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43385</v>
       </c>
@@ -2373,8 +2619,14 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43386</v>
       </c>
@@ -2420,8 +2672,14 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43387</v>
       </c>
@@ -2467,8 +2725,14 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43388</v>
       </c>
@@ -2514,8 +2778,14 @@
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43389</v>
       </c>
@@ -2561,8 +2831,14 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43390</v>
       </c>
@@ -2608,8 +2884,14 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43391</v>
       </c>
@@ -2655,8 +2937,14 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43392</v>
       </c>
@@ -2702,8 +2990,14 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43393</v>
       </c>
@@ -2749,8 +3043,14 @@
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43394</v>
       </c>
@@ -2796,8 +3096,14 @@
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43395</v>
       </c>
@@ -2843,8 +3149,14 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43396</v>
       </c>
@@ -2890,8 +3202,14 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43397</v>
       </c>
@@ -2937,8 +3255,14 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43398</v>
       </c>
@@ -2984,8 +3308,14 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43399</v>
       </c>
@@ -3031,8 +3361,14 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43400</v>
       </c>
@@ -3078,8 +3414,14 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43401</v>
       </c>
@@ -3125,8 +3467,14 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43402</v>
       </c>
@@ -3172,8 +3520,14 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43403</v>
       </c>
@@ -3219,8 +3573,14 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43404</v>
       </c>
@@ -3266,8 +3626,14 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43405</v>
       </c>
@@ -3313,8 +3679,14 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43406</v>
       </c>
@@ -3360,8 +3732,14 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43407</v>
       </c>
@@ -3407,8 +3785,14 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43408</v>
       </c>
@@ -3454,8 +3838,14 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43409</v>
       </c>
@@ -3501,8 +3891,14 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43410</v>
       </c>
@@ -3548,8 +3944,14 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43411</v>
       </c>
@@ -3595,8 +3997,14 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43412</v>
       </c>
@@ -3642,8 +4050,14 @@
       <c r="O68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43413</v>
       </c>
@@ -3689,8 +4103,14 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43414</v>
       </c>
@@ -3736,8 +4156,14 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43415</v>
       </c>
@@ -3783,8 +4209,14 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43416</v>
       </c>
@@ -3830,8 +4262,14 @@
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43417</v>
       </c>
@@ -3877,8 +4315,14 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43418</v>
       </c>
@@ -3924,8 +4368,14 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43419</v>
       </c>
@@ -3971,8 +4421,14 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43420</v>
       </c>
@@ -4018,8 +4474,14 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43421</v>
       </c>
@@ -4065,8 +4527,14 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43422</v>
       </c>
@@ -4112,8 +4580,14 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43423</v>
       </c>
@@ -4159,8 +4633,14 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43424</v>
       </c>
@@ -4206,8 +4686,14 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43425</v>
       </c>
@@ -4253,8 +4739,14 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43426</v>
       </c>
@@ -4300,8 +4792,14 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43427</v>
       </c>
@@ -4347,8 +4845,14 @@
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43428</v>
       </c>
@@ -4394,8 +4898,14 @@
       <c r="O84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43429</v>
       </c>
@@ -4441,8 +4951,14 @@
       <c r="O85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43430</v>
       </c>
@@ -4488,8 +5004,14 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43431</v>
       </c>
@@ -4535,8 +5057,14 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43432</v>
       </c>
@@ -4582,8 +5110,14 @@
       <c r="O88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43433</v>
       </c>
@@ -4629,8 +5163,14 @@
       <c r="O89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43434</v>
       </c>
@@ -4676,8 +5216,14 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43435</v>
       </c>
@@ -4723,8 +5269,14 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43436</v>
       </c>
@@ -4770,8 +5322,14 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43437</v>
       </c>
@@ -4817,8 +5375,14 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43438</v>
       </c>
@@ -4864,8 +5428,14 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43439</v>
       </c>
@@ -4911,8 +5481,14 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43440</v>
       </c>
@@ -4958,8 +5534,14 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43441</v>
       </c>
@@ -5005,8 +5587,14 @@
       <c r="O97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43442</v>
       </c>
@@ -5052,8 +5640,14 @@
       <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43443</v>
       </c>
@@ -5099,8 +5693,14 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43444</v>
       </c>
@@ -5146,8 +5746,14 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43445</v>
       </c>
@@ -5193,8 +5799,14 @@
       <c r="O101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43446</v>
       </c>
@@ -5240,8 +5852,14 @@
       <c r="O102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43447</v>
       </c>
@@ -5287,8 +5905,14 @@
       <c r="O103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43448</v>
       </c>
@@ -5334,8 +5958,14 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43449</v>
       </c>
@@ -5381,8 +6011,14 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43450</v>
       </c>
@@ -5428,8 +6064,14 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43451</v>
       </c>
@@ -5475,8 +6117,14 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43452</v>
       </c>
@@ -5522,8 +6170,14 @@
       <c r="O108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43453</v>
       </c>
@@ -5569,8 +6223,14 @@
       <c r="O109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43454</v>
       </c>
@@ -5616,8 +6276,14 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43455</v>
       </c>
@@ -5663,8 +6329,14 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43456</v>
       </c>
@@ -5710,8 +6382,14 @@
       <c r="O112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43457</v>
       </c>
@@ -5757,8 +6435,14 @@
       <c r="O113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43458</v>
       </c>
@@ -5804,8 +6488,14 @@
       <c r="O114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43459</v>
       </c>
@@ -5851,8 +6541,14 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43460</v>
       </c>
@@ -5898,8 +6594,14 @@
       <c r="O116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43461</v>
       </c>
@@ -5945,8 +6647,14 @@
       <c r="O117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43462</v>
       </c>
@@ -5992,8 +6700,14 @@
       <c r="O118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43463</v>
       </c>
@@ -6039,8 +6753,14 @@
       <c r="O119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43464</v>
       </c>
@@ -6086,8 +6806,14 @@
       <c r="O120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43465</v>
       </c>
@@ -6133,8 +6859,14 @@
       <c r="O121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43466</v>
       </c>
@@ -6180,8 +6912,14 @@
       <c r="O122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43467</v>
       </c>
@@ -6227,8 +6965,14 @@
       <c r="O123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43468</v>
       </c>
@@ -6274,8 +7018,14 @@
       <c r="O124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43469</v>
       </c>
@@ -6321,8 +7071,14 @@
       <c r="O125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43470</v>
       </c>
@@ -6368,8 +7124,14 @@
       <c r="O126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43471</v>
       </c>
@@ -6415,8 +7177,14 @@
       <c r="O127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43472</v>
       </c>
@@ -6462,8 +7230,14 @@
       <c r="O128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43473</v>
       </c>
@@ -6509,8 +7283,14 @@
       <c r="O129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43474</v>
       </c>
@@ -6556,8 +7336,14 @@
       <c r="O130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43475</v>
       </c>
@@ -6603,8 +7389,14 @@
       <c r="O131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43476</v>
       </c>
@@ -6650,8 +7442,14 @@
       <c r="O132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43477</v>
       </c>
@@ -6697,8 +7495,14 @@
       <c r="O133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43478</v>
       </c>
@@ -6744,8 +7548,14 @@
       <c r="O134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43479</v>
       </c>
@@ -6791,8 +7601,14 @@
       <c r="O135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43480</v>
       </c>
@@ -6838,8 +7654,14 @@
       <c r="O136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43481</v>
       </c>
@@ -6885,8 +7707,14 @@
       <c r="O137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43482</v>
       </c>
@@ -6932,8 +7760,14 @@
       <c r="O138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43483</v>
       </c>
@@ -6979,8 +7813,14 @@
       <c r="O139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43484</v>
       </c>
@@ -7026,8 +7866,14 @@
       <c r="O140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43485</v>
       </c>
@@ -7073,8 +7919,14 @@
       <c r="O141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43486</v>
       </c>
@@ -7120,8 +7972,14 @@
       <c r="O142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43487</v>
       </c>
@@ -7167,8 +8025,14 @@
       <c r="O143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43488</v>
       </c>
@@ -7214,8 +8078,14 @@
       <c r="O144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43489</v>
       </c>
@@ -7261,8 +8131,14 @@
       <c r="O145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43490</v>
       </c>
@@ -7308,8 +8184,14 @@
       <c r="O146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43491</v>
       </c>
@@ -7355,8 +8237,14 @@
       <c r="O147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43492</v>
       </c>
@@ -7402,8 +8290,14 @@
       <c r="O148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43493</v>
       </c>
@@ -7449,8 +8343,14 @@
       <c r="O149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43494</v>
       </c>
@@ -7496,8 +8396,14 @@
       <c r="O150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43495</v>
       </c>
@@ -7543,8 +8449,14 @@
       <c r="O151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43496</v>
       </c>
@@ -7590,8 +8502,14 @@
       <c r="O152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43497</v>
       </c>
@@ -7637,8 +8555,14 @@
       <c r="O153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43498</v>
       </c>
@@ -7684,8 +8608,14 @@
       <c r="O154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43499</v>
       </c>
@@ -7731,8 +8661,14 @@
       <c r="O155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43500</v>
       </c>
@@ -7778,8 +8714,14 @@
       <c r="O156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43501</v>
       </c>
@@ -7825,8 +8767,14 @@
       <c r="O157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43502</v>
       </c>
@@ -7872,8 +8820,14 @@
       <c r="O158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43503</v>
       </c>
@@ -7919,8 +8873,14 @@
       <c r="O159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43504</v>
       </c>
@@ -7966,8 +8926,14 @@
       <c r="O160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43505</v>
       </c>
@@ -8013,8 +8979,14 @@
       <c r="O161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43506</v>
       </c>
@@ -8060,8 +9032,14 @@
       <c r="O162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43507</v>
       </c>
@@ -8107,8 +9085,14 @@
       <c r="O163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43508</v>
       </c>
@@ -8154,8 +9138,14 @@
       <c r="O164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43509</v>
       </c>
@@ -8201,8 +9191,14 @@
       <c r="O165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43510</v>
       </c>
@@ -8248,8 +9244,14 @@
       <c r="O166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43511</v>
       </c>
@@ -8295,8 +9297,14 @@
       <c r="O167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43512</v>
       </c>
@@ -8342,8 +9350,14 @@
       <c r="O168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43513</v>
       </c>
@@ -8389,8 +9403,14 @@
       <c r="O169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43514</v>
       </c>
@@ -8436,8 +9456,14 @@
       <c r="O170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43515</v>
       </c>
@@ -8483,8 +9509,14 @@
       <c r="O171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43516</v>
       </c>
@@ -8530,8 +9562,14 @@
       <c r="O172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43517</v>
       </c>
@@ -8577,8 +9615,14 @@
       <c r="O173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43518</v>
       </c>
@@ -8624,8 +9668,14 @@
       <c r="O174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43519</v>
       </c>
@@ -8671,8 +9721,14 @@
       <c r="O175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43520</v>
       </c>
@@ -8718,8 +9774,14 @@
       <c r="O176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43521</v>
       </c>
@@ -8765,8 +9827,14 @@
       <c r="O177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43522</v>
       </c>
@@ -8812,8 +9880,14 @@
       <c r="O178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43523</v>
       </c>
@@ -8859,8 +9933,14 @@
       <c r="O179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43524</v>
       </c>
@@ -8906,8 +9986,14 @@
       <c r="O180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43525</v>
       </c>
@@ -8953,8 +10039,14 @@
       <c r="O181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43526</v>
       </c>
@@ -9000,8 +10092,14 @@
       <c r="O182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43527</v>
       </c>
@@ -9047,8 +10145,14 @@
       <c r="O183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43528</v>
       </c>
@@ -9094,8 +10198,14 @@
       <c r="O184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43529</v>
       </c>
@@ -9141,8 +10251,14 @@
       <c r="O185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43530</v>
       </c>
@@ -9188,8 +10304,14 @@
       <c r="O186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43531</v>
       </c>
@@ -9235,8 +10357,14 @@
       <c r="O187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43532</v>
       </c>
@@ -9282,8 +10410,14 @@
       <c r="O188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43533</v>
       </c>
@@ -9329,8 +10463,14 @@
       <c r="O189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43534</v>
       </c>
@@ -9376,8 +10516,14 @@
       <c r="O190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43535</v>
       </c>
@@ -9423,8 +10569,14 @@
       <c r="O191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43536</v>
       </c>
@@ -9470,8 +10622,14 @@
       <c r="O192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43537</v>
       </c>
@@ -9517,8 +10675,14 @@
       <c r="O193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43538</v>
       </c>
@@ -9564,8 +10728,14 @@
       <c r="O194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43539</v>
       </c>
@@ -9611,8 +10781,14 @@
       <c r="O195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43540</v>
       </c>
@@ -9658,8 +10834,14 @@
       <c r="O196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43541</v>
       </c>
@@ -9705,8 +10887,14 @@
       <c r="O197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43542</v>
       </c>
@@ -9752,8 +10940,14 @@
       <c r="O198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43543</v>
       </c>
@@ -9799,8 +10993,14 @@
       <c r="O199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43544</v>
       </c>
@@ -9846,8 +11046,14 @@
       <c r="O200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>43545</v>
       </c>
@@ -9893,8 +11099,14 @@
       <c r="O201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>43546</v>
       </c>
@@ -9940,8 +11152,14 @@
       <c r="O202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43547</v>
       </c>
@@ -9987,8 +11205,14 @@
       <c r="O203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43548</v>
       </c>
@@ -10034,8 +11258,14 @@
       <c r="O204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43549</v>
       </c>
@@ -10081,8 +11311,14 @@
       <c r="O205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43550</v>
       </c>
@@ -10128,8 +11364,14 @@
       <c r="O206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43551</v>
       </c>
@@ -10175,8 +11417,14 @@
       <c r="O207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43552</v>
       </c>
@@ -10222,8 +11470,14 @@
       <c r="O208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43553</v>
       </c>
@@ -10269,8 +11523,14 @@
       <c r="O209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43554</v>
       </c>
@@ -10316,8 +11576,14 @@
       <c r="O210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43555</v>
       </c>
@@ -10363,8 +11629,14 @@
       <c r="O211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43556</v>
       </c>
@@ -10410,8 +11682,14 @@
       <c r="O212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43557</v>
       </c>
@@ -10457,8 +11735,14 @@
       <c r="O213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43558</v>
       </c>
@@ -10504,8 +11788,14 @@
       <c r="O214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43559</v>
       </c>
@@ -10551,8 +11841,14 @@
       <c r="O215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43560</v>
       </c>
@@ -10598,8 +11894,14 @@
       <c r="O216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43561</v>
       </c>
@@ -10645,8 +11947,14 @@
       <c r="O217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43562</v>
       </c>
@@ -10692,8 +12000,14 @@
       <c r="O218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43563</v>
       </c>
@@ -10739,8 +12053,14 @@
       <c r="O219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43564</v>
       </c>
@@ -10786,8 +12106,14 @@
       <c r="O220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43565</v>
       </c>
@@ -10833,8 +12159,14 @@
       <c r="O221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>43566</v>
       </c>
@@ -10880,8 +12212,14 @@
       <c r="O222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>43567</v>
       </c>
@@ -10927,8 +12265,14 @@
       <c r="O223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>43568</v>
       </c>
@@ -10974,8 +12318,14 @@
       <c r="O224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>43569</v>
       </c>
@@ -11021,8 +12371,14 @@
       <c r="O225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>43570</v>
       </c>
@@ -11068,8 +12424,14 @@
       <c r="O226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>43571</v>
       </c>
@@ -11115,8 +12477,14 @@
       <c r="O227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>43572</v>
       </c>
@@ -11162,8 +12530,14 @@
       <c r="O228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>43573</v>
       </c>
@@ -11209,8 +12583,14 @@
       <c r="O229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>43574</v>
       </c>
@@ -11256,8 +12636,14 @@
       <c r="O230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>43575</v>
       </c>
@@ -11303,8 +12689,14 @@
       <c r="O231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>43576</v>
       </c>
@@ -11350,8 +12742,14 @@
       <c r="O232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>43577</v>
       </c>
@@ -11397,8 +12795,14 @@
       <c r="O233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>43578</v>
       </c>
@@ -11444,8 +12848,14 @@
       <c r="O234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>43579</v>
       </c>
@@ -11491,8 +12901,14 @@
       <c r="O235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>43580</v>
       </c>
@@ -11538,8 +12954,14 @@
       <c r="O236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>43581</v>
       </c>
@@ -11585,8 +13007,14 @@
       <c r="O237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>43582</v>
       </c>
@@ -11632,8 +13060,14 @@
       <c r="O238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>43583</v>
       </c>
@@ -11679,8 +13113,14 @@
       <c r="O239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>43584</v>
       </c>
@@ -11726,8 +13166,14 @@
       <c r="O240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>43585</v>
       </c>
@@ -11773,8 +13219,14 @@
       <c r="O241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>43586</v>
       </c>
@@ -11820,8 +13272,14 @@
       <c r="O242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>43587</v>
       </c>
@@ -11867,8 +13325,14 @@
       <c r="O243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>43588</v>
       </c>
@@ -11914,8 +13378,14 @@
       <c r="O244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>43589</v>
       </c>
@@ -11961,8 +13431,14 @@
       <c r="O245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>43590</v>
       </c>
@@ -12008,8 +13484,14 @@
       <c r="O246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>43591</v>
       </c>
@@ -12055,8 +13537,14 @@
       <c r="O247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>43592</v>
       </c>
@@ -12102,8 +13590,14 @@
       <c r="O248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>43593</v>
       </c>
@@ -12149,8 +13643,14 @@
       <c r="O249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>43594</v>
       </c>
@@ -12196,8 +13696,14 @@
       <c r="O250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>43595</v>
       </c>
@@ -12243,8 +13749,14 @@
       <c r="O251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>43596</v>
       </c>
@@ -12290,8 +13802,14 @@
       <c r="O252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>43597</v>
       </c>
@@ -12337,8 +13855,14 @@
       <c r="O253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>43598</v>
       </c>
@@ -12384,8 +13908,14 @@
       <c r="O254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>43599</v>
       </c>
@@ -12431,8 +13961,14 @@
       <c r="O255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>43600</v>
       </c>
@@ -12478,8 +14014,14 @@
       <c r="O256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>43601</v>
       </c>
@@ -12525,8 +14067,14 @@
       <c r="O257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>43602</v>
       </c>
@@ -12572,8 +14120,14 @@
       <c r="O258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>43603</v>
       </c>
@@ -12619,8 +14173,14 @@
       <c r="O259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>43604</v>
       </c>
@@ -12666,8 +14226,14 @@
       <c r="O260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>43605</v>
       </c>
@@ -12713,8 +14279,14 @@
       <c r="O261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>43606</v>
       </c>
@@ -12760,8 +14332,14 @@
       <c r="O262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>43607</v>
       </c>
@@ -12807,8 +14385,14 @@
       <c r="O263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>43608</v>
       </c>
@@ -12854,8 +14438,14 @@
       <c r="O264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>43609</v>
       </c>
@@ -12901,8 +14491,14 @@
       <c r="O265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>43610</v>
       </c>
@@ -12948,8 +14544,14 @@
       <c r="O266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>43611</v>
       </c>
@@ -12995,8 +14597,14 @@
       <c r="O267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>43612</v>
       </c>
@@ -13042,8 +14650,14 @@
       <c r="O268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>43613</v>
       </c>
@@ -13089,8 +14703,14 @@
       <c r="O269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>43614</v>
       </c>
@@ -13136,8 +14756,14 @@
       <c r="O270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>43615</v>
       </c>
@@ -13183,8 +14809,14 @@
       <c r="O271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>43616</v>
       </c>
@@ -13230,8 +14862,14 @@
       <c r="O272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>43617</v>
       </c>
@@ -13277,8 +14915,14 @@
       <c r="O273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>43618</v>
       </c>
@@ -13324,8 +14968,14 @@
       <c r="O274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>43619</v>
       </c>
@@ -13371,8 +15021,14 @@
       <c r="O275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>43620</v>
       </c>
@@ -13418,8 +15074,14 @@
       <c r="O276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>43621</v>
       </c>
@@ -13465,8 +15127,14 @@
       <c r="O277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>43622</v>
       </c>
@@ -13512,8 +15180,14 @@
       <c r="O278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>43623</v>
       </c>
@@ -13559,8 +15233,14 @@
       <c r="O279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>43624</v>
       </c>
@@ -13606,8 +15286,14 @@
       <c r="O280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>43625</v>
       </c>
@@ -13653,8 +15339,14 @@
       <c r="O281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P281">
+        <v>0</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>43626</v>
       </c>
@@ -13700,8 +15392,14 @@
       <c r="O282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P282">
+        <v>0</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>43627</v>
       </c>
@@ -13747,8 +15445,14 @@
       <c r="O283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P283">
+        <v>0</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>43628</v>
       </c>
@@ -13794,8 +15498,14 @@
       <c r="O284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P284">
+        <v>0</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>43629</v>
       </c>
@@ -13841,8 +15551,14 @@
       <c r="O285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P285">
+        <v>0</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>43630</v>
       </c>
@@ -13888,8 +15604,14 @@
       <c r="O286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P286">
+        <v>0</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>43631</v>
       </c>
@@ -13935,8 +15657,14 @@
       <c r="O287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P287">
+        <v>0</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>43632</v>
       </c>
@@ -13982,8 +15710,14 @@
       <c r="O288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P288">
+        <v>0</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>43633</v>
       </c>
@@ -14029,8 +15763,14 @@
       <c r="O289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P289">
+        <v>0</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>43634</v>
       </c>
@@ -14076,8 +15816,14 @@
       <c r="O290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P290">
+        <v>0</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>43635</v>
       </c>
@@ -14123,8 +15869,14 @@
       <c r="O291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P291">
+        <v>0</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>43636</v>
       </c>
@@ -14170,8 +15922,14 @@
       <c r="O292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P292">
+        <v>0</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>43637</v>
       </c>
@@ -14217,8 +15975,14 @@
       <c r="O293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P293">
+        <v>0</v>
+      </c>
+      <c r="Q293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>43638</v>
       </c>
@@ -14264,8 +16028,14 @@
       <c r="O294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P294">
+        <v>0</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>43639</v>
       </c>
@@ -14311,8 +16081,14 @@
       <c r="O295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P295">
+        <v>0</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>43640</v>
       </c>
@@ -14358,8 +16134,14 @@
       <c r="O296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P296">
+        <v>0</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>43641</v>
       </c>
@@ -14405,8 +16187,14 @@
       <c r="O297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>43642</v>
       </c>
@@ -14452,8 +16240,14 @@
       <c r="O298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>43643</v>
       </c>
@@ -14499,8 +16293,14 @@
       <c r="O299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P299">
+        <v>0</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>43644</v>
       </c>
@@ -14546,8 +16346,14 @@
       <c r="O300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P300">
+        <v>0</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>43645</v>
       </c>
@@ -14593,8 +16399,14 @@
       <c r="O301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>43646</v>
       </c>
@@ -14640,8 +16452,14 @@
       <c r="O302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P302">
+        <v>0</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>43647</v>
       </c>
@@ -14687,8 +16505,14 @@
       <c r="O303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P303">
+        <v>0</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>43648</v>
       </c>
@@ -14734,8 +16558,14 @@
       <c r="O304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>43649</v>
       </c>
@@ -14781,8 +16611,14 @@
       <c r="O305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P305">
+        <v>0</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>43650</v>
       </c>
@@ -14828,8 +16664,14 @@
       <c r="O306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P306">
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>43651</v>
       </c>
@@ -14875,8 +16717,14 @@
       <c r="O307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P307">
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>43652</v>
       </c>
@@ -14922,8 +16770,14 @@
       <c r="O308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P308">
+        <v>0</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>43653</v>
       </c>
@@ -14969,8 +16823,14 @@
       <c r="O309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P309">
+        <v>0</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>43654</v>
       </c>
@@ -15016,8 +16876,14 @@
       <c r="O310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P310">
+        <v>0</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>43655</v>
       </c>
@@ -15063,8 +16929,14 @@
       <c r="O311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P311">
+        <v>0</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>43656</v>
       </c>
@@ -15110,8 +16982,14 @@
       <c r="O312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P312">
+        <v>0</v>
+      </c>
+      <c r="Q312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>43657</v>
       </c>
@@ -15157,8 +17035,14 @@
       <c r="O313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P313">
+        <v>0</v>
+      </c>
+      <c r="Q313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>43658</v>
       </c>
@@ -15204,8 +17088,14 @@
       <c r="O314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P314">
+        <v>0</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>43659</v>
       </c>
@@ -15251,8 +17141,14 @@
       <c r="O315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P315">
+        <v>0</v>
+      </c>
+      <c r="Q315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>43660</v>
       </c>
@@ -15298,8 +17194,14 @@
       <c r="O316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P316">
+        <v>0</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>43661</v>
       </c>
@@ -15345,8 +17247,14 @@
       <c r="O317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P317">
+        <v>0</v>
+      </c>
+      <c r="Q317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>43662</v>
       </c>
@@ -15392,8 +17300,14 @@
       <c r="O318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P318">
+        <v>0</v>
+      </c>
+      <c r="Q318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>43663</v>
       </c>
@@ -15439,8 +17353,14 @@
       <c r="O319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P319">
+        <v>0</v>
+      </c>
+      <c r="Q319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>43664</v>
       </c>
@@ -15486,8 +17406,14 @@
       <c r="O320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P320">
+        <v>0</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>43665</v>
       </c>
@@ -15533,8 +17459,14 @@
       <c r="O321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P321">
+        <v>0</v>
+      </c>
+      <c r="Q321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>43666</v>
       </c>
@@ -15580,8 +17512,14 @@
       <c r="O322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P322">
+        <v>0</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>43667</v>
       </c>
@@ -15627,8 +17565,14 @@
       <c r="O323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P323">
+        <v>0</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>43668</v>
       </c>
@@ -15674,8 +17618,14 @@
       <c r="O324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P324">
+        <v>0</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>43669</v>
       </c>
@@ -15721,8 +17671,14 @@
       <c r="O325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P325">
+        <v>0</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>43670</v>
       </c>
@@ -15768,8 +17724,14 @@
       <c r="O326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P326">
+        <v>0</v>
+      </c>
+      <c r="Q326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>43671</v>
       </c>
@@ -15815,8 +17777,14 @@
       <c r="O327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P327">
+        <v>0</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>43672</v>
       </c>
@@ -15862,8 +17830,14 @@
       <c r="O328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P328">
+        <v>0</v>
+      </c>
+      <c r="Q328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>43673</v>
       </c>
@@ -15909,8 +17883,14 @@
       <c r="O329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P329">
+        <v>0</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>43674</v>
       </c>
@@ -15956,8 +17936,14 @@
       <c r="O330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P330">
+        <v>0</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>43675</v>
       </c>
@@ -16003,8 +17989,14 @@
       <c r="O331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P331">
+        <v>0</v>
+      </c>
+      <c r="Q331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>43676</v>
       </c>
@@ -16050,8 +18042,14 @@
       <c r="O332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P332">
+        <v>0</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>43677</v>
       </c>
@@ -16097,8 +18095,14 @@
       <c r="O333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P333">
+        <v>0</v>
+      </c>
+      <c r="Q333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>43678</v>
       </c>
@@ -16144,8 +18148,14 @@
       <c r="O334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P334">
+        <v>0</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>43679</v>
       </c>
@@ -16191,8 +18201,14 @@
       <c r="O335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P335">
+        <v>0</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>43680</v>
       </c>
@@ -16238,8 +18254,14 @@
       <c r="O336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P336">
+        <v>0</v>
+      </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>43681</v>
       </c>
@@ -16285,8 +18307,14 @@
       <c r="O337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P337">
+        <v>0</v>
+      </c>
+      <c r="Q337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>43682</v>
       </c>
@@ -16332,8 +18360,14 @@
       <c r="O338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P338">
+        <v>0</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>43683</v>
       </c>
@@ -16379,8 +18413,14 @@
       <c r="O339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P339">
+        <v>0</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>43684</v>
       </c>
@@ -16426,8 +18466,14 @@
       <c r="O340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P340">
+        <v>0</v>
+      </c>
+      <c r="Q340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>43685</v>
       </c>
@@ -16473,8 +18519,14 @@
       <c r="O341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P341">
+        <v>0</v>
+      </c>
+      <c r="Q341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>43686</v>
       </c>
@@ -16520,8 +18572,14 @@
       <c r="O342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P342">
+        <v>0</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>43687</v>
       </c>
@@ -16567,8 +18625,14 @@
       <c r="O343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P343">
+        <v>0</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>43688</v>
       </c>
@@ -16614,8 +18678,14 @@
       <c r="O344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P344">
+        <v>0</v>
+      </c>
+      <c r="Q344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>43689</v>
       </c>
@@ -16661,8 +18731,14 @@
       <c r="O345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P345">
+        <v>0</v>
+      </c>
+      <c r="Q345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>43690</v>
       </c>
@@ -16708,8 +18784,14 @@
       <c r="O346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P346">
+        <v>0</v>
+      </c>
+      <c r="Q346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>43691</v>
       </c>
@@ -16755,8 +18837,14 @@
       <c r="O347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P347">
+        <v>0</v>
+      </c>
+      <c r="Q347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>43692</v>
       </c>
@@ -16802,8 +18890,14 @@
       <c r="O348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P348">
+        <v>0</v>
+      </c>
+      <c r="Q348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>43693</v>
       </c>
@@ -16849,8 +18943,14 @@
       <c r="O349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P349">
+        <v>0</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>43694</v>
       </c>
@@ -16896,8 +18996,14 @@
       <c r="O350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P350">
+        <v>0</v>
+      </c>
+      <c r="Q350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>43695</v>
       </c>
@@ -16943,8 +19049,14 @@
       <c r="O351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P351">
+        <v>0</v>
+      </c>
+      <c r="Q351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>43696</v>
       </c>
@@ -16990,8 +19102,14 @@
       <c r="O352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P352">
+        <v>0</v>
+      </c>
+      <c r="Q352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>43697</v>
       </c>
@@ -17037,8 +19155,14 @@
       <c r="O353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P353">
+        <v>0</v>
+      </c>
+      <c r="Q353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>43698</v>
       </c>
@@ -17084,8 +19208,14 @@
       <c r="O354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P354">
+        <v>0</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>43699</v>
       </c>
@@ -17131,8 +19261,14 @@
       <c r="O355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P355">
+        <v>0</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>43700</v>
       </c>
@@ -17178,8 +19314,14 @@
       <c r="O356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P356">
+        <v>0</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>43701</v>
       </c>
@@ -17225,8 +19367,14 @@
       <c r="O357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P357">
+        <v>0</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>43702</v>
       </c>
@@ -17272,8 +19420,14 @@
       <c r="O358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P358">
+        <v>0</v>
+      </c>
+      <c r="Q358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>43703</v>
       </c>
@@ -17319,8 +19473,14 @@
       <c r="O359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P359">
+        <v>0</v>
+      </c>
+      <c r="Q359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>43704</v>
       </c>
@@ -17366,8 +19526,14 @@
       <c r="O360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P360">
+        <v>0</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>43705</v>
       </c>
@@ -17413,8 +19579,14 @@
       <c r="O361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P361">
+        <v>0</v>
+      </c>
+      <c r="Q361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>43706</v>
       </c>
@@ -17460,8 +19632,14 @@
       <c r="O362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P362">
+        <v>0</v>
+      </c>
+      <c r="Q362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>43707</v>
       </c>
@@ -17507,8 +19685,14 @@
       <c r="O363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P363">
+        <v>0</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>43708</v>
       </c>
@@ -17554,8 +19738,14 @@
       <c r="O364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P364">
+        <v>0</v>
+      </c>
+      <c r="Q364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>43709</v>
       </c>
@@ -17601,8 +19791,14 @@
       <c r="O365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P365">
+        <v>0</v>
+      </c>
+      <c r="Q365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>43710</v>
       </c>
@@ -17648,8 +19844,14 @@
       <c r="O366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P366">
+        <v>0</v>
+      </c>
+      <c r="Q366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>43711</v>
       </c>
@@ -17695,8 +19897,14 @@
       <c r="O367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P367">
+        <v>0</v>
+      </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>43712</v>
       </c>
@@ -17742,8 +19950,14 @@
       <c r="O368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P368">
+        <v>0</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>43713</v>
       </c>
@@ -17789,8 +20003,14 @@
       <c r="O369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P369">
+        <v>0</v>
+      </c>
+      <c r="Q369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>43714</v>
       </c>
@@ -17836,8 +20056,14 @@
       <c r="O370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P370">
+        <v>0</v>
+      </c>
+      <c r="Q370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>43715</v>
       </c>
@@ -17883,8 +20109,14 @@
       <c r="O371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P371">
+        <v>0</v>
+      </c>
+      <c r="Q371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>43716</v>
       </c>
@@ -17930,8 +20162,14 @@
       <c r="O372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P372">
+        <v>0</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>43717</v>
       </c>
@@ -17977,8 +20215,14 @@
       <c r="O373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P373">
+        <v>0</v>
+      </c>
+      <c r="Q373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>43718</v>
       </c>
@@ -18024,8 +20268,14 @@
       <c r="O374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P374">
+        <v>0</v>
+      </c>
+      <c r="Q374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>43719</v>
       </c>
@@ -18071,8 +20321,14 @@
       <c r="O375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P375">
+        <v>0</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>43720</v>
       </c>
@@ -18118,8 +20374,14 @@
       <c r="O376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P376">
+        <v>0</v>
+      </c>
+      <c r="Q376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>43721</v>
       </c>
@@ -18165,8 +20427,14 @@
       <c r="O377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P377">
+        <v>0</v>
+      </c>
+      <c r="Q377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>43722</v>
       </c>
@@ -18212,8 +20480,14 @@
       <c r="O378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P378">
+        <v>0</v>
+      </c>
+      <c r="Q378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>43723</v>
       </c>
@@ -18259,8 +20533,14 @@
       <c r="O379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P379">
+        <v>0</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>43724</v>
       </c>
@@ -18306,8 +20586,14 @@
       <c r="O380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P380">
+        <v>0</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>43725</v>
       </c>
@@ -18353,8 +20639,14 @@
       <c r="O381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P381">
+        <v>0</v>
+      </c>
+      <c r="Q381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>43726</v>
       </c>
@@ -18400,8 +20692,14 @@
       <c r="O382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P382">
+        <v>0</v>
+      </c>
+      <c r="Q382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>43727</v>
       </c>
@@ -18447,8 +20745,14 @@
       <c r="O383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P383">
+        <v>0</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>43728</v>
       </c>
@@ -18494,8 +20798,14 @@
       <c r="O384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P384">
+        <v>0</v>
+      </c>
+      <c r="Q384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>43729</v>
       </c>
@@ -18541,8 +20851,14 @@
       <c r="O385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P385">
+        <v>0</v>
+      </c>
+      <c r="Q385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>43730</v>
       </c>
@@ -18588,8 +20904,14 @@
       <c r="O386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P386">
+        <v>0</v>
+      </c>
+      <c r="Q386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>43731</v>
       </c>
@@ -18635,8 +20957,14 @@
       <c r="O387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P387">
+        <v>0</v>
+      </c>
+      <c r="Q387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>43732</v>
       </c>
@@ -18682,8 +21010,14 @@
       <c r="O388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P388">
+        <v>0</v>
+      </c>
+      <c r="Q388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>43733</v>
       </c>
@@ -18729,8 +21063,14 @@
       <c r="O389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P389">
+        <v>0</v>
+      </c>
+      <c r="Q389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>43734</v>
       </c>
@@ -18776,8 +21116,14 @@
       <c r="O390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P390">
+        <v>0</v>
+      </c>
+      <c r="Q390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>43735</v>
       </c>
@@ -18823,8 +21169,14 @@
       <c r="O391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P391">
+        <v>0</v>
+      </c>
+      <c r="Q391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>43736</v>
       </c>
@@ -18870,8 +21222,14 @@
       <c r="O392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P392">
+        <v>0</v>
+      </c>
+      <c r="Q392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>43737</v>
       </c>
@@ -18917,8 +21275,14 @@
       <c r="O393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P393">
+        <v>0</v>
+      </c>
+      <c r="Q393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>43738</v>
       </c>
@@ -18964,8 +21328,14 @@
       <c r="O394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P394">
+        <v>0</v>
+      </c>
+      <c r="Q394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>43739</v>
       </c>
@@ -19011,8 +21381,14 @@
       <c r="O395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P395">
+        <v>0</v>
+      </c>
+      <c r="Q395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>43740</v>
       </c>
@@ -19058,8 +21434,14 @@
       <c r="O396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P396">
+        <v>0</v>
+      </c>
+      <c r="Q396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>43741</v>
       </c>
@@ -19105,8 +21487,14 @@
       <c r="O397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P397">
+        <v>0</v>
+      </c>
+      <c r="Q397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>43742</v>
       </c>
@@ -19152,8 +21540,14 @@
       <c r="O398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P398">
+        <v>0</v>
+      </c>
+      <c r="Q398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>43743</v>
       </c>
@@ -19199,8 +21593,14 @@
       <c r="O399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P399">
+        <v>0</v>
+      </c>
+      <c r="Q399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>43744</v>
       </c>
@@ -19246,8 +21646,14 @@
       <c r="O400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P400">
+        <v>0</v>
+      </c>
+      <c r="Q400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>43745</v>
       </c>
@@ -19293,8 +21699,14 @@
       <c r="O401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P401">
+        <v>0</v>
+      </c>
+      <c r="Q401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>43746</v>
       </c>
@@ -19340,8 +21752,14 @@
       <c r="O402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P402">
+        <v>0</v>
+      </c>
+      <c r="Q402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>43747</v>
       </c>
@@ -19387,8 +21805,14 @@
       <c r="O403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P403">
+        <v>0</v>
+      </c>
+      <c r="Q403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>43748</v>
       </c>
@@ -19434,8 +21858,14 @@
       <c r="O404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P404">
+        <v>0</v>
+      </c>
+      <c r="Q404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>43749</v>
       </c>
@@ -19481,8 +21911,14 @@
       <c r="O405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P405">
+        <v>0</v>
+      </c>
+      <c r="Q405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>43750</v>
       </c>
@@ -19528,8 +21964,14 @@
       <c r="O406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P406">
+        <v>0</v>
+      </c>
+      <c r="Q406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>43751</v>
       </c>
@@ -19575,8 +22017,14 @@
       <c r="O407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P407">
+        <v>0</v>
+      </c>
+      <c r="Q407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>43752</v>
       </c>
@@ -19622,8 +22070,14 @@
       <c r="O408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P408">
+        <v>0</v>
+      </c>
+      <c r="Q408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>43753</v>
       </c>
@@ -19669,8 +22123,14 @@
       <c r="O409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P409">
+        <v>0</v>
+      </c>
+      <c r="Q409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>43754</v>
       </c>
@@ -19716,8 +22176,14 @@
       <c r="O410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P410">
+        <v>0</v>
+      </c>
+      <c r="Q410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>43755</v>
       </c>
@@ -19763,8 +22229,14 @@
       <c r="O411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P411">
+        <v>0</v>
+      </c>
+      <c r="Q411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>43756</v>
       </c>
@@ -19810,8 +22282,14 @@
       <c r="O412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P412">
+        <v>0</v>
+      </c>
+      <c r="Q412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>43757</v>
       </c>
@@ -19857,8 +22335,14 @@
       <c r="O413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P413">
+        <v>0</v>
+      </c>
+      <c r="Q413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>43758</v>
       </c>
@@ -19904,8 +22388,14 @@
       <c r="O414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P414">
+        <v>0</v>
+      </c>
+      <c r="Q414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>43759</v>
       </c>
@@ -19951,8 +22441,14 @@
       <c r="O415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P415">
+        <v>0</v>
+      </c>
+      <c r="Q415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>43760</v>
       </c>
@@ -19998,8 +22494,14 @@
       <c r="O416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P416">
+        <v>0</v>
+      </c>
+      <c r="Q416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>43761</v>
       </c>
@@ -20045,8 +22547,14 @@
       <c r="O417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P417">
+        <v>0</v>
+      </c>
+      <c r="Q417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>43762</v>
       </c>
@@ -20092,8 +22600,14 @@
       <c r="O418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P418">
+        <v>0</v>
+      </c>
+      <c r="Q418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>43763</v>
       </c>
@@ -20139,8 +22653,14 @@
       <c r="O419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P419">
+        <v>0</v>
+      </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>43764</v>
       </c>
@@ -20186,8 +22706,14 @@
       <c r="O420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P420">
+        <v>0</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>43765</v>
       </c>
@@ -20233,8 +22759,14 @@
       <c r="O421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P421">
+        <v>0</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>43766</v>
       </c>
@@ -20280,8 +22812,14 @@
       <c r="O422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P422">
+        <v>0</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>43767</v>
       </c>
@@ -20327,8 +22865,14 @@
       <c r="O423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P423">
+        <v>0</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>43768</v>
       </c>
@@ -20374,8 +22918,14 @@
       <c r="O424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P424">
+        <v>0</v>
+      </c>
+      <c r="Q424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>43769</v>
       </c>
@@ -20421,8 +22971,14 @@
       <c r="O425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P425">
+        <v>0</v>
+      </c>
+      <c r="Q425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>43770</v>
       </c>
@@ -20468,8 +23024,14 @@
       <c r="O426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P426">
+        <v>0</v>
+      </c>
+      <c r="Q426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>43771</v>
       </c>
@@ -20515,8 +23077,14 @@
       <c r="O427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P427">
+        <v>0</v>
+      </c>
+      <c r="Q427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>43772</v>
       </c>
@@ -20562,8 +23130,14 @@
       <c r="O428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P428">
+        <v>0</v>
+      </c>
+      <c r="Q428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>43773</v>
       </c>
@@ -20609,8 +23183,14 @@
       <c r="O429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P429">
+        <v>0</v>
+      </c>
+      <c r="Q429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>43774</v>
       </c>
@@ -20656,8 +23236,14 @@
       <c r="O430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P430">
+        <v>0</v>
+      </c>
+      <c r="Q430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>43775</v>
       </c>
@@ -20703,8 +23289,14 @@
       <c r="O431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P431">
+        <v>0</v>
+      </c>
+      <c r="Q431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>43776</v>
       </c>
@@ -20750,8 +23342,14 @@
       <c r="O432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P432">
+        <v>0</v>
+      </c>
+      <c r="Q432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>43777</v>
       </c>
@@ -20797,8 +23395,14 @@
       <c r="O433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P433">
+        <v>0</v>
+      </c>
+      <c r="Q433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>43778</v>
       </c>
@@ -20844,8 +23448,14 @@
       <c r="O434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P434">
+        <v>0</v>
+      </c>
+      <c r="Q434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>43779</v>
       </c>
@@ -20891,8 +23501,14 @@
       <c r="O435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P435">
+        <v>0</v>
+      </c>
+      <c r="Q435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>43780</v>
       </c>
@@ -20938,8 +23554,14 @@
       <c r="O436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P436">
+        <v>0</v>
+      </c>
+      <c r="Q436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>43781</v>
       </c>
@@ -20985,8 +23607,14 @@
       <c r="O437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P437">
+        <v>0</v>
+      </c>
+      <c r="Q437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>43782</v>
       </c>
@@ -21032,8 +23660,14 @@
       <c r="O438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P438">
+        <v>0</v>
+      </c>
+      <c r="Q438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>43783</v>
       </c>
@@ -21079,8 +23713,14 @@
       <c r="O439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P439">
+        <v>0</v>
+      </c>
+      <c r="Q439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>43784</v>
       </c>
@@ -21126,8 +23766,14 @@
       <c r="O440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P440">
+        <v>0</v>
+      </c>
+      <c r="Q440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>43785</v>
       </c>
@@ -21173,8 +23819,14 @@
       <c r="O441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P441">
+        <v>0</v>
+      </c>
+      <c r="Q441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>43786</v>
       </c>
@@ -21220,8 +23872,14 @@
       <c r="O442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P442">
+        <v>0</v>
+      </c>
+      <c r="Q442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>43787</v>
       </c>
@@ -21267,8 +23925,14 @@
       <c r="O443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P443">
+        <v>0</v>
+      </c>
+      <c r="Q443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>43788</v>
       </c>
@@ -21314,8 +23978,14 @@
       <c r="O444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P444">
+        <v>0</v>
+      </c>
+      <c r="Q444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>43789</v>
       </c>
@@ -21361,8 +24031,14 @@
       <c r="O445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P445">
+        <v>0</v>
+      </c>
+      <c r="Q445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>43790</v>
       </c>
@@ -21408,8 +24084,14 @@
       <c r="O446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P446">
+        <v>0</v>
+      </c>
+      <c r="Q446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>43791</v>
       </c>
@@ -21455,8 +24137,14 @@
       <c r="O447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P447">
+        <v>0</v>
+      </c>
+      <c r="Q447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>43792</v>
       </c>
@@ -21502,8 +24190,14 @@
       <c r="O448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P448">
+        <v>0</v>
+      </c>
+      <c r="Q448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>43793</v>
       </c>
@@ -21549,8 +24243,14 @@
       <c r="O449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P449">
+        <v>0</v>
+      </c>
+      <c r="Q449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>43794</v>
       </c>
@@ -21596,8 +24296,14 @@
       <c r="O450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P450">
+        <v>0</v>
+      </c>
+      <c r="Q450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>43795</v>
       </c>
@@ -21643,8 +24349,14 @@
       <c r="O451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P451">
+        <v>0</v>
+      </c>
+      <c r="Q451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>43796</v>
       </c>
@@ -21690,8 +24402,14 @@
       <c r="O452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P452">
+        <v>0</v>
+      </c>
+      <c r="Q452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>43797</v>
       </c>
@@ -21737,8 +24455,14 @@
       <c r="O453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P453">
+        <v>0</v>
+      </c>
+      <c r="Q453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>43798</v>
       </c>
@@ -21784,8 +24508,14 @@
       <c r="O454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P454">
+        <v>0</v>
+      </c>
+      <c r="Q454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>43799</v>
       </c>
@@ -21831,8 +24561,14 @@
       <c r="O455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P455">
+        <v>0</v>
+      </c>
+      <c r="Q455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>43800</v>
       </c>
@@ -21878,8 +24614,14 @@
       <c r="O456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P456">
+        <v>0</v>
+      </c>
+      <c r="Q456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>43801</v>
       </c>
@@ -21925,8 +24667,14 @@
       <c r="O457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P457">
+        <v>0</v>
+      </c>
+      <c r="Q457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>43802</v>
       </c>
@@ -21972,8 +24720,14 @@
       <c r="O458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P458">
+        <v>0</v>
+      </c>
+      <c r="Q458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>43803</v>
       </c>
@@ -22019,8 +24773,14 @@
       <c r="O459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P459">
+        <v>0</v>
+      </c>
+      <c r="Q459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>43804</v>
       </c>
@@ -22066,8 +24826,14 @@
       <c r="O460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P460">
+        <v>0</v>
+      </c>
+      <c r="Q460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>43805</v>
       </c>
@@ -22113,8 +24879,14 @@
       <c r="O461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P461">
+        <v>0</v>
+      </c>
+      <c r="Q461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>43806</v>
       </c>
@@ -22160,8 +24932,14 @@
       <c r="O462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P462">
+        <v>0</v>
+      </c>
+      <c r="Q462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>43807</v>
       </c>
@@ -22207,8 +24985,14 @@
       <c r="O463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P463">
+        <v>0</v>
+      </c>
+      <c r="Q463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>43808</v>
       </c>
@@ -22254,8 +25038,14 @@
       <c r="O464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P464">
+        <v>0</v>
+      </c>
+      <c r="Q464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>43809</v>
       </c>
@@ -22301,8 +25091,14 @@
       <c r="O465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P465">
+        <v>0</v>
+      </c>
+      <c r="Q465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>43810</v>
       </c>
@@ -22348,8 +25144,14 @@
       <c r="O466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P466">
+        <v>0</v>
+      </c>
+      <c r="Q466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>43811</v>
       </c>
@@ -22395,8 +25197,14 @@
       <c r="O467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P467">
+        <v>0</v>
+      </c>
+      <c r="Q467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>43812</v>
       </c>
@@ -22442,8 +25250,14 @@
       <c r="O468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P468">
+        <v>0</v>
+      </c>
+      <c r="Q468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>43813</v>
       </c>
@@ -22489,8 +25303,14 @@
       <c r="O469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P469">
+        <v>0</v>
+      </c>
+      <c r="Q469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>43814</v>
       </c>
@@ -22536,8 +25356,14 @@
       <c r="O470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P470">
+        <v>0</v>
+      </c>
+      <c r="Q470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>43815</v>
       </c>
@@ -22583,8 +25409,14 @@
       <c r="O471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P471">
+        <v>0</v>
+      </c>
+      <c r="Q471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>43816</v>
       </c>
@@ -22630,8 +25462,14 @@
       <c r="O472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P472">
+        <v>0</v>
+      </c>
+      <c r="Q472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>43817</v>
       </c>
@@ -22677,8 +25515,14 @@
       <c r="O473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P473">
+        <v>0</v>
+      </c>
+      <c r="Q473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>43818</v>
       </c>
@@ -22724,8 +25568,14 @@
       <c r="O474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P474">
+        <v>0</v>
+      </c>
+      <c r="Q474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>43819</v>
       </c>
@@ -22771,8 +25621,14 @@
       <c r="O475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P475">
+        <v>0</v>
+      </c>
+      <c r="Q475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>43820</v>
       </c>
@@ -22818,8 +25674,14 @@
       <c r="O476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P476">
+        <v>0</v>
+      </c>
+      <c r="Q476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>43821</v>
       </c>
@@ -22865,8 +25727,14 @@
       <c r="O477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P477">
+        <v>0</v>
+      </c>
+      <c r="Q477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>43822</v>
       </c>
@@ -22912,8 +25780,14 @@
       <c r="O478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P478">
+        <v>0</v>
+      </c>
+      <c r="Q478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>43823</v>
       </c>
@@ -22959,8 +25833,14 @@
       <c r="O479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P479">
+        <v>0</v>
+      </c>
+      <c r="Q479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>43824</v>
       </c>
@@ -23006,8 +25886,14 @@
       <c r="O480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P480">
+        <v>0</v>
+      </c>
+      <c r="Q480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>43825</v>
       </c>
@@ -23053,8 +25939,14 @@
       <c r="O481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P481">
+        <v>0</v>
+      </c>
+      <c r="Q481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>43826</v>
       </c>
@@ -23100,8 +25992,14 @@
       <c r="O482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P482">
+        <v>0</v>
+      </c>
+      <c r="Q482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>43827</v>
       </c>
@@ -23147,8 +26045,14 @@
       <c r="O483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P483">
+        <v>0</v>
+      </c>
+      <c r="Q483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>43828</v>
       </c>
@@ -23194,8 +26098,14 @@
       <c r="O484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P484">
+        <v>0</v>
+      </c>
+      <c r="Q484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>43829</v>
       </c>
@@ -23241,8 +26151,14 @@
       <c r="O485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P485">
+        <v>0</v>
+      </c>
+      <c r="Q485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>43830</v>
       </c>
@@ -23288,8 +26204,14 @@
       <c r="O486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P486">
+        <v>0</v>
+      </c>
+      <c r="Q486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>43831</v>
       </c>
@@ -23335,8 +26257,14 @@
       <c r="O487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P487">
+        <v>0</v>
+      </c>
+      <c r="Q487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>43832</v>
       </c>
@@ -23382,8 +26310,14 @@
       <c r="O488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P488">
+        <v>0</v>
+      </c>
+      <c r="Q488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>43833</v>
       </c>
@@ -23429,8 +26363,14 @@
       <c r="O489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P489">
+        <v>0</v>
+      </c>
+      <c r="Q489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>43834</v>
       </c>
@@ -23476,8 +26416,14 @@
       <c r="O490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P490">
+        <v>0</v>
+      </c>
+      <c r="Q490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>43835</v>
       </c>
@@ -23523,8 +26469,14 @@
       <c r="O491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P491">
+        <v>0</v>
+      </c>
+      <c r="Q491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>43836</v>
       </c>
@@ -23570,8 +26522,14 @@
       <c r="O492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P492">
+        <v>0</v>
+      </c>
+      <c r="Q492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>43837</v>
       </c>
@@ -23617,8 +26575,14 @@
       <c r="O493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P493">
+        <v>0</v>
+      </c>
+      <c r="Q493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>43838</v>
       </c>
@@ -23664,8 +26628,14 @@
       <c r="O494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P494">
+        <v>0</v>
+      </c>
+      <c r="Q494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>43839</v>
       </c>
@@ -23711,8 +26681,14 @@
       <c r="O495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P495">
+        <v>0</v>
+      </c>
+      <c r="Q495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>43840</v>
       </c>
@@ -23758,8 +26734,14 @@
       <c r="O496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P496">
+        <v>0</v>
+      </c>
+      <c r="Q496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>43841</v>
       </c>
@@ -23805,8 +26787,14 @@
       <c r="O497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P497">
+        <v>0</v>
+      </c>
+      <c r="Q497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>43842</v>
       </c>
@@ -23852,8 +26840,14 @@
       <c r="O498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P498">
+        <v>0</v>
+      </c>
+      <c r="Q498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>43843</v>
       </c>
@@ -23899,8 +26893,14 @@
       <c r="O499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P499">
+        <v>0</v>
+      </c>
+      <c r="Q499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>43844</v>
       </c>
@@ -23946,8 +26946,14 @@
       <c r="O500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P500">
+        <v>0</v>
+      </c>
+      <c r="Q500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>43845</v>
       </c>
@@ -23993,8 +26999,14 @@
       <c r="O501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P501">
+        <v>0</v>
+      </c>
+      <c r="Q501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>43846</v>
       </c>
@@ -24040,8 +27052,14 @@
       <c r="O502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P502">
+        <v>0</v>
+      </c>
+      <c r="Q502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>43847</v>
       </c>
@@ -24087,8 +27105,14 @@
       <c r="O503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P503">
+        <v>0</v>
+      </c>
+      <c r="Q503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>43848</v>
       </c>
@@ -24134,8 +27158,14 @@
       <c r="O504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P504">
+        <v>0</v>
+      </c>
+      <c r="Q504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>43849</v>
       </c>
@@ -24181,8 +27211,14 @@
       <c r="O505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P505">
+        <v>0</v>
+      </c>
+      <c r="Q505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>43850</v>
       </c>
@@ -24228,8 +27264,14 @@
       <c r="O506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P506">
+        <v>0</v>
+      </c>
+      <c r="Q506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>43851</v>
       </c>
@@ -24275,8 +27317,14 @@
       <c r="O507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P507">
+        <v>0</v>
+      </c>
+      <c r="Q507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>43852</v>
       </c>
@@ -24322,8 +27370,14 @@
       <c r="O508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P508">
+        <v>0</v>
+      </c>
+      <c r="Q508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>43853</v>
       </c>
@@ -24369,8 +27423,14 @@
       <c r="O509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P509">
+        <v>0</v>
+      </c>
+      <c r="Q509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>43854</v>
       </c>
@@ -24416,8 +27476,14 @@
       <c r="O510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P510">
+        <v>0</v>
+      </c>
+      <c r="Q510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>43855</v>
       </c>
@@ -24463,8 +27529,14 @@
       <c r="O511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P511">
+        <v>0</v>
+      </c>
+      <c r="Q511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>43856</v>
       </c>
@@ -24510,8 +27582,14 @@
       <c r="O512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P512">
+        <v>0</v>
+      </c>
+      <c r="Q512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>43857</v>
       </c>
@@ -24557,8 +27635,14 @@
       <c r="O513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P513">
+        <v>0</v>
+      </c>
+      <c r="Q513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>43858</v>
       </c>
@@ -24604,8 +27688,14 @@
       <c r="O514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P514">
+        <v>0</v>
+      </c>
+      <c r="Q514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>43859</v>
       </c>
@@ -24651,8 +27741,14 @@
       <c r="O515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P515">
+        <v>0</v>
+      </c>
+      <c r="Q515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>43860</v>
       </c>
@@ -24698,8 +27794,14 @@
       <c r="O516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P516">
+        <v>0</v>
+      </c>
+      <c r="Q516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>43861</v>
       </c>
@@ -24745,8 +27847,14 @@
       <c r="O517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P517">
+        <v>0</v>
+      </c>
+      <c r="Q517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>43862</v>
       </c>
@@ -24792,8 +27900,14 @@
       <c r="O518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P518">
+        <v>0</v>
+      </c>
+      <c r="Q518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>43863</v>
       </c>
@@ -24839,8 +27953,14 @@
       <c r="O519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P519">
+        <v>0</v>
+      </c>
+      <c r="Q519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>43864</v>
       </c>
@@ -24886,8 +28006,14 @@
       <c r="O520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P520">
+        <v>0</v>
+      </c>
+      <c r="Q520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>43865</v>
       </c>
@@ -24933,8 +28059,14 @@
       <c r="O521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P521">
+        <v>0</v>
+      </c>
+      <c r="Q521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>43866</v>
       </c>
@@ -24980,8 +28112,14 @@
       <c r="O522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P522">
+        <v>0</v>
+      </c>
+      <c r="Q522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>43867</v>
       </c>
@@ -25027,8 +28165,14 @@
       <c r="O523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P523">
+        <v>0</v>
+      </c>
+      <c r="Q523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>43868</v>
       </c>
@@ -25074,8 +28218,14 @@
       <c r="O524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P524">
+        <v>0</v>
+      </c>
+      <c r="Q524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>43869</v>
       </c>
@@ -25121,8 +28271,14 @@
       <c r="O525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P525">
+        <v>0</v>
+      </c>
+      <c r="Q525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>43870</v>
       </c>
@@ -25168,8 +28324,14 @@
       <c r="O526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P526">
+        <v>0</v>
+      </c>
+      <c r="Q526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>43871</v>
       </c>
@@ -25215,8 +28377,14 @@
       <c r="O527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P527">
+        <v>0</v>
+      </c>
+      <c r="Q527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>43872</v>
       </c>
@@ -25262,8 +28430,14 @@
       <c r="O528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P528">
+        <v>0</v>
+      </c>
+      <c r="Q528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>43873</v>
       </c>
@@ -25309,8 +28483,14 @@
       <c r="O529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P529">
+        <v>0</v>
+      </c>
+      <c r="Q529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>43874</v>
       </c>
@@ -25356,8 +28536,14 @@
       <c r="O530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P530">
+        <v>0</v>
+      </c>
+      <c r="Q530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>43875</v>
       </c>
@@ -25403,8 +28589,14 @@
       <c r="O531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P531">
+        <v>0</v>
+      </c>
+      <c r="Q531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>43876</v>
       </c>
@@ -25450,8 +28642,14 @@
       <c r="O532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P532">
+        <v>0</v>
+      </c>
+      <c r="Q532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>43877</v>
       </c>
@@ -25497,8 +28695,14 @@
       <c r="O533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P533">
+        <v>0</v>
+      </c>
+      <c r="Q533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>43878</v>
       </c>
@@ -25544,8 +28748,14 @@
       <c r="O534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P534">
+        <v>0</v>
+      </c>
+      <c r="Q534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>43879</v>
       </c>
@@ -25591,8 +28801,14 @@
       <c r="O535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P535">
+        <v>0</v>
+      </c>
+      <c r="Q535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>43880</v>
       </c>
@@ -25638,8 +28854,14 @@
       <c r="O536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P536">
+        <v>0</v>
+      </c>
+      <c r="Q536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>43881</v>
       </c>
@@ -25685,8 +28907,14 @@
       <c r="O537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P537">
+        <v>0</v>
+      </c>
+      <c r="Q537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>43882</v>
       </c>
@@ -25732,8 +28960,14 @@
       <c r="O538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P538">
+        <v>0</v>
+      </c>
+      <c r="Q538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>43883</v>
       </c>
@@ -25779,8 +29013,14 @@
       <c r="O539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P539">
+        <v>0</v>
+      </c>
+      <c r="Q539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>43884</v>
       </c>
@@ -25826,17 +29066,23 @@
       <c r="O540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P540">
+        <v>0</v>
+      </c>
+      <c r="Q540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
@@ -26476,6 +29722,7 @@
       <c r="A756" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q540" xr:uid="{2A51AAD6-2908-4A88-A865-B86B51D9F3A9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>